--- a/pali-class/vocab/vocab-class19.xlsx
+++ b/pali-class/vocab/vocab-class19.xlsx
@@ -49,39 +49,39 @@
     <t>amu</t>
   </si>
   <si>
+    <t>passanta 1</t>
+  </si>
+  <si>
+    <t>jānanta</t>
+  </si>
+  <si>
+    <t>samanupassanta</t>
+  </si>
+  <si>
+    <t>tiṭṭhanta 1</t>
+  </si>
+  <si>
+    <t>anussaranta</t>
+  </si>
+  <si>
+    <t>gacchanta</t>
+  </si>
+  <si>
+    <t>viharanta</t>
+  </si>
+  <si>
+    <t>tiṭṭhanta 2</t>
+  </si>
+  <si>
+    <t>ajānanta</t>
+  </si>
+  <si>
     <t>anāpucchanta</t>
   </si>
   <si>
-    <t>passanta 1</t>
-  </si>
-  <si>
-    <t>jānanta</t>
-  </si>
-  <si>
-    <t>samanupassanta</t>
-  </si>
-  <si>
-    <t>tiṭṭhanta 1</t>
-  </si>
-  <si>
-    <t>anussaranta</t>
-  </si>
-  <si>
-    <t>gacchanta</t>
-  </si>
-  <si>
-    <t>viharanta</t>
-  </si>
-  <si>
     <t>apassanta</t>
   </si>
   <si>
-    <t>ajānanta</t>
-  </si>
-  <si>
-    <t>tiṭṭhanta 2</t>
-  </si>
-  <si>
     <t>ekacca 1</t>
   </si>
   <si>
@@ -91,24 +91,24 @@
     <t>ima 1.1</t>
   </si>
   <si>
+    <t>cavamāna</t>
+  </si>
+  <si>
+    <t>caramāna</t>
+  </si>
+  <si>
+    <t>sampassamāna</t>
+  </si>
+  <si>
+    <t>uppajjamāna</t>
+  </si>
+  <si>
+    <t>ākaṅkhamāna</t>
+  </si>
+  <si>
     <t>upapajjamāna</t>
   </si>
   <si>
-    <t>cavamāna</t>
-  </si>
-  <si>
-    <t>caramāna</t>
-  </si>
-  <si>
-    <t>sampassamāna</t>
-  </si>
-  <si>
-    <t>uppajjamāna</t>
-  </si>
-  <si>
-    <t>ākaṅkhamāna</t>
-  </si>
-  <si>
     <t>methuna 1</t>
   </si>
   <si>
@@ -157,12 +157,12 @@
     <t>pacchima 1</t>
   </si>
   <si>
+    <t>paṇīta 2</t>
+  </si>
+  <si>
     <t>hīna 1</t>
   </si>
   <si>
-    <t>paṇīta 2</t>
-  </si>
-  <si>
     <t>anicca 1</t>
   </si>
   <si>
@@ -289,15 +289,15 @@
     <t>anuttara</t>
   </si>
   <si>
+    <t>appamāṇa</t>
+  </si>
+  <si>
     <t>maha 2</t>
   </si>
   <si>
     <t>vipula 1</t>
   </si>
   <si>
-    <t>appamāṇa</t>
-  </si>
-  <si>
     <t>anavajja 1</t>
   </si>
   <si>
@@ -331,6 +331,12 @@
     <t>oḷārika 2</t>
   </si>
   <si>
+    <t>iṭṭha 1</t>
+  </si>
+  <si>
+    <t>kanta 1.1</t>
+  </si>
+  <si>
     <t>akhaṇḍa</t>
   </si>
   <si>
@@ -349,60 +355,54 @@
     <t>acchariya 1</t>
   </si>
   <si>
+    <t>sassata</t>
+  </si>
+  <si>
+    <t>dhuva 1</t>
+  </si>
+  <si>
+    <t>uḷāra 1</t>
+  </si>
+  <si>
+    <t>abhikkanta 3</t>
+  </si>
+  <si>
+    <t>yāvataka</t>
+  </si>
+  <si>
+    <t>nava 1</t>
+  </si>
+  <si>
+    <t>appa 1</t>
+  </si>
+  <si>
+    <t>khama 2</t>
+  </si>
+  <si>
+    <t>svākkhāta</t>
+  </si>
+  <si>
+    <t>sārambha 2.1</t>
+  </si>
+  <si>
+    <t>kaṇha 1</t>
+  </si>
+  <si>
+    <t>dussīla 1</t>
+  </si>
+  <si>
+    <t>ariya 1</t>
+  </si>
+  <si>
     <t>dullabha 1</t>
   </si>
   <si>
-    <t>sassata</t>
-  </si>
-  <si>
-    <t>dhuva 1</t>
-  </si>
-  <si>
-    <t>uḷāra 1</t>
-  </si>
-  <si>
-    <t>abhikkanta 3</t>
-  </si>
-  <si>
     <t>panta 2</t>
   </si>
   <si>
-    <t>yāvataka</t>
-  </si>
-  <si>
-    <t>nava 1</t>
-  </si>
-  <si>
-    <t>appa 1</t>
-  </si>
-  <si>
-    <t>khama 2</t>
-  </si>
-  <si>
-    <t>svākkhāta</t>
-  </si>
-  <si>
     <t>sāra 1</t>
   </si>
   <si>
-    <t>sārambha 2.1</t>
-  </si>
-  <si>
-    <t>kaṇha 1</t>
-  </si>
-  <si>
-    <t>dussīla 1</t>
-  </si>
-  <si>
-    <t>ariya 1</t>
-  </si>
-  <si>
-    <t>iṭṭha 1</t>
-  </si>
-  <si>
-    <t>kanta 1.1</t>
-  </si>
-  <si>
     <t>sukhuma 1</t>
   </si>
   <si>
@@ -631,66 +631,66 @@
     <t>pavuccati</t>
   </si>
   <si>
+    <t>vuccati</t>
+  </si>
+  <si>
+    <t>pahīyati 1.1</t>
+  </si>
+  <si>
+    <t>nirujjhati</t>
+  </si>
+  <si>
+    <t>ñāyati 1</t>
+  </si>
+  <si>
+    <t>jāyati 2</t>
+  </si>
+  <si>
+    <t>vimuccati</t>
+  </si>
+  <si>
+    <t>vijjati 1</t>
+  </si>
+  <si>
+    <t>parinibbāyati 1</t>
+  </si>
+  <si>
+    <t>muccati 1.1</t>
+  </si>
+  <si>
+    <t>paññāyati 1</t>
+  </si>
+  <si>
+    <t>samādhiyati</t>
+  </si>
+  <si>
+    <t>virajjati 1</t>
+  </si>
+  <si>
+    <t>parimuccati</t>
+  </si>
+  <si>
+    <t>haññati 2</t>
+  </si>
+  <si>
+    <t>dissati 2</t>
+  </si>
+  <si>
+    <t>khajjati 1</t>
+  </si>
+  <si>
+    <t>dissati 1</t>
+  </si>
+  <si>
     <t>chijjati 1</t>
   </si>
   <si>
-    <t>vuccati</t>
-  </si>
-  <si>
-    <t>pahīyati 1.1</t>
-  </si>
-  <si>
-    <t>nirujjhati</t>
-  </si>
-  <si>
-    <t>ñāyati 1</t>
-  </si>
-  <si>
-    <t>jāyati 2</t>
-  </si>
-  <si>
-    <t>vimuccati</t>
-  </si>
-  <si>
-    <t>vijjati 1</t>
-  </si>
-  <si>
     <t>paritassati</t>
   </si>
   <si>
-    <t>parinibbāyati 1</t>
-  </si>
-  <si>
-    <t>muccati 1.1</t>
-  </si>
-  <si>
-    <t>paññāyati 1</t>
-  </si>
-  <si>
-    <t>samādhiyati</t>
-  </si>
-  <si>
-    <t>virajjati 1</t>
-  </si>
-  <si>
-    <t>parimuccati</t>
-  </si>
-  <si>
     <t>vinassati</t>
   </si>
   <si>
-    <t>haññati 2</t>
-  </si>
-  <si>
-    <t>dissati 2</t>
-  </si>
-  <si>
-    <t>khajjati 1</t>
-  </si>
-  <si>
-    <t>dissati 1</t>
-  </si>
-  <si>
     <t>pana</t>
   </si>
   <si>
@@ -727,12 +727,15 @@
     <t>hi 1</t>
   </si>
   <si>
+    <t>ce 1</t>
+  </si>
+  <si>
+    <t>santike 1</t>
+  </si>
+  <si>
     <t>dūre 2</t>
   </si>
   <si>
-    <t>santike 1</t>
-  </si>
-  <si>
     <t>bahiddhā 1</t>
   </si>
   <si>
@@ -775,6 +778,9 @@
     <t>antamaso 1</t>
   </si>
   <si>
+    <t>sukhaṃ</t>
+  </si>
+  <si>
     <t>ajjhattaṃ</t>
   </si>
   <si>
@@ -817,12 +823,6 @@
     <t>aññathā 1</t>
   </si>
   <si>
-    <t>ce 1</t>
-  </si>
-  <si>
-    <t>sukhaṃ</t>
-  </si>
-  <si>
     <t>yoniso</t>
   </si>
   <si>
@@ -859,15 +859,15 @@
     <t>kāretabba 1</t>
   </si>
   <si>
+    <t>bhāvetabba</t>
+  </si>
+  <si>
+    <t>sevitabba 2</t>
+  </si>
+  <si>
     <t>daṭṭhabba 1</t>
   </si>
   <si>
-    <t>bhāvetabba</t>
-  </si>
-  <si>
-    <t>sevitabba 2</t>
-  </si>
-  <si>
     <t>pahātabba</t>
   </si>
   <si>
@@ -910,63 +910,63 @@
     <t>deseti 1</t>
   </si>
   <si>
+    <t>sameti 1.1</t>
+  </si>
+  <si>
+    <t>māneti</t>
+  </si>
+  <si>
+    <t>upaṭṭhāpeti 2</t>
+  </si>
+  <si>
+    <t>paññāpeti 3</t>
+  </si>
+  <si>
+    <t>paripūreti 1</t>
+  </si>
+  <si>
+    <t>parisandeti</t>
+  </si>
+  <si>
+    <t>abhininnāmeti 1</t>
+  </si>
+  <si>
+    <t>pakāseti 2</t>
+  </si>
+  <si>
+    <t>parisodheti</t>
+  </si>
+  <si>
+    <t>pasāreti</t>
+  </si>
+  <si>
+    <t>atikkāmeti 2</t>
+  </si>
+  <si>
+    <t>kāreti 4</t>
+  </si>
+  <si>
+    <t>kappeti 1</t>
+  </si>
+  <si>
+    <t>janeti</t>
+  </si>
+  <si>
+    <t>bhāveti</t>
+  </si>
+  <si>
+    <t>sameti 2.2</t>
+  </si>
+  <si>
+    <t>abhisandeti</t>
+  </si>
+  <si>
+    <t>kāreti 2</t>
+  </si>
+  <si>
     <t>pabbājeti 1</t>
   </si>
   <si>
-    <t>sameti 1.1</t>
-  </si>
-  <si>
-    <t>māneti</t>
-  </si>
-  <si>
-    <t>upaṭṭhāpeti 2</t>
-  </si>
-  <si>
-    <t>kāreti 2</t>
-  </si>
-  <si>
-    <t>paññāpeti 3</t>
-  </si>
-  <si>
-    <t>paripūreti 1</t>
-  </si>
-  <si>
-    <t>parisandeti</t>
-  </si>
-  <si>
-    <t>abhisandeti</t>
-  </si>
-  <si>
-    <t>abhininnāmeti 1</t>
-  </si>
-  <si>
-    <t>pakāseti 2</t>
-  </si>
-  <si>
-    <t>parisodheti</t>
-  </si>
-  <si>
-    <t>pasāreti</t>
-  </si>
-  <si>
-    <t>atikkāmeti 2</t>
-  </si>
-  <si>
-    <t>kāreti 4</t>
-  </si>
-  <si>
-    <t>kappeti 1</t>
-  </si>
-  <si>
-    <t>bhāveti</t>
-  </si>
-  <si>
-    <t>janeti</t>
-  </si>
-  <si>
-    <t>sameti 2.2</t>
-  </si>
-  <si>
     <t>pamādi</t>
   </si>
   <si>
@@ -988,15 +988,15 @@
     <t>tejas 1</t>
   </si>
   <si>
+    <t>āpas</t>
+  </si>
+  <si>
+    <t>cetas</t>
+  </si>
+  <si>
     <t>vāyas</t>
   </si>
   <si>
-    <t>āpas</t>
-  </si>
-  <si>
-    <t>cetas</t>
-  </si>
-  <si>
     <t>rāja 1</t>
   </si>
   <si>
@@ -1006,543 +1006,543 @@
     <t>dhamma 1.03</t>
   </si>
   <si>
+    <t>bhava 3</t>
+  </si>
+  <si>
+    <t>manussa</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>papañca</t>
+  </si>
+  <si>
+    <t>saṅghādisesa 2</t>
+  </si>
+  <si>
+    <t>vasa 1.2</t>
+  </si>
+  <si>
+    <t>attha 1.3</t>
+  </si>
+  <si>
+    <t>puggala</t>
+  </si>
+  <si>
+    <t>āsaya 2</t>
+  </si>
+  <si>
+    <t>dhamma 1.01</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>vassa 2</t>
+  </si>
+  <si>
+    <t>āvāsa 1</t>
+  </si>
+  <si>
+    <t>māsa 1.1</t>
+  </si>
+  <si>
+    <t>antarāya</t>
+  </si>
+  <si>
+    <t>moggallāna 1</t>
+  </si>
+  <si>
+    <t>dhamma 1.14</t>
+  </si>
+  <si>
+    <t>vaṇṇa 03</t>
+  </si>
+  <si>
+    <t>accaya 3</t>
+  </si>
+  <si>
+    <t>saṃvara 2</t>
+  </si>
+  <si>
+    <t>vāda 4</t>
+  </si>
+  <si>
+    <t>magga 1</t>
+  </si>
+  <si>
+    <t>sunakkhatta 2</t>
+  </si>
+  <si>
+    <t>putta 1</t>
+  </si>
+  <si>
+    <t>māsa 2.1</t>
+  </si>
+  <si>
+    <t>bhoga 1.1</t>
+  </si>
+  <si>
+    <t>paccaya 2</t>
+  </si>
+  <si>
+    <t>purisa 1</t>
+  </si>
+  <si>
+    <t>sūriya 1</t>
+  </si>
+  <si>
+    <t>samaya 1.1</t>
+  </si>
+  <si>
+    <t>vaccha 1.1</t>
+  </si>
+  <si>
+    <t>sāra 2</t>
+  </si>
+  <si>
+    <t>attha 1.1</t>
+  </si>
+  <si>
+    <t>sāriputta</t>
+  </si>
+  <si>
+    <t>pañha 2</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
+    <t>khattiya 2</t>
+  </si>
+  <si>
+    <t>patta 1.1</t>
+  </si>
+  <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>magga 2</t>
+  </si>
+  <si>
+    <t>dhamma 1.06</t>
+  </si>
+  <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
+    <t>loka 1</t>
+  </si>
+  <si>
+    <t>kāma 3</t>
+  </si>
+  <si>
+    <t>yāma 1</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>bheda 2</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>attha 1.2</t>
+  </si>
+  <si>
+    <t>ānisaṃsa 1</t>
+  </si>
+  <si>
+    <t>vāta 1</t>
+  </si>
+  <si>
+    <t>sakuṇa</t>
+  </si>
+  <si>
+    <t>paṇḍita 2</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>satta 2.1</t>
+  </si>
+  <si>
+    <t>anta 2</t>
+  </si>
+  <si>
+    <t>byāpāda</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>māna 1.1</t>
+  </si>
+  <si>
+    <t>kodha 1</t>
+  </si>
+  <si>
     <t>pariyāya 4</t>
   </si>
   <si>
-    <t>bhava 3</t>
-  </si>
-  <si>
-    <t>manussa</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>papañca</t>
-  </si>
-  <si>
-    <t>saṅghādisesa 2</t>
-  </si>
-  <si>
-    <t>vasa 1.2</t>
-  </si>
-  <si>
-    <t>vaccha 1.1</t>
-  </si>
-  <si>
-    <t>attha 1.3</t>
-  </si>
-  <si>
-    <t>puggala</t>
-  </si>
-  <si>
-    <t>āsaya 2</t>
-  </si>
-  <si>
-    <t>dhamma 1.01</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>vassa 2</t>
-  </si>
-  <si>
-    <t>āvāsa 1</t>
-  </si>
-  <si>
-    <t>māsa 1.1</t>
-  </si>
-  <si>
-    <t>antarāya</t>
-  </si>
-  <si>
-    <t>moggallāna 1</t>
-  </si>
-  <si>
-    <t>dhamma 1.14</t>
-  </si>
-  <si>
-    <t>vaṇṇa 03</t>
+    <t>kāya 1.2</t>
+  </si>
+  <si>
+    <t>moghapurisa</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>dosa 1</t>
+  </si>
+  <si>
+    <t>rāga 1</t>
+  </si>
+  <si>
+    <t>bheda 3</t>
+  </si>
+  <si>
+    <t>kāla 1.1</t>
+  </si>
+  <si>
+    <t>sāvaka</t>
+  </si>
+  <si>
+    <t>paccaya 1</t>
+  </si>
+  <si>
+    <t>uccāra</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>samatha 1.1</t>
+  </si>
+  <si>
+    <t>nāga 2</t>
+  </si>
+  <si>
+    <t>pallaṅka 2</t>
+  </si>
+  <si>
+    <t>anālaya 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>cāga 1</t>
+  </si>
+  <si>
+    <t>āloka</t>
+  </si>
+  <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>sāmika 1</t>
+  </si>
+  <si>
+    <t>gandha 1</t>
+  </si>
+  <si>
+    <t>gotama</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
+    <t>pāṇa 3</t>
+  </si>
+  <si>
+    <t>samudaya 1</t>
+  </si>
+  <si>
+    <t>khandha 1</t>
+  </si>
+  <si>
+    <t>sambodha</t>
+  </si>
+  <si>
+    <t>upasama</t>
+  </si>
+  <si>
+    <t>pamāda</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
+    <t>ogha 1</t>
+  </si>
+  <si>
+    <t>adhigama 1</t>
+  </si>
+  <si>
+    <t>ñāya</t>
+  </si>
+  <si>
+    <t>samatikkama</t>
+  </si>
+  <si>
+    <t>saṃvara 1</t>
+  </si>
+  <si>
+    <t>anta 3</t>
+  </si>
+  <si>
+    <t>kaccāna</t>
+  </si>
+  <si>
+    <t>kopa 1</t>
+  </si>
+  <si>
+    <t>uddesa 1</t>
+  </si>
+  <si>
+    <t>chanda 2</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sota 1.1</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>bhāva 1</t>
+  </si>
+  <si>
+    <t>apāya 1</t>
+  </si>
+  <si>
+    <t>paṭilābha</t>
+  </si>
+  <si>
+    <t>loka 2</t>
+  </si>
+  <si>
+    <t>samudda</t>
+  </si>
+  <si>
+    <t>asura</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>virāga 2.1</t>
+  </si>
+  <si>
+    <t>āhāra 1</t>
+  </si>
+  <si>
+    <t>visesa 1</t>
+  </si>
+  <si>
+    <t>danta 1.1</t>
+  </si>
+  <si>
+    <t>loma 1</t>
+  </si>
+  <si>
+    <t>kesa</t>
+  </si>
+  <si>
+    <t>sahāya</t>
+  </si>
+  <si>
+    <t>pāsāda</t>
+  </si>
+  <si>
+    <t>kumāra 2</t>
+  </si>
+  <si>
+    <t>ārāma 3</t>
+  </si>
+  <si>
+    <t>paribbājaka</t>
+  </si>
+  <si>
+    <t>rukkha</t>
+  </si>
+  <si>
+    <t>buddha 1</t>
+  </si>
+  <si>
+    <t>gabbha 3</t>
+  </si>
+  <si>
+    <t>chanda 1</t>
+  </si>
+  <si>
+    <t>uppāda 1.1</t>
+  </si>
+  <si>
+    <t>dhamma 1.05</t>
+  </si>
+  <si>
+    <t>moha 1</t>
+  </si>
+  <si>
+    <t>bāla 2</t>
+  </si>
+  <si>
+    <t>rājañña</t>
+  </si>
+  <si>
+    <t>kāya 1.1</t>
+  </si>
+  <si>
+    <t>kassapa 1</t>
+  </si>
+  <si>
+    <t>cora</t>
+  </si>
+  <si>
+    <t>attha 2.1</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>amanasikāra 1</t>
+  </si>
+  <si>
+    <t>ākāsa 2</t>
+  </si>
+  <si>
+    <t>ābādha</t>
+  </si>
+  <si>
+    <t>udapāna</t>
+  </si>
+  <si>
+    <t>upajjhāya</t>
+  </si>
+  <si>
+    <t>upāsaka</t>
+  </si>
+  <si>
+    <t>kalyāṇamitta 2</t>
+  </si>
+  <si>
+    <t>gāma 1</t>
+  </si>
+  <si>
+    <t>cāga 2</t>
+  </si>
+  <si>
+    <t>tathāgata</t>
+  </si>
+  <si>
+    <t>thullaccaya</t>
+  </si>
+  <si>
+    <t>thera 1.2</t>
+  </si>
+  <si>
+    <t>daṇḍa 1</t>
+  </si>
+  <si>
+    <t>dhamma 1.09</t>
+  </si>
+  <si>
+    <t>nara</t>
+  </si>
+  <si>
+    <t>nissaya 1</t>
+  </si>
+  <si>
+    <t>padesa 1</t>
+  </si>
+  <si>
+    <t>passāva</t>
+  </si>
+  <si>
+    <t>bojjhaṅga</t>
+  </si>
+  <si>
+    <t>majjha 2</t>
+  </si>
+  <si>
+    <t>manasikāra</t>
+  </si>
+  <si>
+    <t>sakka 3</t>
+  </si>
+  <si>
+    <t>satipaṭṭhāna 1</t>
   </si>
   <si>
     <t>sara 2.1</t>
   </si>
   <si>
-    <t>accaya 3</t>
-  </si>
-  <si>
-    <t>saṃvara 2</t>
-  </si>
-  <si>
-    <t>vāda 4</t>
-  </si>
-  <si>
-    <t>magga 1</t>
-  </si>
-  <si>
-    <t>sunakkhatta 2</t>
-  </si>
-  <si>
-    <t>putta 1</t>
-  </si>
-  <si>
-    <t>māsa 2.1</t>
-  </si>
-  <si>
-    <t>bhoga 1.1</t>
-  </si>
-  <si>
-    <t>paccaya 2</t>
-  </si>
-  <si>
-    <t>purisa 1</t>
-  </si>
-  <si>
-    <t>sūriya 1</t>
-  </si>
-  <si>
-    <t>samaya 1.1</t>
-  </si>
-  <si>
-    <t>sāra 2</t>
-  </si>
-  <si>
-    <t>attha 1.1</t>
-  </si>
-  <si>
-    <t>sāriputta</t>
-  </si>
-  <si>
-    <t>pañha 2</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>khattiya 2</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
-  </si>
-  <si>
-    <t>daṇḍa 1</t>
-  </si>
-  <si>
-    <t>magga 2</t>
-  </si>
-  <si>
-    <t>dhamma 1.06</t>
-  </si>
-  <si>
-    <t>majjha 2</t>
-  </si>
-  <si>
-    <t>anta 3</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>loka 1</t>
-  </si>
-  <si>
-    <t>kāma 3</t>
-  </si>
-  <si>
-    <t>yāma 1</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>bheda 2</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>attha 1.2</t>
-  </si>
-  <si>
-    <t>ānisaṃsa 1</t>
-  </si>
-  <si>
-    <t>vāta 1</t>
-  </si>
-  <si>
-    <t>sakuṇa</t>
-  </si>
-  <si>
-    <t>paṇḍita 2</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>satta 2.1</t>
-  </si>
-  <si>
-    <t>anta 2</t>
-  </si>
-  <si>
-    <t>byāpāda</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>māna 1.1</t>
-  </si>
-  <si>
-    <t>kodha 1</t>
-  </si>
-  <si>
-    <t>kāya 1.2</t>
-  </si>
-  <si>
-    <t>moghapurisa</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>udapāna</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>dosa 1</t>
-  </si>
-  <si>
-    <t>rāga 1</t>
-  </si>
-  <si>
-    <t>bheda 3</t>
-  </si>
-  <si>
-    <t>kāla 1.1</t>
-  </si>
-  <si>
-    <t>sāvaka</t>
-  </si>
-  <si>
-    <t>paccaya 1</t>
-  </si>
-  <si>
-    <t>uccāra</t>
-  </si>
-  <si>
-    <t>passāva</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 1.02</t>
-  </si>
-  <si>
-    <t>samatha 1.1</t>
-  </si>
-  <si>
-    <t>nāga 2</t>
-  </si>
-  <si>
-    <t>pallaṅka 2</t>
-  </si>
-  <si>
-    <t>anālaya 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>cāga 1</t>
-  </si>
-  <si>
-    <t>āloka</t>
-  </si>
-  <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>padesa 1</t>
-  </si>
-  <si>
-    <t>sāmika 1</t>
-  </si>
-  <si>
-    <t>gandha 1</t>
-  </si>
-  <si>
-    <t>gotama</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>virāga 1.1</t>
-  </si>
-  <si>
-    <t>pāṇa 3</t>
-  </si>
-  <si>
-    <t>samudaya 1</t>
-  </si>
-  <si>
-    <t>khandha 1</t>
-  </si>
-  <si>
-    <t>sambodha</t>
-  </si>
-  <si>
-    <t>upasama</t>
-  </si>
-  <si>
-    <t>pamāda</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
-    <t>ogha 1</t>
-  </si>
-  <si>
-    <t>sakka 3</t>
-  </si>
-  <si>
-    <t>adhigama 1</t>
-  </si>
-  <si>
-    <t>ñāya</t>
-  </si>
-  <si>
-    <t>samatikkama</t>
-  </si>
-  <si>
-    <t>saṃvara 1</t>
-  </si>
-  <si>
-    <t>amanasikāra 1</t>
-  </si>
-  <si>
-    <t>kaccāna</t>
-  </si>
-  <si>
-    <t>kopa 1</t>
-  </si>
-  <si>
-    <t>uddesa 1</t>
-  </si>
-  <si>
-    <t>chanda 2</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
-    <t>sota 1.1</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>bhāva 1</t>
-  </si>
-  <si>
-    <t>apāya 1</t>
-  </si>
-  <si>
-    <t>loka 2</t>
-  </si>
-  <si>
-    <t>samudda</t>
-  </si>
-  <si>
-    <t>asura</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>virāga 2.1</t>
-  </si>
-  <si>
-    <t>āhāra 1</t>
-  </si>
-  <si>
-    <t>visesa 1</t>
-  </si>
-  <si>
-    <t>danta 1.1</t>
-  </si>
-  <si>
-    <t>loma 1</t>
-  </si>
-  <si>
-    <t>kesa</t>
-  </si>
-  <si>
-    <t>sahāya</t>
-  </si>
-  <si>
-    <t>pāsāda</t>
-  </si>
-  <si>
-    <t>kumāra 2</t>
-  </si>
-  <si>
-    <t>ārāma 3</t>
-  </si>
-  <si>
-    <t>paribbājaka</t>
-  </si>
-  <si>
-    <t>rukkha</t>
-  </si>
-  <si>
-    <t>buddha 1</t>
-  </si>
-  <si>
-    <t>gabbha 3</t>
-  </si>
-  <si>
-    <t>chanda 1</t>
-  </si>
-  <si>
-    <t>uppāda 1.1</t>
-  </si>
-  <si>
-    <t>dhamma 1.05</t>
-  </si>
-  <si>
-    <t>moha 1</t>
-  </si>
-  <si>
-    <t>bāla 2</t>
-  </si>
-  <si>
-    <t>rājañña</t>
-  </si>
-  <si>
-    <t>kāya 1.1</t>
-  </si>
-  <si>
-    <t>kassapa 1</t>
-  </si>
-  <si>
-    <t>cora</t>
-  </si>
-  <si>
-    <t>attha 2.1</t>
-  </si>
-  <si>
-    <t>patta 1.1</t>
-  </si>
-  <si>
-    <t>paṭilābha</t>
-  </si>
-  <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
-    <t>ākāsa 2</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>ābādha</t>
-  </si>
-  <si>
-    <t>upajjhāya</t>
-  </si>
-  <si>
-    <t>upāsaka</t>
-  </si>
-  <si>
-    <t>kalyāṇamitta 2</t>
-  </si>
-  <si>
-    <t>gāma 1</t>
-  </si>
-  <si>
-    <t>cāga 2</t>
-  </si>
-  <si>
-    <t>tathāgata</t>
-  </si>
-  <si>
-    <t>thullaccaya</t>
-  </si>
-  <si>
-    <t>thera 1.2</t>
-  </si>
-  <si>
-    <t>dhamma 1.09</t>
-  </si>
-  <si>
-    <t>nara</t>
-  </si>
-  <si>
-    <t>nissaya 1</t>
-  </si>
-  <si>
-    <t>bojjhaṅga</t>
-  </si>
-  <si>
-    <t>manasikāra</t>
-  </si>
-  <si>
-    <t>satipaṭṭhāna 1</t>
-  </si>
-  <si>
     <t>sīha 1</t>
   </si>
   <si>
@@ -1585,192 +1585,192 @@
     <t>bandhati 1</t>
   </si>
   <si>
+    <t>pasavati 2</t>
+  </si>
+  <si>
+    <t>paṭinissajjati</t>
+  </si>
+  <si>
+    <t>abhivaḍḍhati</t>
+  </si>
+  <si>
+    <t>vadati 1</t>
+  </si>
+  <si>
+    <t>pabbajati</t>
+  </si>
+  <si>
+    <t>samudācarati 2.1</t>
+  </si>
+  <si>
+    <t>uddisati 1</t>
+  </si>
+  <si>
+    <t>pakkamati 1</t>
+  </si>
+  <si>
+    <t>ārabhati 1.1</t>
+  </si>
+  <si>
+    <t>icchati 1.1</t>
+  </si>
+  <si>
+    <t>rakkhati 1</t>
+  </si>
+  <si>
+    <t>gaccha 1</t>
+  </si>
+  <si>
+    <t>upasaṅkamati</t>
+  </si>
+  <si>
+    <t>bhāsati 1.1</t>
+  </si>
+  <si>
+    <t>yācati 1</t>
+  </si>
+  <si>
+    <t>samanupassati 2</t>
+  </si>
+  <si>
+    <t>harati 2</t>
+  </si>
+  <si>
+    <t>paṭilabhati</t>
+  </si>
+  <si>
+    <t>passasati</t>
+  </si>
+  <si>
+    <t>assasati</t>
+  </si>
+  <si>
+    <t>ākaṅkhati</t>
+  </si>
+  <si>
+    <t>gaṇhati 1</t>
+  </si>
+  <si>
+    <t>pakkhandati 1</t>
+  </si>
+  <si>
+    <t>bhaṇati 1</t>
+  </si>
+  <si>
+    <t>ovadati</t>
+  </si>
+  <si>
+    <t>phusati 1</t>
+  </si>
+  <si>
+    <t>uddharati 1</t>
+  </si>
+  <si>
+    <t>nikkhipati 2</t>
+  </si>
+  <si>
+    <t>passati 2</t>
+  </si>
+  <si>
+    <t>paṭisañcikkhati</t>
+  </si>
+  <si>
+    <t>jahati 1</t>
+  </si>
+  <si>
+    <t>sikkhati 2</t>
+  </si>
+  <si>
+    <t>paṭisevati 2</t>
+  </si>
+  <si>
+    <t>nikkhipati 3</t>
+  </si>
+  <si>
+    <t>bhajati 1.1</t>
+  </si>
+  <si>
+    <t>vattati 1</t>
+  </si>
+  <si>
+    <t>labhati 1</t>
+  </si>
+  <si>
+    <t>anussarati 1.1</t>
+  </si>
+  <si>
+    <t>nisīdati</t>
+  </si>
+  <si>
+    <t>bhavati 1</t>
+  </si>
+  <si>
+    <t>khādati</t>
+  </si>
+  <si>
+    <t>pucchati</t>
+  </si>
+  <si>
+    <t>saṃvattati</t>
+  </si>
+  <si>
+    <t>gacchati 1</t>
+  </si>
+  <si>
+    <t>pariharati 3</t>
+  </si>
+  <si>
+    <t>kaṅkhati 1</t>
+  </si>
+  <si>
+    <t>vasati</t>
+  </si>
+  <si>
+    <t>tiṭṭhati 1</t>
+  </si>
+  <si>
+    <t>padahati 1</t>
+  </si>
+  <si>
+    <t>vāyamati</t>
+  </si>
+  <si>
+    <t>adhigacchati</t>
+  </si>
+  <si>
+    <t>abhiramati</t>
+  </si>
+  <si>
+    <t>pavisati</t>
+  </si>
+  <si>
+    <t>viharati 1</t>
+  </si>
+  <si>
+    <t>vaḍḍhati</t>
+  </si>
+  <si>
+    <t>kappati</t>
+  </si>
+  <si>
+    <t>passati 1</t>
+  </si>
+  <si>
+    <t>arahati 3</t>
+  </si>
+  <si>
+    <t>carati 1.1</t>
+  </si>
+  <si>
+    <t>tiṭṭhati 3</t>
+  </si>
+  <si>
     <t>passa 2.1</t>
   </si>
   <si>
-    <t>tiṭṭhati 3</t>
-  </si>
-  <si>
-    <t>paṭinissajjati</t>
-  </si>
-  <si>
-    <t>abhivaḍḍhati</t>
-  </si>
-  <si>
-    <t>vadati 1</t>
-  </si>
-  <si>
-    <t>pabbajati</t>
-  </si>
-  <si>
-    <t>samudācarati 2.1</t>
-  </si>
-  <si>
-    <t>uddisati 1</t>
-  </si>
-  <si>
-    <t>pakkamati 1</t>
-  </si>
-  <si>
-    <t>ārabhati 1.1</t>
-  </si>
-  <si>
-    <t>icchati 1.1</t>
-  </si>
-  <si>
-    <t>rakkhati 2</t>
-  </si>
-  <si>
-    <t>upasaṅkamati</t>
-  </si>
-  <si>
-    <t>bhāsati 1.1</t>
-  </si>
-  <si>
-    <t>yācati 1</t>
-  </si>
-  <si>
-    <t>samanupassati 2</t>
-  </si>
-  <si>
-    <t>harati 2</t>
-  </si>
-  <si>
-    <t>paṭilabhati</t>
-  </si>
-  <si>
-    <t>passasati</t>
-  </si>
-  <si>
-    <t>assasati</t>
-  </si>
-  <si>
-    <t>ākaṅkhati</t>
-  </si>
-  <si>
-    <t>gaṇhati 1</t>
-  </si>
-  <si>
-    <t>pakkhandati 1</t>
-  </si>
-  <si>
-    <t>bhaṇati 1</t>
-  </si>
-  <si>
-    <t>ovadati</t>
-  </si>
-  <si>
-    <t>phusati 1</t>
-  </si>
-  <si>
-    <t>uddharati 1</t>
-  </si>
-  <si>
-    <t>nikkhipati 2</t>
-  </si>
-  <si>
-    <t>passati 2</t>
-  </si>
-  <si>
-    <t>paṭisañcikkhati</t>
-  </si>
-  <si>
-    <t>jahati 1</t>
-  </si>
-  <si>
-    <t>sikkhati 2</t>
-  </si>
-  <si>
-    <t>paṭisevati 2</t>
-  </si>
-  <si>
     <t>pavaḍḍhati 1</t>
   </si>
   <si>
-    <t>nikkhipati 3</t>
-  </si>
-  <si>
-    <t>bhajati 1.1</t>
-  </si>
-  <si>
-    <t>arahati 3</t>
-  </si>
-  <si>
-    <t>pasavati 2</t>
-  </si>
-  <si>
-    <t>vattati 1</t>
-  </si>
-  <si>
-    <t>labhati 1</t>
-  </si>
-  <si>
-    <t>anussarati 1.1</t>
-  </si>
-  <si>
-    <t>nisīdati</t>
-  </si>
-  <si>
-    <t>bhavati 1</t>
-  </si>
-  <si>
-    <t>khādati</t>
-  </si>
-  <si>
-    <t>pucchati</t>
-  </si>
-  <si>
-    <t>saṃvattati</t>
-  </si>
-  <si>
-    <t>gacchati 1</t>
-  </si>
-  <si>
-    <t>pariharati 3</t>
-  </si>
-  <si>
-    <t>kaṅkhati 1</t>
-  </si>
-  <si>
-    <t>vasati</t>
-  </si>
-  <si>
-    <t>tiṭṭhati 1</t>
-  </si>
-  <si>
-    <t>padahati 1</t>
-  </si>
-  <si>
-    <t>vāyamati</t>
-  </si>
-  <si>
-    <t>adhigacchati</t>
-  </si>
-  <si>
-    <t>abhiramati</t>
-  </si>
-  <si>
-    <t>pavisati</t>
-  </si>
-  <si>
-    <t>viharati 1</t>
-  </si>
-  <si>
-    <t>vaḍḍhati</t>
-  </si>
-  <si>
-    <t>kappati</t>
-  </si>
-  <si>
-    <t>passati 1</t>
-  </si>
-  <si>
-    <t>gaccha 1</t>
-  </si>
-  <si>
-    <t>carati 1.1</t>
-  </si>
-  <si>
     <t>pūjeti 1</t>
   </si>
   <si>
@@ -1789,12 +1789,12 @@
     <t>vedeti 1</t>
   </si>
   <si>
+    <t>seti 2</t>
+  </si>
+  <si>
     <t>dhāreti 3</t>
   </si>
   <si>
-    <t>seti 2</t>
-  </si>
-  <si>
     <t>deti 1</t>
   </si>
   <si>
@@ -1819,39 +1819,39 @@
     <t>suṇātu</t>
   </si>
   <si>
+    <t>pāpuṇāti 1</t>
+  </si>
+  <si>
     <t>pajānāti</t>
   </si>
   <si>
+    <t>paṭibhāti</t>
+  </si>
+  <si>
+    <t>paṭijānāti 3</t>
+  </si>
+  <si>
+    <t>dadāti</t>
+  </si>
+  <si>
+    <t>vijānāti 1</t>
+  </si>
+  <si>
+    <t>ājānāti 1</t>
+  </si>
+  <si>
+    <t>paggaṇhāti 2</t>
+  </si>
+  <si>
+    <t>saṇṭhāti</t>
+  </si>
+  <si>
+    <t>jānāti 1</t>
+  </si>
+  <si>
     <t>paṭiggaṇhāti 1</t>
   </si>
   <si>
-    <t>paṭibhāti</t>
-  </si>
-  <si>
-    <t>paṭijānāti 3</t>
-  </si>
-  <si>
-    <t>dadāti</t>
-  </si>
-  <si>
-    <t>vijānāti 1</t>
-  </si>
-  <si>
-    <t>ājānāti 1</t>
-  </si>
-  <si>
-    <t>paggaṇhāti 2</t>
-  </si>
-  <si>
-    <t>saṇṭhāti</t>
-  </si>
-  <si>
-    <t>jānāti 1</t>
-  </si>
-  <si>
-    <t>pāpuṇāti 1</t>
-  </si>
-  <si>
     <t>vāṇija</t>
   </si>
   <si>
@@ -1867,6 +1867,9 @@
     <t>ādiyati 1</t>
   </si>
   <si>
+    <t>āpajjati 5</t>
+  </si>
+  <si>
     <t>āpajjati 2</t>
   </si>
   <si>
@@ -1876,36 +1879,33 @@
     <t>maññati 1</t>
   </si>
   <si>
+    <t>upapajjati 1</t>
+  </si>
+  <si>
+    <t>anuyuñjati 2</t>
+  </si>
+  <si>
+    <t>muñcati 2</t>
+  </si>
+  <si>
+    <t>bhuñjati 1</t>
+  </si>
+  <si>
+    <t>uppajjati 1</t>
+  </si>
+  <si>
+    <t>nibbindati 1</t>
+  </si>
+  <si>
+    <t>jhāyati 2</t>
+  </si>
+  <si>
+    <t>chindati 1</t>
+  </si>
+  <si>
     <t>upādiyati</t>
   </si>
   <si>
-    <t>upapajjati 1</t>
-  </si>
-  <si>
-    <t>anuyuñjati 2</t>
-  </si>
-  <si>
-    <t>muñcati 2</t>
-  </si>
-  <si>
-    <t>bhuñjati 1</t>
-  </si>
-  <si>
-    <t>uppajjati 1</t>
-  </si>
-  <si>
-    <t>nibbindati 1</t>
-  </si>
-  <si>
-    <t>jhāyati 2</t>
-  </si>
-  <si>
-    <t>chindati 1</t>
-  </si>
-  <si>
-    <t>āpajjati 5</t>
-  </si>
-  <si>
     <t>atthi 2</t>
   </si>
   <si>
@@ -1963,18 +1963,18 @@
     <t>pakkāmi 1</t>
   </si>
   <si>
+    <t>upasaṅkami</t>
+  </si>
+  <si>
+    <t>nisīdi</t>
+  </si>
+  <si>
+    <t>pucchi</t>
+  </si>
+  <si>
     <t>sammodi</t>
   </si>
   <si>
-    <t>pucchi</t>
-  </si>
-  <si>
-    <t>upasaṅkami</t>
-  </si>
-  <si>
-    <t>nisīdi</t>
-  </si>
-  <si>
     <t>muni 1</t>
   </si>
   <si>
@@ -1990,6 +1990,9 @@
     <t>sārathi 1</t>
   </si>
   <si>
+    <t>ñāti</t>
+  </si>
+  <si>
     <t>gahapati</t>
   </si>
   <si>
@@ -2008,9 +2011,6 @@
     <t>byādhi</t>
   </si>
   <si>
-    <t>ñāti</t>
-  </si>
-  <si>
     <t>karoti 1</t>
   </si>
   <si>
@@ -2032,12 +2032,12 @@
     <t>abhāsi 1</t>
   </si>
   <si>
+    <t>byākāsi 1</t>
+  </si>
+  <si>
     <t>aṭṭhāsi 1</t>
   </si>
   <si>
-    <t>byākāsi 1</t>
-  </si>
-  <si>
     <t>āsiṃ</t>
   </si>
   <si>
@@ -2083,6 +2083,9 @@
     <t>no 2.3</t>
   </si>
   <si>
+    <t>me 3</t>
+  </si>
+  <si>
     <t>mayaṃ</t>
   </si>
   <si>
@@ -2104,9 +2107,6 @@
     <t>maṃ 1</t>
   </si>
   <si>
-    <t>me 3</t>
-  </si>
-  <si>
     <t>sobhati 2</t>
   </si>
   <si>
@@ -2173,6 +2173,9 @@
     <t>taṃ 2.1</t>
   </si>
   <si>
+    <t>tayā 1</t>
+  </si>
+  <si>
     <t>tumhākaṃ 2</t>
   </si>
   <si>
@@ -2182,24 +2185,21 @@
     <t>tumhe 1</t>
   </si>
   <si>
+    <t>vo 1.4</t>
+  </si>
+  <si>
     <t>tvaṃ 1</t>
   </si>
   <si>
+    <t>te 2.3</t>
+  </si>
+  <si>
+    <t>tuvaṃ 1</t>
+  </si>
+  <si>
     <t>te 2.4</t>
   </si>
   <si>
-    <t>te 2.3</t>
-  </si>
-  <si>
-    <t>tuvaṃ 1</t>
-  </si>
-  <si>
-    <t>tayā 1</t>
-  </si>
-  <si>
-    <t>vo 1.4</t>
-  </si>
-  <si>
     <t>nābhijānāti 1</t>
   </si>
   <si>
@@ -2302,27 +2302,30 @@
     <t>akkhātar</t>
   </si>
   <si>
+    <t>bhāsitar</t>
+  </si>
+  <si>
     <t>dātar 1</t>
   </si>
   <si>
-    <t>bhāsitar</t>
-  </si>
-  <si>
     <t>pitar</t>
   </si>
   <si>
+    <t>mātāpitar</t>
+  </si>
+  <si>
     <t>bhātar</t>
   </si>
   <si>
-    <t>mātāpitar</t>
-  </si>
-  <si>
     <t>paricarati 3</t>
   </si>
   <si>
     <t>kālena</t>
   </si>
   <si>
+    <t>pubbe 1</t>
+  </si>
+  <si>
     <t>āyatiṃ</t>
   </si>
   <si>
@@ -2338,36 +2341,33 @@
     <t>ca 1</t>
   </si>
   <si>
+    <t>pacchā 1</t>
+  </si>
+  <si>
+    <t>pure 2</t>
+  </si>
+  <si>
+    <t>dāni</t>
+  </si>
+  <si>
+    <t>ajja</t>
+  </si>
+  <si>
     <t>sabbadā</t>
   </si>
   <si>
-    <t>pacchā 1</t>
-  </si>
-  <si>
-    <t>pure 2</t>
-  </si>
-  <si>
-    <t>dāni</t>
-  </si>
-  <si>
-    <t>ajja</t>
-  </si>
-  <si>
-    <t>pubbe 1</t>
-  </si>
-  <si>
     <t>garu 5</t>
   </si>
   <si>
+    <t>phāsu 2</t>
+  </si>
+  <si>
     <t>bhikkhu</t>
   </si>
   <si>
     <t>maccu</t>
   </si>
   <si>
-    <t>phāsu 2</t>
-  </si>
-  <si>
     <t>khemī</t>
   </si>
   <si>
@@ -2386,12 +2386,12 @@
     <t>lokavidū</t>
   </si>
   <si>
+    <t>paṭighāta 1</t>
+  </si>
+  <si>
     <t>gāha 2.2</t>
   </si>
   <si>
-    <t>paṭighāta 1</t>
-  </si>
-  <si>
     <t>nahāyati</t>
   </si>
   <si>
@@ -2413,15 +2413,15 @@
     <t>passeyya 1</t>
   </si>
   <si>
+    <t>vihareyya</t>
+  </si>
+  <si>
     <t>uppajjeyya</t>
   </si>
   <si>
     <t>upapajjeyya</t>
   </si>
   <si>
-    <t>vihareyya</t>
-  </si>
-  <si>
     <t>hanati 2</t>
   </si>
   <si>
@@ -2458,6 +2458,12 @@
     <t>disā 1</t>
   </si>
   <si>
+    <t>nisajjā 1</t>
+  </si>
+  <si>
+    <t>kathā 1</t>
+  </si>
+  <si>
     <t>paññā 1</t>
   </si>
   <si>
@@ -2512,12 +2518,6 @@
     <t>avijjā</t>
   </si>
   <si>
-    <t>nisajjā 1</t>
-  </si>
-  <si>
-    <t>kathā 1</t>
-  </si>
-  <si>
     <t>upasampadā 2</t>
   </si>
   <si>
@@ -2560,54 +2560,54 @@
     <t>hitvā</t>
   </si>
   <si>
+    <t>disvā</t>
+  </si>
+  <si>
+    <t>ñatvā</t>
+  </si>
+  <si>
+    <t>sāyitvā</t>
+  </si>
+  <si>
+    <t>sutvā</t>
+  </si>
+  <si>
+    <t>pharitvā 1</t>
+  </si>
+  <si>
+    <t>chetvā 1</t>
+  </si>
+  <si>
+    <t>katvā 1</t>
+  </si>
+  <si>
+    <t>ābhujitvā</t>
+  </si>
+  <si>
+    <t>paṭissutvā</t>
+  </si>
+  <si>
+    <t>katvāna 1</t>
+  </si>
+  <si>
+    <t>caritvā 1.1</t>
+  </si>
+  <si>
+    <t>gahetvā 1</t>
+  </si>
+  <si>
+    <t>karitvā 1</t>
+  </si>
+  <si>
+    <t>upasaṅkamitvā</t>
+  </si>
+  <si>
+    <t>disvāna</t>
+  </si>
+  <si>
     <t>paggahetvā 2</t>
   </si>
   <si>
-    <t>disvā</t>
-  </si>
-  <si>
-    <t>ñatvā</t>
-  </si>
-  <si>
-    <t>sāyitvā</t>
-  </si>
-  <si>
-    <t>sutvā</t>
-  </si>
-  <si>
-    <t>pharitvā 1</t>
-  </si>
-  <si>
-    <t>chetvā 1</t>
-  </si>
-  <si>
-    <t>katvā 1</t>
-  </si>
-  <si>
-    <t>ābhujitvā</t>
-  </si>
-  <si>
-    <t>paṭissutvā</t>
-  </si>
-  <si>
-    <t>katvāna 1</t>
-  </si>
-  <si>
-    <t>caritvā 1.1</t>
-  </si>
-  <si>
-    <t>gahetvā 1</t>
-  </si>
-  <si>
-    <t>karitvā 1</t>
-  </si>
-  <si>
-    <t>upasaṅkamitvā</t>
-  </si>
-  <si>
-    <t>disvāna</t>
-  </si>
-  <si>
     <t>mātar</t>
   </si>
   <si>
@@ -2635,24 +2635,24 @@
     <t>paṇidhāya 1</t>
   </si>
   <si>
+    <t>ādāya 4</t>
+  </si>
+  <si>
+    <t>upasampajja 1</t>
+  </si>
+  <si>
+    <t>vivicca</t>
+  </si>
+  <si>
+    <t>uṭṭhāya</t>
+  </si>
+  <si>
+    <t>nisajja</t>
+  </si>
+  <si>
     <t>abhinivissa</t>
   </si>
   <si>
-    <t>ādāya 4</t>
-  </si>
-  <si>
-    <t>upasampajja 1</t>
-  </si>
-  <si>
-    <t>vivicca</t>
-  </si>
-  <si>
-    <t>uṭṭhāya</t>
-  </si>
-  <si>
-    <t>nisajja</t>
-  </si>
-  <si>
     <t>ṭhiti 1</t>
   </si>
   <si>
@@ -2677,21 +2677,21 @@
     <t>ruci</t>
   </si>
   <si>
+    <t>sati 1.2</t>
+  </si>
+  <si>
+    <t>pīti 1.1</t>
+  </si>
+  <si>
+    <t>passaddhi</t>
+  </si>
+  <si>
+    <t>saṅghāṭi 1</t>
+  </si>
+  <si>
     <t>sugati</t>
   </si>
   <si>
-    <t>sati 1.2</t>
-  </si>
-  <si>
-    <t>pīti 1.1</t>
-  </si>
-  <si>
-    <t>passaddhi</t>
-  </si>
-  <si>
-    <t>saṅghāṭi 1</t>
-  </si>
-  <si>
     <t>vimutti</t>
   </si>
   <si>
@@ -2701,48 +2701,48 @@
     <t>yattha</t>
   </si>
   <si>
+    <t>tatra 2</t>
+  </si>
+  <si>
+    <t>idha 1</t>
+  </si>
+  <si>
+    <t>tattha 2</t>
+  </si>
+  <si>
+    <t>purato</t>
+  </si>
+  <si>
+    <t>idha 2</t>
+  </si>
+  <si>
+    <t>ekato 1</t>
+  </si>
+  <si>
+    <t>sabbattha 1</t>
+  </si>
+  <si>
+    <t>tattha 1</t>
+  </si>
+  <si>
+    <t>upari 1</t>
+  </si>
+  <si>
+    <t>yato 2</t>
+  </si>
+  <si>
+    <t>tatra 1</t>
+  </si>
+  <si>
+    <t>tato 4</t>
+  </si>
+  <si>
     <t>ettha 1</t>
   </si>
   <si>
-    <t>tatra 2</t>
-  </si>
-  <si>
-    <t>idha 1</t>
-  </si>
-  <si>
-    <t>purato</t>
-  </si>
-  <si>
-    <t>idha 2</t>
-  </si>
-  <si>
-    <t>ekato 1</t>
-  </si>
-  <si>
     <t>kuto 1</t>
   </si>
   <si>
-    <t>sabbattha 1</t>
-  </si>
-  <si>
-    <t>tattha 1</t>
-  </si>
-  <si>
-    <t>upari 1</t>
-  </si>
-  <si>
-    <t>yato 2</t>
-  </si>
-  <si>
-    <t>tatra 1</t>
-  </si>
-  <si>
-    <t>tato 4</t>
-  </si>
-  <si>
-    <t>tattha 2</t>
-  </si>
-  <si>
     <t>dhātu 1</t>
   </si>
   <si>
@@ -2875,24 +2875,27 @@
     <t>pamāṇa 3</t>
   </si>
   <si>
+    <t>jīvita 2</t>
+  </si>
+  <si>
+    <t>upādāna 2</t>
+  </si>
+  <si>
+    <t>sarīra 1</t>
+  </si>
+  <si>
+    <t>passa 1.1</t>
+  </si>
+  <si>
     <t>amata 1</t>
   </si>
   <si>
-    <t>jīvita 2</t>
-  </si>
-  <si>
-    <t>upādāna 2</t>
-  </si>
-  <si>
-    <t>sarīra 1</t>
-  </si>
-  <si>
-    <t>passa 1.1</t>
-  </si>
-  <si>
     <t>padhāna 1</t>
   </si>
   <si>
+    <t>adinna 1</t>
+  </si>
+  <si>
     <t>vattha 1.1</t>
   </si>
   <si>
@@ -2956,24 +2959,21 @@
     <t>vana 1.1</t>
   </si>
   <si>
+    <t>sikkhāpada</t>
+  </si>
+  <si>
+    <t>bhaya 3</t>
+  </si>
+  <si>
     <t>vajja 3</t>
   </si>
   <si>
-    <t>sikkhāpada</t>
-  </si>
-  <si>
-    <t>bhaya 3</t>
-  </si>
-  <si>
     <t>bhojana 2</t>
   </si>
   <si>
     <t>vassa 3</t>
   </si>
   <si>
-    <t>adinna 1</t>
-  </si>
-  <si>
     <t>kusala 4</t>
   </si>
   <si>
@@ -3232,39 +3232,39 @@
     <t>(of person or place or thing) that; such; so and so</t>
   </si>
   <si>
+    <t>seeing</t>
+  </si>
+  <si>
+    <t>knowing; being aware (of)</t>
+  </si>
+  <si>
+    <t>seeing; perceiving</t>
+  </si>
+  <si>
+    <t>standing; standing still</t>
+  </si>
+  <si>
+    <t>remembering; recollecting; keeping in mind</t>
+  </si>
+  <si>
+    <t>going; walking; travelling</t>
+  </si>
+  <si>
+    <t>living (in); staying (at); remaining (in); continuing (in)</t>
+  </si>
+  <si>
+    <t>lasting; remaining; persisting; lit. standing</t>
+  </si>
+  <si>
+    <t>not knowing; being ignorant (of)</t>
+  </si>
+  <si>
     <t>not asking permission; not informing</t>
   </si>
   <si>
-    <t>seeing</t>
-  </si>
-  <si>
-    <t>knowing; being aware (of)</t>
-  </si>
-  <si>
-    <t>seeing; perceiving</t>
-  </si>
-  <si>
-    <t>standing; standing still</t>
-  </si>
-  <si>
-    <t>remembering; recollecting; keeping in mind</t>
-  </si>
-  <si>
-    <t>going; walking; travelling</t>
-  </si>
-  <si>
-    <t>living (in); staying (at); remaining (in); continuing (in)</t>
-  </si>
-  <si>
     <t>not seeing; not noticing; not aware</t>
   </si>
   <si>
-    <t>not knowing; being ignorant (of)</t>
-  </si>
-  <si>
-    <t>lasting; remaining; persisting; lit. standing</t>
-  </si>
-  <si>
     <t>certain; one of</t>
   </si>
   <si>
@@ -3274,24 +3274,24 @@
     <t>this</t>
   </si>
   <si>
+    <t>falling away; dying</t>
+  </si>
+  <si>
+    <t>walking; walking about; wandering around (in); going around</t>
+  </si>
+  <si>
+    <t>seeing; observing; considering</t>
+  </si>
+  <si>
+    <t>arising; appearing; coming into being</t>
+  </si>
+  <si>
+    <t>wishing (for); desiring (for); seeking (for)</t>
+  </si>
+  <si>
     <t>being reborn; re-arising; lit. going towards</t>
   </si>
   <si>
-    <t>falling away; dying</t>
-  </si>
-  <si>
-    <t>walking; walking about; wandering around (in); going around</t>
-  </si>
-  <si>
-    <t>seeing; observing; considering</t>
-  </si>
-  <si>
-    <t>arising; appearing; coming into being</t>
-  </si>
-  <si>
-    <t>wishing (for); desiring (for); seeking (for)</t>
-  </si>
-  <si>
     <t>sexual</t>
   </si>
   <si>
@@ -3340,12 +3340,12 @@
     <t>last; final</t>
   </si>
   <si>
+    <t>fine; refined; excellent; superior; sublime; lit. brought forward</t>
+  </si>
+  <si>
     <t>low; inferior; deficient</t>
   </si>
   <si>
-    <t>fine; refined; excellent; superior; sublime; lit. brought forward</t>
-  </si>
-  <si>
     <t>impermanent; inconstant; not lasting; discontinuous; disordered; unstable; unreliable; irregular</t>
   </si>
   <si>
@@ -3472,15 +3472,15 @@
     <t>highest (of); unsurpassed (by); incomparable (to); superior (to); lit. nothing higher</t>
   </si>
   <si>
+    <t>immeasurable; unlimited; limitless; boundless</t>
+  </si>
+  <si>
     <t>great; venerable; honourable; respected</t>
   </si>
   <si>
     <t>vast; extensive; expansive; massive</t>
   </si>
   <si>
-    <t>immeasurable; unlimited; limitless; boundless</t>
-  </si>
-  <si>
     <t>irreproachable; faultless; blameless; innocent; lit. not to be dispraised</t>
   </si>
   <si>
@@ -3514,6 +3514,12 @@
     <t>(of food) solid; heavy; substantial</t>
   </si>
   <si>
+    <t>pleasing; likeable; cherished; wished for; lit. wished</t>
+  </si>
+  <si>
+    <t>charming (to); pleasant (to); desirable; agreeable (to); lit. desired</t>
+  </si>
+  <si>
     <t>unbroken; unfragmented; whole</t>
   </si>
   <si>
@@ -3532,60 +3538,54 @@
     <t>wonderful; marvellous</t>
   </si>
   <si>
+    <t>eternal; everlasting; endless; perpetual; (comm) existing forever</t>
+  </si>
+  <si>
+    <t>stable; enduring; eternal; everlasting</t>
+  </si>
+  <si>
+    <t>excellent; lofty; high; noble</t>
+  </si>
+  <si>
+    <t>progressing; moving on; (comm) ending; depletion</t>
+  </si>
+  <si>
+    <t>as much as; as long as; as big as; as far as</t>
+  </si>
+  <si>
+    <t>new; fresh</t>
+  </si>
+  <si>
+    <t>few; not many; not much</t>
+  </si>
+  <si>
+    <t>fit (for); capable (of); suitable (for)</t>
+  </si>
+  <si>
+    <t>well taught; well preached; well explained</t>
+  </si>
+  <si>
+    <t>harmful; hurtful; injurious (to living creatures)</t>
+  </si>
+  <si>
+    <t>dark; black</t>
+  </si>
+  <si>
+    <t>unprincipled; immoral; of bad behaviour</t>
+  </si>
+  <si>
+    <t>noble; distinguished; of the Buddha</t>
+  </si>
+  <si>
     <t>difficult to find (for); hard to obtain (for); rare (for)</t>
   </si>
   <si>
-    <t>eternal; everlasting; endless; perpetual; (comm) existing forever</t>
-  </si>
-  <si>
-    <t>stable; enduring; eternal; everlasting</t>
-  </si>
-  <si>
-    <t>excellent; lofty; high; noble</t>
-  </si>
-  <si>
-    <t>progressing; moving on; (comm) ending; depletion</t>
-  </si>
-  <si>
     <t>secluded; isolated; solitary</t>
   </si>
   <si>
-    <t>as much as; as long as; as big as; as far as</t>
-  </si>
-  <si>
-    <t>new; fresh</t>
-  </si>
-  <si>
-    <t>few; not many; not much</t>
-  </si>
-  <si>
-    <t>fit (for); capable (of); suitable (for)</t>
-  </si>
-  <si>
-    <t>well taught; well preached; well explained</t>
-  </si>
-  <si>
     <t>essential; substantial; valuable; sound</t>
   </si>
   <si>
-    <t>harmful; hurtful; injurious (to living creatures)</t>
-  </si>
-  <si>
-    <t>dark; black</t>
-  </si>
-  <si>
-    <t>unprincipled; immoral; of bad behaviour</t>
-  </si>
-  <si>
-    <t>noble; distinguished; of the Buddha</t>
-  </si>
-  <si>
-    <t>pleasing; likeable; cherished; wished for; lit. wished</t>
-  </si>
-  <si>
-    <t>charming (to); pleasant (to); desirable; agreeable (to); lit. desired</t>
-  </si>
-  <si>
     <t>fine; subtle; refined</t>
   </si>
   <si>
@@ -3814,66 +3814,66 @@
     <t>is called; is named; is said to be</t>
   </si>
   <si>
+    <t>is said to be; is called</t>
+  </si>
+  <si>
+    <t>is abandoned; is given up</t>
+  </si>
+  <si>
+    <t>dissolves; finishes; stops; ceases; vanishes</t>
+  </si>
+  <si>
+    <t>is known; is evident; is perceived</t>
+  </si>
+  <si>
+    <t>arises (in); is produced (from)</t>
+  </si>
+  <si>
+    <t>is released (from); is free (from)</t>
+  </si>
+  <si>
+    <t>exists (in); is found (in); is present (in)</t>
+  </si>
+  <si>
+    <t>(of mental defilement) is completely quenched; is entirely emancipated; is completely cooled</t>
+  </si>
+  <si>
+    <t>is free (from); becomes free (from); is released (from)</t>
+  </si>
+  <si>
+    <t>is clearly known; is evident; is perceived; there is</t>
+  </si>
+  <si>
+    <t>is calmed (for); becomes collected (for); becomes composed (for); becomes stable (for); lit. is placed together</t>
+  </si>
+  <si>
+    <t>becomes detached (from); loses interest (in); becomes dispassionate (towards); gets bored (with)</t>
+  </si>
+  <si>
+    <t>is completely freed (from); is totally liberated (from); escapes (from)</t>
+  </si>
+  <si>
+    <t>is hurt; is killed; is destroyed</t>
+  </si>
+  <si>
+    <t>seems; lit. is seen</t>
+  </si>
+  <si>
+    <t>is being eaten (by); is being nibbled (by); lit. is being chewed</t>
+  </si>
+  <si>
+    <t>is seen; is observed; is manifest</t>
+  </si>
+  <si>
     <t>is cut off; is severed</t>
   </si>
   <si>
-    <t>is said to be; is called</t>
-  </si>
-  <si>
-    <t>is abandoned; is given up</t>
-  </si>
-  <si>
-    <t>dissolves; finishes; stops; ceases; vanishes</t>
-  </si>
-  <si>
-    <t>is known; is evident; is perceived</t>
-  </si>
-  <si>
-    <t>arises (in); is produced (from)</t>
-  </si>
-  <si>
-    <t>is released (from); is free (from)</t>
-  </si>
-  <si>
-    <t>exists (in); is found (in); is present (in)</t>
-  </si>
-  <si>
     <t>is perturbed; is shaken; is agitated; is anguished</t>
   </si>
   <si>
-    <t>(of mental defilement) is completely quenched; is entirely emancipated; is completely cooled</t>
-  </si>
-  <si>
-    <t>is free (from); becomes free (from); is released (from)</t>
-  </si>
-  <si>
-    <t>is clearly known; is evident; is perceived; there is</t>
-  </si>
-  <si>
-    <t>is calmed (for); becomes collected (for); becomes composed (for); becomes stable (for); lit. is placed together</t>
-  </si>
-  <si>
-    <t>becomes detached (from); loses interest (in); becomes dispassionate (towards); gets bored (with)</t>
-  </si>
-  <si>
-    <t>is completely freed (from); is totally liberated (from); escapes (from)</t>
-  </si>
-  <si>
     <t>disappears; vanishes; perishes; is destroyed</t>
   </si>
   <si>
-    <t>is hurt; is killed; is destroyed</t>
-  </si>
-  <si>
-    <t>seems; lit. is seen</t>
-  </si>
-  <si>
-    <t>is being eaten (by); is being nibbled (by); lit. is being chewed</t>
-  </si>
-  <si>
-    <t>is seen; is observed; is manifest</t>
-  </si>
-  <si>
     <t>moreover; and so; but; or; however</t>
   </si>
   <si>
@@ -3910,12 +3910,15 @@
     <t>indeed; certainly; truly; definitely</t>
   </si>
   <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>to; in the presence (of); near (to); nearby; close (to); on the verge (of); lit. near</t>
+  </si>
+  <si>
     <t>away (from); far away (from); distant (from)</t>
   </si>
   <si>
-    <t>to; in the presence (of); near (to); nearby; close (to); on the verge (of); lit. near</t>
-  </si>
-  <si>
     <t>externally; outwardly</t>
   </si>
   <si>
@@ -3928,9 +3931,6 @@
     <t>again; once more</t>
   </si>
   <si>
-    <t>if</t>
-  </si>
-  <si>
     <t>then; also; and so; after that</t>
   </si>
   <si>
@@ -3958,6 +3958,9 @@
     <t>even so much as; even with; even down to; with as little as</t>
   </si>
   <si>
+    <t>easily; comfortably; pleasantly; happily</t>
+  </si>
+  <si>
     <t>internally; inwardly; personally</t>
   </si>
   <si>
@@ -4000,9 +4003,6 @@
     <t>differently; otherwise</t>
   </si>
   <si>
-    <t>easily; comfortably; pleasantly; happily</t>
-  </si>
-  <si>
     <t>properly; prudently; thoroughly; carefully; intelligently; lit. to the source</t>
   </si>
   <si>
@@ -4039,15 +4039,15 @@
     <t>should be made; should be done; should be built; lit. to be caused to do</t>
   </si>
   <si>
+    <t>should be cultivated; should be developed; lit. to be caused to be</t>
+  </si>
+  <si>
+    <t>should be practised; should be followed; should be undertaken; lit. to be served</t>
+  </si>
+  <si>
     <t>should be seen; should be regarded as; should be understood; lit. to be seen</t>
   </si>
   <si>
-    <t>should be cultivated; should be developed; lit. to be caused to be</t>
-  </si>
-  <si>
-    <t>should be practised; should be followed; should be undertaken; lit. to be served</t>
-  </si>
-  <si>
     <t>should be given up (by); should be abandoned (by); lit. to be abandoned</t>
   </si>
   <si>
@@ -4090,63 +4090,63 @@
     <t>preach (to); teaches (to); explains (to)</t>
   </si>
   <si>
+    <t>calms down; settles; stills; makes subside; lit. causes to be calm</t>
+  </si>
+  <si>
+    <t>honour; reveres; hold in high esteem</t>
+  </si>
+  <si>
+    <t>establishes; sets up; causes to be present; makes sure one has; lit. causes to stand near</t>
+  </si>
+  <si>
+    <t>is evident; lit. makes itself known</t>
+  </si>
+  <si>
+    <t>fills up; fills out; lit. causes to fill</t>
+  </si>
+  <si>
+    <t>soaks; drenches; lit. makes flow around</t>
+  </si>
+  <si>
+    <t>inclines (towards); bends (towards); directs (towards)</t>
+  </si>
+  <si>
+    <t>explains; illustrates; illuminates; reveals; teaches</t>
+  </si>
+  <si>
+    <t>cleans (from); purifies (of)</t>
+  </si>
+  <si>
+    <t>stretches out; straightens; extends; lit. causes to go forward</t>
+  </si>
+  <si>
+    <t>exceeds; goes over; oversteps; lit. causes to go beyond</t>
+  </si>
+  <si>
+    <t>builds; has constructed; lit. causes to build</t>
+  </si>
+  <si>
+    <t>prepares; arranges; forms; fashions; constructs</t>
+  </si>
+  <si>
+    <t>generates; produces; lit. causes to be born</t>
+  </si>
+  <si>
+    <t>cultivates; develops; lit. causes to become</t>
+  </si>
+  <si>
+    <t>agrees (with); matches (with); fits (with); fits in (with)</t>
+  </si>
+  <si>
+    <t>fills up; fills to the brim; overflows; lit. causes to overflow</t>
+  </si>
+  <si>
+    <t>performs; practices</t>
+  </si>
+  <si>
     <t>banishes (from); exiles (from); drives away (from); lit. causes to leave</t>
   </si>
   <si>
-    <t>calms down; settles; stills; makes subside; lit. causes to be calm</t>
-  </si>
-  <si>
-    <t>honour; reveres; hold in high esteem</t>
-  </si>
-  <si>
-    <t>establishes; sets up; causes to be present; makes sure one has; lit. causes to stand near</t>
-  </si>
-  <si>
-    <t>performs; practices</t>
-  </si>
-  <si>
-    <t>is evident; lit. makes itself known</t>
-  </si>
-  <si>
-    <t>fills up; fills out; lit. causes to fill</t>
-  </si>
-  <si>
-    <t>soaks; drenches; lit. makes flow around</t>
-  </si>
-  <si>
-    <t>fills up; fills to the brim; overflows; lit. causes to overflow</t>
-  </si>
-  <si>
-    <t>inclines (towards); bends (towards); directs (towards)</t>
-  </si>
-  <si>
-    <t>explains; illustrates; illuminates; reveals; teaches</t>
-  </si>
-  <si>
-    <t>cleans (from); purifies (of)</t>
-  </si>
-  <si>
-    <t>stretches out; straightens; extends; lit. causes to go forward</t>
-  </si>
-  <si>
-    <t>exceeds; goes over; oversteps; lit. causes to go beyond</t>
-  </si>
-  <si>
-    <t>builds; has constructed; lit. causes to build</t>
-  </si>
-  <si>
-    <t>prepares; arranges; forms; fashions; constructs</t>
-  </si>
-  <si>
-    <t>cultivates; develops; lit. causes to become</t>
-  </si>
-  <si>
-    <t>generates; produces; lit. causes to be born</t>
-  </si>
-  <si>
-    <t>agrees (with); matches (with); fits (with); fits in (with)</t>
-  </si>
-  <si>
     <t>was careless (about); neglected; was negligent (with); was heedless (about)</t>
   </si>
   <si>
@@ -4168,15 +4168,15 @@
     <t>flame; fire; heat</t>
   </si>
   <si>
+    <t>water; liquid</t>
+  </si>
+  <si>
+    <t>mind; thought; intention</t>
+  </si>
+  <si>
     <t>air; wind</t>
   </si>
   <si>
-    <t>water; liquid</t>
-  </si>
-  <si>
-    <t>mind; thought; intention</t>
-  </si>
-  <si>
     <t>king; ruler</t>
   </si>
   <si>
@@ -4186,537 +4186,537 @@
     <t>teaching; discourse; doctrine</t>
   </si>
   <si>
+    <t>state of existence; form of becoming</t>
+  </si>
+  <si>
+    <t>human being; man; person</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
+  </si>
+  <si>
+    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
+  </si>
+  <si>
+    <t>control (over); authority (over); power (over); mastery (over)</t>
+  </si>
+  <si>
+    <t>purpose; use; function</t>
+  </si>
+  <si>
+    <t>person; individual</t>
+  </si>
+  <si>
+    <t>home (of); dwelling (of); abode (of); lit. resting place</t>
+  </si>
+  <si>
+    <t>nature; character</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>being; becoming; existence</t>
+  </si>
+  <si>
+    <t>rainy season; monsoon</t>
+  </si>
+  <si>
+    <t>home (of); dwelling place (of); residence (of)</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>obstacle (for); danger (for); lit. coming in-between</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in psychic power; lit. descendent of Muggala</t>
+  </si>
+  <si>
+    <t>act; practice</t>
+  </si>
+  <si>
+    <t>appearance; complexion; lit. cover</t>
+  </si>
+  <si>
+    <t>fault; offence; transgression; lit. going beyond</t>
+  </si>
+  <si>
+    <t>control (over); restraint (of); holding back (of)</t>
+  </si>
+  <si>
+    <t>saying; mentioning</t>
+  </si>
+  <si>
+    <t>road; path; track; way</t>
+  </si>
+  <si>
+    <t>name of a former monk; lit. good star sign</t>
+  </si>
+  <si>
+    <t>son; child</t>
+  </si>
+  <si>
+    <t>bean</t>
+  </si>
+  <si>
+    <t>wealth; possessions; property; riches</t>
+  </si>
+  <si>
+    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
+  </si>
+  <si>
+    <t>man; person</t>
+  </si>
+  <si>
+    <t>sun; lit. shining</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. come together</t>
+  </si>
+  <si>
+    <t>calf; yearling; young animal</t>
+  </si>
+  <si>
+    <t>core; essence; substance; value</t>
+  </si>
+  <si>
+    <t>meaning; sense; significance</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+  </si>
+  <si>
+    <t>question; enquiry</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
+    <t>man of the ruling caste; high caste man; nobleman</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl; begging bowl</t>
+  </si>
+  <si>
+    <t>contact; sense impingement; raw experience; touch</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>way; means; method</t>
+  </si>
+  <si>
+    <t>matter; thing; phenomena</t>
+  </si>
+  <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman</t>
+  </si>
+  <si>
+    <t>world; universe; cosmos</t>
+  </si>
+  <si>
+    <t>sense desire (of); sensual pleasure (of)</t>
+  </si>
+  <si>
+    <t>watch (of the night); one eighth of the day; about three hours</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>(vinaya) schism; split; breakup</t>
+  </si>
+  <si>
+    <t>requisite; requirement; necessity; accessory; everyday item</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
+  </si>
+  <si>
+    <t>benefit; profit; good; welfare; goal</t>
+  </si>
+  <si>
+    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>sage; intelligent person; wise man; smart person</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>being; living being; creature</t>
+  </si>
+  <si>
+    <t>end (of); limit (of); finish (of); conclusion (of)</t>
+  </si>
+  <si>
+    <t>dislike; ill-will; hatred; hostility; enmity; malevolence; lit. going wrong</t>
+  </si>
+  <si>
+    <t>hell; hell realm; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
+  </si>
+  <si>
+    <t>pride; conceit; egotism; superiority; comparing oneself</t>
+  </si>
+  <si>
+    <t>anger; wrath; rage; temper</t>
+  </si>
+  <si>
     <t>way; nature; habit; property; quality; lit. going around</t>
   </si>
   <si>
-    <t>state of existence; form of becoming</t>
-  </si>
-  <si>
-    <t>human being; man; person</t>
-  </si>
-  <si>
-    <t>deity; god</t>
-  </si>
-  <si>
-    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
-  </si>
-  <si>
-    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
-  </si>
-  <si>
-    <t>control (over); authority (over); power (over); mastery (over)</t>
-  </si>
-  <si>
-    <t>calf; yearling; young animal</t>
-  </si>
-  <si>
-    <t>purpose; use; function</t>
-  </si>
-  <si>
-    <t>person; individual</t>
-  </si>
-  <si>
-    <t>home (of); dwelling (of); abode (of); lit. resting place</t>
-  </si>
-  <si>
-    <t>nature; character</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>being; becoming; existence</t>
-  </si>
-  <si>
-    <t>rainy season; monsoon</t>
-  </si>
-  <si>
-    <t>home (of); dwelling place (of); residence (of)</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>obstacle (for); danger (for); lit. coming in-between</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in psychic power; lit. descendent of Muggala</t>
-  </si>
-  <si>
-    <t>act; practice</t>
-  </si>
-  <si>
-    <t>appearance; complexion; lit. cover</t>
+    <t>group; host; company; collection; multitude; mass</t>
+  </si>
+  <si>
+    <t>fool; worthless man; useless person; stupid person; lit. empty man</t>
+  </si>
+  <si>
+    <t>community; monastic order; assembly of monks</t>
+  </si>
+  <si>
+    <t>affliction; difficulty; trouble</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow; sadness</t>
+  </si>
+  <si>
+    <t>aversion; ill-will; hate; hatred</t>
+  </si>
+  <si>
+    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
+  </si>
+  <si>
+    <t>breaking; splitting; tearing</t>
+  </si>
+  <si>
+    <t>time; occasion</t>
+  </si>
+  <si>
+    <t>disciple; pupil; follower; lit. hearer</t>
+  </si>
+  <si>
+    <t>support; requisite; necessity</t>
+  </si>
+  <si>
+    <t>excrement; faeces</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner; initiate</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
+  </si>
+  <si>
+    <t>tusker; bull elephant</t>
+  </si>
+  <si>
+    <t>cross-legged sitting position; meditation posture</t>
+  </si>
+  <si>
+    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>giving up; relinquishing; abandoning</t>
+  </si>
+  <si>
+    <t>light; brightness; clarity</t>
+  </si>
+  <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>smell; scent; odour</t>
+  </si>
+  <si>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>being; living being; lit. breath</t>
+  </si>
+  <si>
+    <t>source; arising; origin; appearance</t>
+  </si>
+  <si>
+    <t>mass; heap; pile; volume</t>
+  </si>
+  <si>
+    <t>enlightenment; full awakening; perfect understanding</t>
+  </si>
+  <si>
+    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
+  </si>
+  <si>
+    <t>carelessness; negligence; heedlessness</t>
+  </si>
+  <si>
+    <t>death; Death; death personified</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
+    <t>(of water) flood; deluge; torrent</t>
+  </si>
+  <si>
+    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
+  </si>
+  <si>
+    <t>method; system; means; way</t>
+  </si>
+  <si>
+    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
+  </si>
+  <si>
+    <t>control (according to); restraint (according to); holding back (according to)</t>
+  </si>
+  <si>
+    <t>end; side; extreme</t>
+  </si>
+  <si>
+    <t>family name; lit. descendant of Kati</t>
+  </si>
+  <si>
+    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
+  </si>
+  <si>
+    <t>(vinaya) consent; agreement; approval</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>arahant; enlightened being; saint; paragon</t>
+  </si>
+  <si>
+    <t>stream; river; current</t>
+  </si>
+  <si>
+    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
+  </si>
+  <si>
+    <t>state; condition; characteristic; nature</t>
+  </si>
+  <si>
+    <t>state of loss; state of misery; lit. going away</t>
+  </si>
+  <si>
+    <t>obtaining (of); acquiring (of); gaining (of); personal acquisition (of)</t>
+  </si>
+  <si>
+    <t>world; plane of existence</t>
+  </si>
+  <si>
+    <t>sea; ocean</t>
+  </si>
+  <si>
+    <t>titan; enemy of the devas; lit. anti-hero</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
+  </si>
+  <si>
+    <t>food (for); fuel (for); sustenance (for); nutriment (for); (comm) condition</t>
+  </si>
+  <si>
+    <t>distinction; attainment; superior state; eminence</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>body hair</t>
+  </si>
+  <si>
+    <t>(head) hair</t>
+  </si>
+  <si>
+    <t>friend; companion; ally; fellow traveller; lit. going with</t>
+  </si>
+  <si>
+    <t>mansion; stately home; palace; building with pillars</t>
+  </si>
+  <si>
+    <t>prince</t>
+  </si>
+  <si>
+    <t>park; parkland; nature reserve</t>
+  </si>
+  <si>
+    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>Buddha; Awakened One</t>
+  </si>
+  <si>
+    <t>room; inside room; inner chamber; lit. womb</t>
+  </si>
+  <si>
+    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
+  </si>
+  <si>
+    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
+  </si>
+  <si>
+    <t>mental states</t>
+  </si>
+  <si>
+    <t>illusion; delusion; hallucination</t>
+  </si>
+  <si>
+    <t>fool; idiot; immature person</t>
+  </si>
+  <si>
+    <t>man of the ruling class; young noble</t>
+  </si>
+  <si>
+    <t>body; physical body; physical process</t>
+  </si>
+  <si>
+    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
+  </si>
+  <si>
+    <t>thief; robber</t>
+  </si>
+  <si>
+    <t>need (for); want (for); lit. want</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>non-attention; ignoring; lit. not making in mind</t>
+  </si>
+  <si>
+    <t>sky; air</t>
+  </si>
+  <si>
+    <t>disease; sickness; illness; affliction</t>
+  </si>
+  <si>
+    <t>well; (comm) pond; pool; lit. water drinking</t>
+  </si>
+  <si>
+    <t>preceptor; teacher</t>
+  </si>
+  <si>
+    <t>lay disciple; lay devotee; lit. who sits near</t>
+  </si>
+  <si>
+    <t>excellent friend; good spiritual companion</t>
+  </si>
+  <si>
+    <t>village; hamlet; lit. collection</t>
+  </si>
+  <si>
+    <t>generosity; sharing; liberality</t>
+  </si>
+  <si>
+    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
+  </si>
+  <si>
+    <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
+  </si>
+  <si>
+    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
+  </si>
+  <si>
+    <t>stick; truncheon; nightstick; club</t>
+  </si>
+  <si>
+    <t>law; case; rule</t>
+  </si>
+  <si>
+    <t>dependency; physical support; reliance; something one depends on</t>
+  </si>
+  <si>
+    <t>place; location; region; area</t>
+  </si>
+  <si>
+    <t>urine</t>
+  </si>
+  <si>
+    <t>element of awakening; factor of enlightenment</t>
+  </si>
+  <si>
+    <t>middle</t>
+  </si>
+  <si>
+    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
+  </si>
+  <si>
+    <t>Sakyan; of the Sakyan people</t>
+  </si>
+  <si>
+    <t>attending mindfully; being present with mindfulness</t>
   </si>
   <si>
     <t>sound; voice; tone</t>
   </si>
   <si>
-    <t>fault; offence; transgression; lit. going beyond</t>
-  </si>
-  <si>
-    <t>control (over); restraint (of); holding back (of)</t>
-  </si>
-  <si>
-    <t>saying; mentioning</t>
-  </si>
-  <si>
-    <t>road; path; track; way</t>
-  </si>
-  <si>
-    <t>name of a former monk; lit. good star sign</t>
-  </si>
-  <si>
-    <t>son; child</t>
-  </si>
-  <si>
-    <t>bean</t>
-  </si>
-  <si>
-    <t>wealth; possessions; property; riches</t>
-  </si>
-  <si>
-    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
-  </si>
-  <si>
-    <t>man; person</t>
-  </si>
-  <si>
-    <t>sun; lit. shining</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. come together</t>
-  </si>
-  <si>
-    <t>core; essence; substance; value</t>
-  </si>
-  <si>
-    <t>meaning; sense; significance</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
-  </si>
-  <si>
-    <t>question; enquiry</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>man of the ruling caste; high caste man; nobleman</t>
-  </si>
-  <si>
-    <t>contact; sense impingement; raw experience; touch</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
-  </si>
-  <si>
-    <t>stick; truncheon; nightstick; club</t>
-  </si>
-  <si>
-    <t>way; means; method</t>
-  </si>
-  <si>
-    <t>matter; thing; phenomena</t>
-  </si>
-  <si>
-    <t>middle</t>
-  </si>
-  <si>
-    <t>end; side; extreme</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman</t>
-  </si>
-  <si>
-    <t>world; universe; cosmos</t>
-  </si>
-  <si>
-    <t>sense desire (of); sensual pleasure (of)</t>
-  </si>
-  <si>
-    <t>watch (of the night); one eighth of the day; about three hours</t>
-  </si>
-  <si>
-    <t>foot</t>
-  </si>
-  <si>
-    <t>(vinaya) schism; split; breakup</t>
-  </si>
-  <si>
-    <t>requisite; requirement; necessity; accessory; everyday item</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
-  </si>
-  <si>
-    <t>benefit; profit; good; welfare; goal</t>
-  </si>
-  <si>
-    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
-  </si>
-  <si>
-    <t>wind</t>
-  </si>
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>sage; intelligent person; wise man; smart person</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>being; living being; creature</t>
-  </si>
-  <si>
-    <t>end (of); limit (of); finish (of); conclusion (of)</t>
-  </si>
-  <si>
-    <t>dislike; ill-will; hatred; hostility; enmity; malevolence; lit. going wrong</t>
-  </si>
-  <si>
-    <t>hell; hell realm; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
-  </si>
-  <si>
-    <t>pride; conceit; egotism; superiority; comparing oneself</t>
-  </si>
-  <si>
-    <t>anger; wrath; rage; temper</t>
-  </si>
-  <si>
-    <t>group; host; company; collection; multitude; mass</t>
-  </si>
-  <si>
-    <t>fool; worthless man; useless person; stupid person; lit. empty man</t>
-  </si>
-  <si>
-    <t>community; monastic order; assembly of monks</t>
-  </si>
-  <si>
-    <t>well; (comm) pond; pool; lit. water drinking</t>
-  </si>
-  <si>
-    <t>affliction; difficulty; trouble</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow; sadness</t>
-  </si>
-  <si>
-    <t>aversion; ill-will; hate; hatred</t>
-  </si>
-  <si>
-    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
-  </si>
-  <si>
-    <t>breaking; splitting; tearing</t>
-  </si>
-  <si>
-    <t>time; occasion</t>
-  </si>
-  <si>
-    <t>disciple; pupil; follower; lit. hearer</t>
-  </si>
-  <si>
-    <t>support; requisite; necessity</t>
-  </si>
-  <si>
-    <t>excrement; faeces</t>
-  </si>
-  <si>
-    <t>urine</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent</t>
-  </si>
-  <si>
-    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
-  </si>
-  <si>
-    <t>trainee; apprentice; learner; initiate</t>
-  </si>
-  <si>
-    <t>quality; characteristic; trait; inherent quality</t>
-  </si>
-  <si>
-    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
-  </si>
-  <si>
-    <t>tusker; bull elephant</t>
-  </si>
-  <si>
-    <t>cross-legged sitting position; meditation posture</t>
-  </si>
-  <si>
-    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
-  </si>
-  <si>
-    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
-  </si>
-  <si>
-    <t>giving up; relinquishing; abandoning</t>
-  </si>
-  <si>
-    <t>light; brightness; clarity</t>
-  </si>
-  <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>place; location; region; area</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
-    <t>smell; scent; odour</t>
-  </si>
-  <si>
-    <t>family name of the Buddha; lit. of the Gotama clan</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>being; living being; lit. breath</t>
-  </si>
-  <si>
-    <t>source; arising; origin; appearance</t>
-  </si>
-  <si>
-    <t>mass; heap; pile; volume</t>
-  </si>
-  <si>
-    <t>enlightenment; full awakening; perfect understanding</t>
-  </si>
-  <si>
-    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
-  </si>
-  <si>
-    <t>carelessness; negligence; heedlessness</t>
-  </si>
-  <si>
-    <t>death; Death; death personified</t>
-  </si>
-  <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
-    <t>(of water) flood; deluge; torrent</t>
-  </si>
-  <si>
-    <t>Sakyan; of the Sakyan people</t>
-  </si>
-  <si>
-    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
-  </si>
-  <si>
-    <t>method; system; means; way</t>
-  </si>
-  <si>
-    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
-  </si>
-  <si>
-    <t>control (according to); restraint (according to); holding back (according to)</t>
-  </si>
-  <si>
-    <t>non-attention; ignoring; lit. not making in mind</t>
-  </si>
-  <si>
-    <t>family name; lit. descendant of Kati</t>
-  </si>
-  <si>
-    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
-  </si>
-  <si>
-    <t>(vinaya) consent; agreement; approval</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>arahant; enlightened being; saint; paragon</t>
-  </si>
-  <si>
-    <t>stream; river; current</t>
-  </si>
-  <si>
-    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
-  </si>
-  <si>
-    <t>state; condition; characteristic; nature</t>
-  </si>
-  <si>
-    <t>state of loss; state of misery; lit. going away</t>
-  </si>
-  <si>
-    <t>world; plane of existence</t>
-  </si>
-  <si>
-    <t>sea; ocean</t>
-  </si>
-  <si>
-    <t>titan; enemy of the devas; lit. anti-hero</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
-  </si>
-  <si>
-    <t>food (for); fuel (for); sustenance (for); nutriment (for); (comm) condition</t>
-  </si>
-  <si>
-    <t>distinction; attainment; superior state; eminence</t>
-  </si>
-  <si>
-    <t>tooth</t>
-  </si>
-  <si>
-    <t>body hair</t>
-  </si>
-  <si>
-    <t>(head) hair</t>
-  </si>
-  <si>
-    <t>friend; companion; ally; fellow traveller; lit. going with</t>
-  </si>
-  <si>
-    <t>mansion; stately home; palace; building with pillars</t>
-  </si>
-  <si>
-    <t>prince</t>
-  </si>
-  <si>
-    <t>park; parkland; nature reserve</t>
-  </si>
-  <si>
-    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>Buddha; Awakened One</t>
-  </si>
-  <si>
-    <t>room; inside room; inner chamber; lit. womb</t>
-  </si>
-  <si>
-    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
-  </si>
-  <si>
-    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
-  </si>
-  <si>
-    <t>mental states</t>
-  </si>
-  <si>
-    <t>illusion; delusion; hallucination</t>
-  </si>
-  <si>
-    <t>fool; idiot; immature person</t>
-  </si>
-  <si>
-    <t>man of the ruling class; young noble</t>
-  </si>
-  <si>
-    <t>body; physical body; physical process</t>
-  </si>
-  <si>
-    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
-  </si>
-  <si>
-    <t>thief; robber</t>
-  </si>
-  <si>
-    <t>need (for); want (for); lit. want</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl; begging bowl</t>
-  </si>
-  <si>
-    <t>obtaining (of); acquiring (of); gaining (of); personal acquisition (of)</t>
-  </si>
-  <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
-    <t>sky; air</t>
-  </si>
-  <si>
-    <t>teacher; religious leader</t>
-  </si>
-  <si>
-    <t>disease; sickness; illness; affliction</t>
-  </si>
-  <si>
-    <t>preceptor; teacher</t>
-  </si>
-  <si>
-    <t>lay disciple; lay devotee; lit. who sits near</t>
-  </si>
-  <si>
-    <t>excellent friend; good spiritual companion</t>
-  </si>
-  <si>
-    <t>village; hamlet; lit. collection</t>
-  </si>
-  <si>
-    <t>generosity; sharing; liberality</t>
-  </si>
-  <si>
-    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
-  </si>
-  <si>
-    <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
-  </si>
-  <si>
-    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
-  </si>
-  <si>
-    <t>law; case; rule</t>
-  </si>
-  <si>
-    <t>dependency; physical support; reliance; something one depends on</t>
-  </si>
-  <si>
-    <t>element of awakening; factor of enlightenment</t>
-  </si>
-  <si>
-    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
-  </si>
-  <si>
-    <t>attending mindfully; being present with mindfulness</t>
-  </si>
-  <si>
     <t>lion</t>
   </si>
   <si>
@@ -4759,192 +4759,192 @@
     <t>binds; ties up; imprisons; confines</t>
   </si>
   <si>
+    <t>produces; generates; makes; gives birth to; lit. flows forth</t>
+  </si>
+  <si>
+    <t>gives up; relinquishes; drops; abandons</t>
+  </si>
+  <si>
+    <t>increases more and more; surpasses; outgrows</t>
+  </si>
+  <si>
+    <t>says (to); speaks (to); tells (to)</t>
+  </si>
+  <si>
+    <t>ordains as monk; renounces the household life; lit. goes into exile</t>
+  </si>
+  <si>
+    <t>overwhelms; assails; assaults; (comm) occurs; lit. walks all over</t>
+  </si>
+  <si>
+    <t>recites; chants; lit. points up</t>
+  </si>
+  <si>
+    <t>goes (from); goes away (from); leaves (from)</t>
+  </si>
+  <si>
+    <t>begins; starts; undertakes; arouses oneself (to); makes an effort (to)</t>
+  </si>
+  <si>
+    <t>wishes; wants; desires</t>
+  </si>
+  <si>
+    <t>wards off; prevents; guards against</t>
+  </si>
+  <si>
+    <t>go!; begone!</t>
+  </si>
+  <si>
+    <t>approaches; goes (to); visits; lit. goes near</t>
+  </si>
+  <si>
+    <t>speaks (about); talks (about)</t>
+  </si>
+  <si>
+    <t>asks (for); begs (for); requests</t>
+  </si>
+  <si>
+    <t>regards; considers; recognises (as); sees (as)</t>
+  </si>
+  <si>
+    <t>takes; steals; robs</t>
+  </si>
+  <si>
+    <t>obtains; gets; receives; personally experiences</t>
+  </si>
+  <si>
+    <t>exhales; breathes out</t>
+  </si>
+  <si>
+    <t>inhales; breathes in</t>
+  </si>
+  <si>
+    <t>wishes (for); wants; desires; aspires (for)</t>
+  </si>
+  <si>
+    <t>grabs hold (of); seizes; takes</t>
+  </si>
+  <si>
+    <t>takes to it; gets it; gains confidence; is inspired; is eager; lit. jumps forward</t>
+  </si>
+  <si>
+    <t>speaks; says; tells</t>
+  </si>
+  <si>
+    <t>advises; instructs; admonishes</t>
+  </si>
+  <si>
+    <t>touches; contacts; feels; experiences</t>
+  </si>
+  <si>
+    <t>pulls up; pulls out; lifts up; raises</t>
+  </si>
+  <si>
+    <t>puts down; places down; lays down; lit. throws down</t>
+  </si>
+  <si>
+    <t>understands; gets; lit. sees</t>
+  </si>
+  <si>
+    <t>reflects; considers; discerns</t>
+  </si>
+  <si>
+    <t>gives up; leaves; abandons; deserts</t>
+  </si>
+  <si>
+    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
+  </si>
+  <si>
+    <t>uses; makes use (of); lit. associates</t>
+  </si>
+  <si>
+    <t>keeps; stores; saves; sets aside; lays aside; lit. throws down</t>
+  </si>
+  <si>
+    <t>associates (with); keeps company (with)</t>
+  </si>
+  <si>
+    <t>proceeds; continues; goes forward; practices</t>
+  </si>
+  <si>
+    <t>gets; receives; obtains</t>
+  </si>
+  <si>
+    <t>remembers; recollects; bears in mind</t>
+  </si>
+  <si>
+    <t>sits (on); sits down (in)</t>
+  </si>
+  <si>
+    <t>is; is being; becomes</t>
+  </si>
+  <si>
+    <t>chews; devours; eats</t>
+  </si>
+  <si>
+    <t>asks; enquires; questions</t>
+  </si>
+  <si>
+    <t>leads (to); results (in); causes</t>
+  </si>
+  <si>
+    <t>goes; walks; moves; wanders around</t>
+  </si>
+  <si>
+    <t>takes care (of); looks after; maintains; lit. carries around</t>
+  </si>
+  <si>
+    <t>has doubt (about); is uncertain (about)</t>
+  </si>
+  <si>
+    <t>lives; stays; resides (in)</t>
+  </si>
+  <si>
+    <t>stands</t>
+  </si>
+  <si>
+    <t>exerts oneself; strives; applies oneself; endeavours; lit. put forward</t>
+  </si>
+  <si>
+    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
+  </si>
+  <si>
+    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
+  </si>
+  <si>
+    <t>enjoys; delights (in); takes pleasure (in)</t>
+  </si>
+  <si>
+    <t>enters; goes (into)</t>
+  </si>
+  <si>
+    <t>lives (in); dwells (in)</t>
+  </si>
+  <si>
+    <t>increases (in); grows (in); develops (in); lit. increases</t>
+  </si>
+  <si>
+    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
+  </si>
+  <si>
+    <t>sees</t>
+  </si>
+  <si>
+    <t>should; ought (to); is suitable (for); it is befitting (for)</t>
+  </si>
+  <si>
+    <t>walks; wanders; goes around; travels; fares on</t>
+  </si>
+  <si>
+    <t>remains; persists; lasts; lit. stands</t>
+  </si>
+  <si>
     <t>see!; look (at)!</t>
   </si>
   <si>
-    <t>remains; persists; lasts; lit. stands</t>
-  </si>
-  <si>
-    <t>gives up; relinquishes; drops; abandons</t>
-  </si>
-  <si>
-    <t>increases more and more; surpasses; outgrows</t>
-  </si>
-  <si>
-    <t>says (to); speaks (to); tells (to)</t>
-  </si>
-  <si>
-    <t>ordains as monk; renounces the household life; lit. goes into exile</t>
-  </si>
-  <si>
-    <t>overwhelms; assails; assaults; (comm) occurs; lit. walks all over</t>
-  </si>
-  <si>
-    <t>recites; chants; lit. points up</t>
-  </si>
-  <si>
-    <t>goes (from); goes away (from); leaves (from)</t>
-  </si>
-  <si>
-    <t>begins; starts; undertakes; arouses oneself (to); makes an effort (to)</t>
-  </si>
-  <si>
-    <t>wishes; wants; desires</t>
-  </si>
-  <si>
-    <t>wards off; prevents; guards against</t>
-  </si>
-  <si>
-    <t>approaches; goes (to); visits; lit. goes near</t>
-  </si>
-  <si>
-    <t>speaks (about); talks (about)</t>
-  </si>
-  <si>
-    <t>asks (for); begs (for); requests</t>
-  </si>
-  <si>
-    <t>regards; considers; recognises (as); sees (as)</t>
-  </si>
-  <si>
-    <t>takes; steals; robs</t>
-  </si>
-  <si>
-    <t>obtains; gets; receives; personally experiences</t>
-  </si>
-  <si>
-    <t>exhales; breathes out</t>
-  </si>
-  <si>
-    <t>inhales; breathes in</t>
-  </si>
-  <si>
-    <t>wishes (for); wants; desires; aspires (for)</t>
-  </si>
-  <si>
-    <t>grabs hold (of); seizes; takes</t>
-  </si>
-  <si>
-    <t>takes to it; gets it; gains confidence; is inspired; is eager; lit. jumps forward</t>
-  </si>
-  <si>
-    <t>speaks; says; tells</t>
-  </si>
-  <si>
-    <t>advises; instructs; admonishes</t>
-  </si>
-  <si>
-    <t>touches; contacts; feels; experiences</t>
-  </si>
-  <si>
-    <t>pulls up; pulls out; lifts up; raises</t>
-  </si>
-  <si>
-    <t>puts down; places down; lays down; lit. throws down</t>
-  </si>
-  <si>
-    <t>understands; gets; lit. sees</t>
-  </si>
-  <si>
-    <t>reflects; considers; discerns</t>
-  </si>
-  <si>
-    <t>gives up; leaves; abandons; deserts</t>
-  </si>
-  <si>
-    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
-  </si>
-  <si>
-    <t>uses; makes use (of); lit. associates</t>
-  </si>
-  <si>
     <t>increases; develops; grows</t>
   </si>
   <si>
-    <t>keeps; stores; saves; sets aside; lays aside; lit. throws down</t>
-  </si>
-  <si>
-    <t>associates (with); keeps company (with)</t>
-  </si>
-  <si>
-    <t>should; ought (to); is suitable (for); it is befitting (for)</t>
-  </si>
-  <si>
-    <t>produces; generates; makes; gives birth to; lit. flows forth</t>
-  </si>
-  <si>
-    <t>proceeds; continues; goes forward; practices</t>
-  </si>
-  <si>
-    <t>gets; receives; obtains</t>
-  </si>
-  <si>
-    <t>remembers; recollects; bears in mind</t>
-  </si>
-  <si>
-    <t>sits (on); sits down (in)</t>
-  </si>
-  <si>
-    <t>is; is being; becomes</t>
-  </si>
-  <si>
-    <t>chews; devours; eats</t>
-  </si>
-  <si>
-    <t>asks; enquires; questions</t>
-  </si>
-  <si>
-    <t>leads (to); results (in); causes</t>
-  </si>
-  <si>
-    <t>goes; walks; moves; wanders around</t>
-  </si>
-  <si>
-    <t>takes care (of); looks after; maintains; lit. carries around</t>
-  </si>
-  <si>
-    <t>has doubt (about); is uncertain (about)</t>
-  </si>
-  <si>
-    <t>lives; stays; resides (in)</t>
-  </si>
-  <si>
-    <t>stands</t>
-  </si>
-  <si>
-    <t>exerts oneself; strives; applies oneself; endeavours; lit. put forward</t>
-  </si>
-  <si>
-    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
-  </si>
-  <si>
-    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
-  </si>
-  <si>
-    <t>enjoys; delights (in); takes pleasure (in)</t>
-  </si>
-  <si>
-    <t>enters; goes (into)</t>
-  </si>
-  <si>
-    <t>lives (in); dwells (in)</t>
-  </si>
-  <si>
-    <t>increases (in); grows (in); develops (in); lit. increases</t>
-  </si>
-  <si>
-    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
-  </si>
-  <si>
-    <t>sees</t>
-  </si>
-  <si>
-    <t>go!; begone!</t>
-  </si>
-  <si>
-    <t>walks; wanders; goes around; travels; fares on</t>
-  </si>
-  <si>
     <t>worships; honours; respects</t>
   </si>
   <si>
@@ -4963,12 +4963,12 @@
     <t>feels; experiences; senses; notices</t>
   </si>
   <si>
+    <t>sleeps</t>
+  </si>
+  <si>
     <t>bears in mind; keeps in mind; remembers; lit. carries</t>
   </si>
   <si>
-    <t>sleeps</t>
-  </si>
-  <si>
     <t>gives (to); donates (to); offers (to); hands (to)</t>
   </si>
   <si>
@@ -4993,36 +4993,36 @@
     <t>one must listen!; it must hear!</t>
   </si>
   <si>
+    <t>reaches; arrives (at); comes (to)</t>
+  </si>
+  <si>
     <t>knows; knows clearly; understands; distinguishes</t>
   </si>
   <si>
+    <t>comes to mind; occurs (to)</t>
+  </si>
+  <si>
+    <t>makes the claim (of); claims (to be)</t>
+  </si>
+  <si>
+    <t>gives (to); offers (to); donates (to)</t>
+  </si>
+  <si>
+    <t>comprehends; understands; recognises; distinguishes; is aware (of)</t>
+  </si>
+  <si>
+    <t>knows; understands</t>
+  </si>
+  <si>
+    <t>holds up; raises up</t>
+  </si>
+  <si>
+    <t>remains (in); continues (in); persists (in); is established (in); stands firm (in); lit. stands together</t>
+  </si>
+  <si>
     <t>takes; accepts; receives</t>
   </si>
   <si>
-    <t>comes to mind; occurs (to)</t>
-  </si>
-  <si>
-    <t>makes the claim (of); claims (to be)</t>
-  </si>
-  <si>
-    <t>gives (to); offers (to); donates (to)</t>
-  </si>
-  <si>
-    <t>comprehends; understands; recognises; distinguishes; is aware (of)</t>
-  </si>
-  <si>
-    <t>knows; understands</t>
-  </si>
-  <si>
-    <t>holds up; raises up</t>
-  </si>
-  <si>
-    <t>remains (in); continues (in); persists (in); is established (in); stands firm (in); lit. stands together</t>
-  </si>
-  <si>
-    <t>reaches; arrives (at); comes (to)</t>
-  </si>
-  <si>
     <t>trader; dealer</t>
   </si>
   <si>
@@ -5038,6 +5038,9 @@
     <t>takes; grasps; embraces</t>
   </si>
   <si>
+    <t>causes; effects</t>
+  </si>
+  <si>
     <t>arouses; exhibits; produces; brings into being</t>
   </si>
   <si>
@@ -5047,36 +5050,33 @@
     <t>thinks; imagines; conceives: presumes; supposes</t>
   </si>
   <si>
+    <t>is reborn (in); re-arises (in); lit. goes towards</t>
+  </si>
+  <si>
+    <t>indulges (in); is addicted (to); lit. yokes near</t>
+  </si>
+  <si>
+    <t>gets angry (with); lit. releases</t>
+  </si>
+  <si>
+    <t>eats; consumes</t>
+  </si>
+  <si>
+    <t>appears; arises; takes place</t>
+  </si>
+  <si>
+    <t>is dis-enchanted (with); is disinterested (in); is disillusioned (by); loses interest (in); is dispassionate (towards)</t>
+  </si>
+  <si>
+    <t>meditates; contemplates; lit. thinks</t>
+  </si>
+  <si>
+    <t>cuts off; severs</t>
+  </si>
+  <si>
     <t>grasps; holds (onto); clings (to); takes possession (of); lit. takes near</t>
   </si>
   <si>
-    <t>is reborn (in); re-arises (in); lit. goes towards</t>
-  </si>
-  <si>
-    <t>indulges (in); is addicted (to); lit. yokes near</t>
-  </si>
-  <si>
-    <t>gets angry (with); lit. releases</t>
-  </si>
-  <si>
-    <t>eats; consumes</t>
-  </si>
-  <si>
-    <t>appears; arises; takes place</t>
-  </si>
-  <si>
-    <t>is dis-enchanted (with); is disinterested (in); is disillusioned (by); loses interest (in); is dispassionate (towards)</t>
-  </si>
-  <si>
-    <t>meditates; contemplates; lit. thinks</t>
-  </si>
-  <si>
-    <t>cuts off; severs</t>
-  </si>
-  <si>
-    <t>causes; effects</t>
-  </si>
-  <si>
     <t>there are; they are</t>
   </si>
   <si>
@@ -5134,18 +5134,18 @@
     <t>left; set off (from); went away (from)</t>
   </si>
   <si>
+    <t>approached; drew near; went (to); lit. went near</t>
+  </si>
+  <si>
+    <t>sat (on); sat down (in)</t>
+  </si>
+  <si>
+    <t>asked; enquired; questioned</t>
+  </si>
+  <si>
     <t>greeted; exchanged pleasantries; had a friendly conversation (with)</t>
   </si>
   <si>
-    <t>asked; enquired; questioned</t>
-  </si>
-  <si>
-    <t>approached; drew near; went (to); lit. went near</t>
-  </si>
-  <si>
-    <t>sat (on); sat down (in)</t>
-  </si>
-  <si>
     <t>monk; sage; seer; hermit; silent sage</t>
   </si>
   <si>
@@ -5161,6 +5161,9 @@
     <t>charioteer; driver</t>
   </si>
   <si>
+    <t>family; relative; kinsman; lit. known</t>
+  </si>
+  <si>
     <t>householder; landowner; lit. house master</t>
   </si>
   <si>
@@ -5179,9 +5182,6 @@
     <t>sickness; disease; illness; lit. upset</t>
   </si>
   <si>
-    <t>family; relative; kinsman; lit. known</t>
-  </si>
-  <si>
     <t>does; acts; performs</t>
   </si>
   <si>
@@ -5203,12 +5203,12 @@
     <t>spoke; said</t>
   </si>
   <si>
+    <t>answered; replied; lit. made distinct</t>
+  </si>
+  <si>
     <t>stood; stayed; remained</t>
   </si>
   <si>
-    <t>answered; replied; lit. made distinct</t>
-  </si>
-  <si>
     <t>I was</t>
   </si>
   <si>
@@ -5254,6 +5254,9 @@
     <t>for us; to us</t>
   </si>
   <si>
+    <t>to me; for me</t>
+  </si>
+  <si>
     <t>we; I (royal plural)</t>
   </si>
   <si>
@@ -5275,9 +5278,6 @@
     <t>me (object)</t>
   </si>
   <si>
-    <t>to me; for me</t>
-  </si>
-  <si>
     <t>looks beautiful (in); lit. shines</t>
   </si>
   <si>
@@ -5344,6 +5344,9 @@
     <t>you (object)</t>
   </si>
   <si>
+    <t>by you</t>
+  </si>
+  <si>
     <t>for you all; to you all</t>
   </si>
   <si>
@@ -5353,24 +5356,21 @@
     <t>you all; you (royal plural)</t>
   </si>
   <si>
+    <t>of you all; your</t>
+  </si>
+  <si>
     <t>you (subject)</t>
   </si>
   <si>
+    <t>for you; to you</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
     <t>your; of you</t>
   </si>
   <si>
-    <t>for you; to you</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>by you</t>
-  </si>
-  <si>
-    <t>of you all; your</t>
-  </si>
-  <si>
     <t>does not know; does not understand; lit. does not completely know</t>
   </si>
   <si>
@@ -5473,27 +5473,30 @@
     <t>speaker (of); who tells (about); who speaks (about); who expresses (about)</t>
   </si>
   <si>
+    <t>speaker; who talks (about)</t>
+  </si>
+  <si>
     <t>giver; donor; bestower</t>
   </si>
   <si>
-    <t>speaker; who talks (about)</t>
-  </si>
-  <si>
     <t>father</t>
   </si>
   <si>
+    <t>mother and father; parents</t>
+  </si>
+  <si>
     <t>brother</t>
   </si>
   <si>
-    <t>mother and father; parents</t>
-  </si>
-  <si>
     <t>enjoys; indulges; has sex with; lit. walks around</t>
   </si>
   <si>
     <t>timely; at the right moment; at a suitable time; at the proper time</t>
   </si>
   <si>
+    <t>before; previously; formerly; in the past</t>
+  </si>
+  <si>
     <t>in future</t>
   </si>
   <si>
@@ -5509,36 +5512,33 @@
     <t>and; both</t>
   </si>
   <si>
+    <t>afterwards; later; in the future</t>
+  </si>
+  <si>
+    <t>formerly; previously; in the past</t>
+  </si>
+  <si>
+    <t>now; immediately</t>
+  </si>
+  <si>
+    <t>today; now</t>
+  </si>
+  <si>
     <t>always; at all times</t>
   </si>
   <si>
-    <t>afterwards; later; in the future</t>
-  </si>
-  <si>
-    <t>formerly; previously; in the past</t>
-  </si>
-  <si>
-    <t>now; immediately</t>
-  </si>
-  <si>
-    <t>today; now</t>
-  </si>
-  <si>
-    <t>before; previously; formerly; in the past</t>
-  </si>
-  <si>
     <t>respect; honour</t>
   </si>
   <si>
+    <t>ease (for); comfort (for)</t>
+  </si>
+  <si>
     <t>monk; fully ordained monk; mendicant; lit. beggar</t>
   </si>
   <si>
     <t>death; Death</t>
   </si>
   <si>
-    <t>ease (for); comfort (for)</t>
-  </si>
-  <si>
     <t>at peace; safe; at rest</t>
   </si>
   <si>
@@ -5557,12 +5557,12 @@
     <t>who understands the world; who knows the world; epithet of the Buddha</t>
   </si>
   <si>
+    <t>warding off; repelling; driving off</t>
+  </si>
+  <si>
     <t>hiding place; lit. dive</t>
   </si>
   <si>
-    <t>warding off; repelling; driving off</t>
-  </si>
-  <si>
     <t>takes a bath; bathes; washes</t>
   </si>
   <si>
@@ -5584,15 +5584,15 @@
     <t>could see; would see</t>
   </si>
   <si>
+    <t>could live; could stay (in)</t>
+  </si>
+  <si>
     <t>would become available (for); would accrue (to); could crop up (for); lit. would arise (for)</t>
   </si>
   <si>
     <t>would be reborn (in); would re-arise (in); lit. could go towards</t>
   </si>
   <si>
-    <t>could live; could stay (in)</t>
-  </si>
-  <si>
     <t>kills; executes</t>
   </si>
   <si>
@@ -5629,6 +5629,12 @@
     <t>direction; cardinal point</t>
   </si>
   <si>
+    <t>sitting; sitting down</t>
+  </si>
+  <si>
+    <t>talk; speech; conversation; discussion</t>
+  </si>
+  <si>
     <t>wisdom; knowledge; understanding; insight; distinctive knowledge</t>
   </si>
   <si>
@@ -5680,12 +5686,6 @@
     <t>ignorance; illusion; not knowing; not understanding</t>
   </si>
   <si>
-    <t>sitting; sitting down</t>
-  </si>
-  <si>
-    <t>talk; speech; conversation; discussion</t>
-  </si>
-  <si>
     <t>(vinaya) higher ordination as monastic</t>
   </si>
   <si>
@@ -5728,48 +5728,48 @@
     <t>having left; having left behind; having abandoned</t>
   </si>
   <si>
+    <t>having seen; having understood; having found out</t>
+  </si>
+  <si>
+    <t>having known; having found out; having understood</t>
+  </si>
+  <si>
+    <t>having tasted</t>
+  </si>
+  <si>
+    <t>having heard; having listened (to)</t>
+  </si>
+  <si>
+    <t>having suffused; having pervaded; having filled</t>
+  </si>
+  <si>
+    <t>having cut off; having severed; (comm) having killed; lit. having cut</t>
+  </si>
+  <si>
+    <t>having done</t>
+  </si>
+  <si>
+    <t>having bent; having folded</t>
+  </si>
+  <si>
+    <t>having agreed (with); having responded in agreement (to); lit. having listened back</t>
+  </si>
+  <si>
+    <t>having walked; having wandered</t>
+  </si>
+  <si>
+    <t>having taken; having grabbed hold (of); having seized</t>
+  </si>
+  <si>
+    <t>having approached; having gone (to); having drawn near (to)</t>
+  </si>
+  <si>
+    <t>having seen</t>
+  </si>
+  <si>
     <t>having raised up; having lifted up</t>
   </si>
   <si>
-    <t>having seen; having understood; having found out</t>
-  </si>
-  <si>
-    <t>having known; having found out; having understood</t>
-  </si>
-  <si>
-    <t>having tasted</t>
-  </si>
-  <si>
-    <t>having heard; having listened (to)</t>
-  </si>
-  <si>
-    <t>having suffused; having pervaded; having filled</t>
-  </si>
-  <si>
-    <t>having cut off; having severed; (comm) having killed; lit. having cut</t>
-  </si>
-  <si>
-    <t>having done</t>
-  </si>
-  <si>
-    <t>having bent; having folded</t>
-  </si>
-  <si>
-    <t>having agreed (with); having responded in agreement (to); lit. having listened back</t>
-  </si>
-  <si>
-    <t>having walked; having wandered</t>
-  </si>
-  <si>
-    <t>having taken; having grabbed hold (of); having seized</t>
-  </si>
-  <si>
-    <t>having approached; having gone (to); having drawn near (to)</t>
-  </si>
-  <si>
-    <t>having seen</t>
-  </si>
-  <si>
     <t>mother</t>
   </si>
   <si>
@@ -5797,24 +5797,24 @@
     <t>guiding; directing; determining; setting; lit. placing forward</t>
   </si>
   <si>
+    <t>adopting; assuming; according (to); lit. taking</t>
+  </si>
+  <si>
+    <t>reaching; attaining; arriving at</t>
+  </si>
+  <si>
+    <t>separating (from); aloof (from)</t>
+  </si>
+  <si>
+    <t>rising (from); emerging (from); getting up (from)</t>
+  </si>
+  <si>
+    <t>sitting down</t>
+  </si>
+  <si>
     <t>attaching; clinging; adhering; sticking</t>
   </si>
   <si>
-    <t>adopting; assuming; according (to); lit. taking</t>
-  </si>
-  <si>
-    <t>reaching; attaining; arriving at</t>
-  </si>
-  <si>
-    <t>separating (from); aloof (from)</t>
-  </si>
-  <si>
-    <t>rising (from); emerging (from); getting up (from)</t>
-  </si>
-  <si>
-    <t>sitting down</t>
-  </si>
-  <si>
     <t>stability; constancy; continuity; endurance; persistence; longevity; lit. standing</t>
   </si>
   <si>
@@ -5839,21 +5839,21 @@
     <t>liking; preference; choice; inclination; approval; lit. pleasure</t>
   </si>
   <si>
+    <t>mindfulness; presence; recollection; awareness</t>
+  </si>
+  <si>
+    <t>delight; heart-felt joy; pleasure; feeling of love; lit. lovely feeling</t>
+  </si>
+  <si>
+    <t>calmness; tranquillity; tranquillization; peace; stillness; serenity</t>
+  </si>
+  <si>
+    <t>outer robe; double robe; patchwork robe; lit. joined together</t>
+  </si>
+  <si>
     <t>good destination; happy fate</t>
   </si>
   <si>
-    <t>mindfulness; presence; recollection; awareness</t>
-  </si>
-  <si>
-    <t>delight; heart-felt joy; pleasure; feeling of love; lit. lovely feeling</t>
-  </si>
-  <si>
-    <t>calmness; tranquillity; tranquillization; peace; stillness; serenity</t>
-  </si>
-  <si>
-    <t>outer robe; double robe; patchwork robe; lit. joined together</t>
-  </si>
-  <si>
     <t>freedom; liberation; release; deliverance</t>
   </si>
   <si>
@@ -5863,45 +5863,45 @@
     <t>wherever; where; when; in which</t>
   </si>
   <si>
+    <t>in that case; in that regard; in this matter; in this connection</t>
+  </si>
+  <si>
+    <t>here; now; in this world</t>
+  </si>
+  <si>
+    <t>in that regard; in that case; regarding that matter</t>
+  </si>
+  <si>
+    <t>in front (of)</t>
+  </si>
+  <si>
+    <t>here; in this regard; in this case</t>
+  </si>
+  <si>
+    <t>on one side</t>
+  </si>
+  <si>
+    <t>everywhere; every place</t>
+  </si>
+  <si>
+    <t>there; in that place</t>
+  </si>
+  <si>
+    <t>above; overhead</t>
+  </si>
+  <si>
+    <t>since; because; due to the fact that; lit. from which</t>
+  </si>
+  <si>
+    <t>therefore; thereupon; thereby; because of that; after that; lit. from that</t>
+  </si>
+  <si>
     <t>here; in this place; in this case; in this regard</t>
   </si>
   <si>
-    <t>in that case; in that regard; in this matter; in this connection</t>
-  </si>
-  <si>
-    <t>here; now; in this world</t>
-  </si>
-  <si>
-    <t>in front (of)</t>
-  </si>
-  <si>
-    <t>here; in this regard; in this case</t>
-  </si>
-  <si>
-    <t>on one side</t>
-  </si>
-  <si>
     <t>from where?; where?</t>
   </si>
   <si>
-    <t>everywhere; every place</t>
-  </si>
-  <si>
-    <t>there; in that place</t>
-  </si>
-  <si>
-    <t>above; overhead</t>
-  </si>
-  <si>
-    <t>since; because; due to the fact that; lit. from which</t>
-  </si>
-  <si>
-    <t>therefore; thereupon; thereby; because of that; after that; lit. from that</t>
-  </si>
-  <si>
-    <t>in that regard; in that case; regarding that matter</t>
-  </si>
-  <si>
     <t>state; property; condition; element</t>
   </si>
   <si>
@@ -6034,24 +6034,27 @@
     <t>measure; measurement; length; size; amount; quantity; lit. measuring</t>
   </si>
   <si>
+    <t>livelihood; lifestyle; way of life</t>
+  </si>
+  <si>
+    <t>acquiring; appropriating; taking possession; grasping; clinging; identifying; lit. taking near</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>(of the body) side; rib</t>
+  </si>
+  <si>
     <t>deathless state; immortality; ambrosia; drink of immortality; epithet of Nibbāna</t>
   </si>
   <si>
-    <t>livelihood; lifestyle; way of life</t>
-  </si>
-  <si>
-    <t>acquiring; appropriating; taking possession; grasping; clinging; identifying; lit. taking near</t>
-  </si>
-  <si>
-    <t>body</t>
-  </si>
-  <si>
-    <t>(of the body) side; rib</t>
-  </si>
-  <si>
     <t>making effort; exerting; striving; trying (to)</t>
   </si>
   <si>
+    <t>which is not given; something not offered</t>
+  </si>
+  <si>
     <t>cloth; clothes; robe</t>
   </si>
   <si>
@@ -6115,22 +6118,19 @@
     <t>wood; forest; grove</t>
   </si>
   <si>
+    <t>precept; instruction; training rule</t>
+  </si>
+  <si>
+    <t>danger (of; from); peril (of; from)</t>
+  </si>
+  <si>
     <t>fault (of); error (of); mistake (of); lit. to be avoided</t>
   </si>
   <si>
-    <t>precept; instruction; training rule</t>
-  </si>
-  <si>
-    <t>danger (of; from); peril (of; from)</t>
-  </si>
-  <si>
     <t>eating; taking food</t>
   </si>
   <si>
     <t>year</t>
-  </si>
-  <si>
-    <t>which is not given; something not offered</t>
   </si>
   <si>
     <t>good; benefit; merit; good deed; doing good</t>
@@ -11011,7 +11011,7 @@
         <v>1052</v>
       </c>
       <c r="C241" t="s">
-        <v>1305</v>
+        <v>1298</v>
       </c>
       <c r="D241" t="s">
         <v>1052</v>
@@ -11028,7 +11028,7 @@
         <v>1052</v>
       </c>
       <c r="C242" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="D242" t="s">
         <v>1052</v>
@@ -11045,7 +11045,7 @@
         <v>1052</v>
       </c>
       <c r="C243" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="D243" t="s">
         <v>1052</v>
@@ -11062,7 +11062,7 @@
         <v>1052</v>
       </c>
       <c r="C244" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="D244" t="s">
         <v>1052</v>
@@ -11079,7 +11079,7 @@
         <v>1052</v>
       </c>
       <c r="C245" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="D245" t="s">
         <v>1052</v>
@@ -11096,7 +11096,7 @@
         <v>1052</v>
       </c>
       <c r="C246" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="D246" t="s">
         <v>1052</v>
@@ -11113,7 +11113,7 @@
         <v>1052</v>
       </c>
       <c r="C247" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="D247" t="s">
         <v>1052</v>
@@ -11130,7 +11130,7 @@
         <v>1052</v>
       </c>
       <c r="C248" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="D248" t="s">
         <v>1052</v>
@@ -11147,7 +11147,7 @@
         <v>1052</v>
       </c>
       <c r="C249" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="D249" t="s">
         <v>1052</v>
@@ -11164,7 +11164,7 @@
         <v>1052</v>
       </c>
       <c r="C250" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="D250" t="s">
         <v>1052</v>
@@ -11181,7 +11181,7 @@
         <v>1052</v>
       </c>
       <c r="C251" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="D251" t="s">
         <v>1052</v>
@@ -11198,7 +11198,7 @@
         <v>1052</v>
       </c>
       <c r="C252" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="D252" t="s">
         <v>1052</v>
@@ -11215,7 +11215,7 @@
         <v>1052</v>
       </c>
       <c r="C253" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="D253" t="s">
         <v>1052</v>
@@ -11232,7 +11232,7 @@
         <v>1052</v>
       </c>
       <c r="C254" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="D254" t="s">
         <v>1052</v>
@@ -11249,7 +11249,7 @@
         <v>1052</v>
       </c>
       <c r="C255" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="D255" t="s">
         <v>1052</v>
@@ -11266,7 +11266,7 @@
         <v>1052</v>
       </c>
       <c r="C256" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="D256" t="s">
         <v>1052</v>
@@ -11283,7 +11283,7 @@
         <v>1052</v>
       </c>
       <c r="C257" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="D257" t="s">
         <v>1052</v>
@@ -11300,7 +11300,7 @@
         <v>1052</v>
       </c>
       <c r="C258" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="D258" t="s">
         <v>1052</v>
@@ -11317,7 +11317,7 @@
         <v>1052</v>
       </c>
       <c r="C259" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="D259" t="s">
         <v>1052</v>
@@ -11334,7 +11334,7 @@
         <v>1052</v>
       </c>
       <c r="C260" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="D260" t="s">
         <v>1052</v>
@@ -11351,7 +11351,7 @@
         <v>1052</v>
       </c>
       <c r="C261" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="D261" t="s">
         <v>1052</v>
@@ -11368,7 +11368,7 @@
         <v>1052</v>
       </c>
       <c r="C262" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="D262" t="s">
         <v>1052</v>
@@ -11385,7 +11385,7 @@
         <v>1052</v>
       </c>
       <c r="C263" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="D263" t="s">
         <v>1052</v>
@@ -11402,7 +11402,7 @@
         <v>1052</v>
       </c>
       <c r="C264" t="s">
-        <v>1304</v>
+        <v>1327</v>
       </c>
       <c r="D264" t="s">
         <v>1052</v>
@@ -14428,7 +14428,7 @@
         <v>1050</v>
       </c>
       <c r="C442" t="s">
-        <v>1505</v>
+        <v>1455</v>
       </c>
       <c r="D442" t="s">
         <v>2108</v>
@@ -14445,7 +14445,7 @@
         <v>1050</v>
       </c>
       <c r="C443" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="D443" t="s">
         <v>2108</v>
@@ -14462,7 +14462,7 @@
         <v>1050</v>
       </c>
       <c r="C444" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="D444" t="s">
         <v>2108</v>
@@ -14479,7 +14479,7 @@
         <v>1050</v>
       </c>
       <c r="C445" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="D445" t="s">
         <v>2108</v>
@@ -14496,7 +14496,7 @@
         <v>1050</v>
       </c>
       <c r="C446" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="D446" t="s">
         <v>2108</v>
@@ -14513,7 +14513,7 @@
         <v>1050</v>
       </c>
       <c r="C447" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D447" t="s">
         <v>2108</v>
@@ -14530,7 +14530,7 @@
         <v>1050</v>
       </c>
       <c r="C448" t="s">
-        <v>1459</v>
+        <v>1510</v>
       </c>
       <c r="D448" t="s">
         <v>2108</v>
@@ -15346,7 +15346,7 @@
         <v>1050</v>
       </c>
       <c r="C496" t="s">
-        <v>1558</v>
+        <v>1418</v>
       </c>
       <c r="D496" t="s">
         <v>2108</v>
@@ -15363,7 +15363,7 @@
         <v>1050</v>
       </c>
       <c r="C497" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="D497" t="s">
         <v>2108</v>
@@ -15380,7 +15380,7 @@
         <v>1050</v>
       </c>
       <c r="C498" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="D498" t="s">
         <v>2108</v>
@@ -15397,7 +15397,7 @@
         <v>1050</v>
       </c>
       <c r="C499" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="D499" t="s">
         <v>2108</v>
@@ -15414,7 +15414,7 @@
         <v>1050</v>
       </c>
       <c r="C500" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="D500" t="s">
         <v>2108</v>
@@ -15431,7 +15431,7 @@
         <v>1050</v>
       </c>
       <c r="C501" t="s">
-        <v>1421</v>
+        <v>1562</v>
       </c>
       <c r="D501" t="s">
         <v>2108</v>
@@ -15751,7 +15751,7 @@
         <v>523</v>
       </c>
       <c r="B520" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="C520" t="s">
         <v>1581</v>
@@ -15938,7 +15938,7 @@
         <v>534</v>
       </c>
       <c r="B531" t="s">
-        <v>1055</v>
+        <v>1061</v>
       </c>
       <c r="C531" t="s">
         <v>1592</v>
@@ -20905,7 +20905,7 @@
         <v>1060</v>
       </c>
       <c r="C823" t="s">
-        <v>1393</v>
+        <v>1883</v>
       </c>
       <c r="D823" t="s">
         <v>2130</v>
@@ -20922,7 +20922,7 @@
         <v>1060</v>
       </c>
       <c r="C824" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="D824" t="s">
         <v>2130</v>
@@ -20939,7 +20939,7 @@
         <v>1060</v>
       </c>
       <c r="C825" t="s">
-        <v>1884</v>
+        <v>1392</v>
       </c>
       <c r="D825" t="s">
         <v>2130</v>
@@ -21432,7 +21432,7 @@
         <v>1057</v>
       </c>
       <c r="C854" t="s">
-        <v>1913</v>
+        <v>1910</v>
       </c>
       <c r="D854" t="s">
         <v>1057</v>
@@ -21449,7 +21449,7 @@
         <v>1057</v>
       </c>
       <c r="C855" t="s">
-        <v>1911</v>
+        <v>1913</v>
       </c>
       <c r="D855" t="s">
         <v>1057</v>
@@ -21483,7 +21483,7 @@
         <v>1057</v>
       </c>
       <c r="C857" t="s">
-        <v>1915</v>
+        <v>1910</v>
       </c>
       <c r="D857" t="s">
         <v>1057</v>
@@ -21500,7 +21500,7 @@
         <v>1057</v>
       </c>
       <c r="C858" t="s">
-        <v>1911</v>
+        <v>1915</v>
       </c>
       <c r="D858" t="s">
         <v>1057</v>
@@ -22248,7 +22248,7 @@
         <v>1052</v>
       </c>
       <c r="C902" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
       <c r="D902" t="s">
         <v>1052</v>
@@ -22265,7 +22265,7 @@
         <v>1052</v>
       </c>
       <c r="C903" t="s">
-        <v>1957</v>
+        <v>1959</v>
       </c>
       <c r="D903" t="s">
         <v>1052</v>

--- a/pali-class/vocab/vocab-class19.xlsx
+++ b/pali-class/vocab/vocab-class19.xlsx
@@ -292,9 +292,6 @@
     <t>appamāṇa</t>
   </si>
   <si>
-    <t>maha 2</t>
-  </si>
-  <si>
     <t>vipula 1</t>
   </si>
   <si>
@@ -565,12 +562,12 @@
     <t>aṭṭhama 1</t>
   </si>
   <si>
+    <t>dasama 1</t>
+  </si>
+  <si>
     <t>navama</t>
   </si>
   <si>
-    <t>dasama 1</t>
-  </si>
-  <si>
     <t>pañcama</t>
   </si>
   <si>
@@ -2743,6 +2740,9 @@
     <t>kuto 1</t>
   </si>
   <si>
+    <t>kuto 3</t>
+  </si>
+  <si>
     <t>dhātu 1</t>
   </si>
   <si>
@@ -2782,12 +2782,12 @@
     <t>atthāya 2</t>
   </si>
   <si>
+    <t>piṇḍāya</t>
+  </si>
+  <si>
     <t>atthāya 1</t>
   </si>
   <si>
-    <t>piṇḍāya</t>
-  </si>
-  <si>
     <t>tiṇa 1</t>
   </si>
   <si>
@@ -3475,9 +3475,6 @@
     <t>immeasurable; unlimited; limitless; boundless</t>
   </si>
   <si>
-    <t>great; venerable; honourable; respected</t>
-  </si>
-  <si>
     <t>vast; extensive; expansive; massive</t>
   </si>
   <si>
@@ -3748,12 +3745,12 @@
     <t>eighth (8th)</t>
   </si>
   <si>
+    <t>tenth (10th)</t>
+  </si>
+  <si>
     <t>ninth (9th)</t>
   </si>
   <si>
-    <t>tenth (10th)</t>
-  </si>
-  <si>
     <t>fifth (5th)</t>
   </si>
   <si>
@@ -5902,6 +5899,9 @@
     <t>from where?; where?</t>
   </si>
   <si>
+    <t>let alone; not to mention; what to say of; lit. from where</t>
+  </si>
+  <si>
     <t>state; property; condition; element</t>
   </si>
   <si>
@@ -5941,10 +5941,10 @@
     <t>fortunate (for); beneficial (for); useful (for); lit. for the sake</t>
   </si>
   <si>
+    <t>for alms; to collect alms food</t>
+  </si>
+  <si>
     <t>for the purpose (of); for the sake (of); for the benefit (of)</t>
-  </si>
-  <si>
-    <t>for alms; to collect alms food</t>
   </si>
   <si>
     <t>grass; straw</t>
@@ -9070,13 +9070,13 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="C127" t="s">
         <v>1191</v>
       </c>
       <c r="D127" t="s">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="E127" t="s">
         <v>2169</v>
@@ -9087,13 +9087,13 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="C128" t="s">
         <v>1192</v>
       </c>
       <c r="D128" t="s">
-        <v>2108</v>
+        <v>2109</v>
       </c>
       <c r="E128" t="s">
         <v>2169</v>
@@ -9240,7 +9240,7 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="C137" t="s">
         <v>1201</v>
@@ -9257,7 +9257,7 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="C138" t="s">
         <v>1202</v>
@@ -9699,13 +9699,13 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="C164" t="s">
         <v>1228</v>
       </c>
       <c r="D164" t="s">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="E164" t="s">
         <v>2169</v>
@@ -9722,7 +9722,7 @@
         <v>1229</v>
       </c>
       <c r="D165" t="s">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="E165" t="s">
         <v>2169</v>
@@ -9739,7 +9739,7 @@
         <v>1230</v>
       </c>
       <c r="D166" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="E166" t="s">
         <v>2169</v>
@@ -9756,7 +9756,7 @@
         <v>1231</v>
       </c>
       <c r="D167" t="s">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="E167" t="s">
         <v>2169</v>
@@ -9767,13 +9767,13 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="C168" t="s">
         <v>1232</v>
       </c>
       <c r="D168" t="s">
-        <v>2113</v>
+        <v>1052</v>
       </c>
       <c r="E168" t="s">
         <v>2169</v>
@@ -9835,13 +9835,13 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C172" t="s">
         <v>1236</v>
       </c>
       <c r="D172" t="s">
-        <v>1052</v>
+        <v>2114</v>
       </c>
       <c r="E172" t="s">
         <v>2169</v>
@@ -9892,7 +9892,7 @@
         <v>1239</v>
       </c>
       <c r="D175" t="s">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="E175" t="s">
         <v>2169</v>
@@ -9926,7 +9926,7 @@
         <v>1241</v>
       </c>
       <c r="D177" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="E177" t="s">
         <v>2169</v>
@@ -9937,16 +9937,16 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>1049</v>
+        <v>1053</v>
       </c>
       <c r="C178" t="s">
         <v>1242</v>
       </c>
       <c r="D178" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="E178" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -10090,13 +10090,13 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="C187" t="s">
         <v>1251</v>
       </c>
       <c r="D187" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="E187" t="s">
         <v>2170</v>
@@ -10198,7 +10198,7 @@
         <v>1257</v>
       </c>
       <c r="D193" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="E193" t="s">
         <v>2170</v>
@@ -10232,7 +10232,7 @@
         <v>1259</v>
       </c>
       <c r="D195" t="s">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="E195" t="s">
         <v>2170</v>
@@ -10249,7 +10249,7 @@
         <v>1260</v>
       </c>
       <c r="D196" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="E196" t="s">
         <v>2170</v>
@@ -10266,7 +10266,7 @@
         <v>1261</v>
       </c>
       <c r="D197" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="E197" t="s">
         <v>2170</v>
@@ -10283,7 +10283,7 @@
         <v>1262</v>
       </c>
       <c r="D198" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="E198" t="s">
         <v>2170</v>
@@ -10300,7 +10300,7 @@
         <v>1263</v>
       </c>
       <c r="D199" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="E199" t="s">
         <v>2170</v>
@@ -10311,16 +10311,16 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="C200" t="s">
         <v>1264</v>
       </c>
       <c r="D200" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="E200" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -10668,13 +10668,13 @@
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="C221" t="s">
         <v>1285</v>
       </c>
       <c r="D221" t="s">
-        <v>2125</v>
+        <v>1052</v>
       </c>
       <c r="E221" t="s">
         <v>2171</v>
@@ -10994,7 +10994,7 @@
         <v>1052</v>
       </c>
       <c r="C240" t="s">
-        <v>1304</v>
+        <v>1297</v>
       </c>
       <c r="D240" t="s">
         <v>1052</v>
@@ -11011,7 +11011,7 @@
         <v>1052</v>
       </c>
       <c r="C241" t="s">
-        <v>1298</v>
+        <v>1304</v>
       </c>
       <c r="D241" t="s">
         <v>1052</v>
@@ -11433,13 +11433,13 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="C266" t="s">
         <v>1329</v>
       </c>
       <c r="D266" t="s">
-        <v>1052</v>
+        <v>2106</v>
       </c>
       <c r="E266" t="s">
         <v>2171</v>
@@ -11467,16 +11467,16 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="C268" t="s">
         <v>1331</v>
       </c>
       <c r="D268" t="s">
-        <v>2106</v>
+        <v>2109</v>
       </c>
       <c r="E268" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -11501,13 +11501,13 @@
         <v>273</v>
       </c>
       <c r="B270" t="s">
-        <v>1051</v>
+        <v>1056</v>
       </c>
       <c r="C270" t="s">
         <v>1333</v>
       </c>
       <c r="D270" t="s">
-        <v>2109</v>
+        <v>2126</v>
       </c>
       <c r="E270" t="s">
         <v>2172</v>
@@ -11688,13 +11688,13 @@
         <v>284</v>
       </c>
       <c r="B281" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="C281" t="s">
         <v>1344</v>
       </c>
       <c r="D281" t="s">
-        <v>2126</v>
+        <v>1057</v>
       </c>
       <c r="E281" t="s">
         <v>2172</v>
@@ -11824,13 +11824,13 @@
         <v>292</v>
       </c>
       <c r="B289" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="C289" t="s">
         <v>1352</v>
       </c>
       <c r="D289" t="s">
-        <v>1057</v>
+        <v>2125</v>
       </c>
       <c r="E289" t="s">
         <v>2172</v>
@@ -11841,13 +11841,13 @@
         <v>293</v>
       </c>
       <c r="B290" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="C290" t="s">
         <v>1353</v>
       </c>
       <c r="D290" t="s">
-        <v>2125</v>
+        <v>2127</v>
       </c>
       <c r="E290" t="s">
         <v>2172</v>
@@ -11858,13 +11858,13 @@
         <v>294</v>
       </c>
       <c r="B291" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="C291" t="s">
         <v>1354</v>
       </c>
       <c r="D291" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="E291" t="s">
         <v>2172</v>
@@ -12232,13 +12232,13 @@
         <v>316</v>
       </c>
       <c r="B313" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="C313" t="s">
         <v>1376</v>
       </c>
       <c r="D313" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="E313" t="s">
         <v>2172</v>
@@ -12249,13 +12249,13 @@
         <v>317</v>
       </c>
       <c r="B314" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="C314" t="s">
         <v>1377</v>
       </c>
       <c r="D314" t="s">
-        <v>2129</v>
+        <v>1059</v>
       </c>
       <c r="E314" t="s">
         <v>2172</v>
@@ -12266,13 +12266,13 @@
         <v>318</v>
       </c>
       <c r="B315" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="C315" t="s">
         <v>1378</v>
       </c>
       <c r="D315" t="s">
-        <v>1059</v>
+        <v>2130</v>
       </c>
       <c r="E315" t="s">
         <v>2172</v>
@@ -12283,16 +12283,16 @@
         <v>319</v>
       </c>
       <c r="B316" t="s">
-        <v>1060</v>
+        <v>1050</v>
       </c>
       <c r="C316" t="s">
         <v>1379</v>
       </c>
       <c r="D316" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="E316" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -12306,7 +12306,7 @@
         <v>1380</v>
       </c>
       <c r="D317" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="E317" t="s">
         <v>2173</v>
@@ -12408,7 +12408,7 @@
         <v>1386</v>
       </c>
       <c r="D323" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
       <c r="E323" t="s">
         <v>2173</v>
@@ -12425,10 +12425,10 @@
         <v>1387</v>
       </c>
       <c r="D324" t="s">
-        <v>2133</v>
+        <v>2108</v>
       </c>
       <c r="E324" t="s">
-        <v>2173</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -14411,7 +14411,7 @@
         <v>1050</v>
       </c>
       <c r="C441" t="s">
-        <v>1504</v>
+        <v>1454</v>
       </c>
       <c r="D441" t="s">
         <v>2108</v>
@@ -14428,7 +14428,7 @@
         <v>1050</v>
       </c>
       <c r="C442" t="s">
-        <v>1455</v>
+        <v>1504</v>
       </c>
       <c r="D442" t="s">
         <v>2108</v>
@@ -15329,7 +15329,7 @@
         <v>1050</v>
       </c>
       <c r="C495" t="s">
-        <v>1557</v>
+        <v>1417</v>
       </c>
       <c r="D495" t="s">
         <v>2108</v>
@@ -15346,7 +15346,7 @@
         <v>1050</v>
       </c>
       <c r="C496" t="s">
-        <v>1418</v>
+        <v>1557</v>
       </c>
       <c r="D496" t="s">
         <v>2108</v>
@@ -15570,7 +15570,7 @@
         <v>1570</v>
       </c>
       <c r="D509" t="s">
-        <v>2108</v>
+        <v>2134</v>
       </c>
       <c r="E509" t="s">
         <v>2174</v>
@@ -15604,10 +15604,10 @@
         <v>1572</v>
       </c>
       <c r="D511" t="s">
-        <v>2134</v>
+        <v>2108</v>
       </c>
       <c r="E511" t="s">
-        <v>2174</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="512" spans="1:5">
@@ -15649,13 +15649,13 @@
         <v>517</v>
       </c>
       <c r="B514" t="s">
-        <v>1050</v>
+        <v>1055</v>
       </c>
       <c r="C514" t="s">
         <v>1575</v>
       </c>
       <c r="D514" t="s">
-        <v>2108</v>
+        <v>2125</v>
       </c>
       <c r="E514" t="s">
         <v>2175</v>
@@ -15921,7 +15921,7 @@
         <v>533</v>
       </c>
       <c r="B530" t="s">
-        <v>1055</v>
+        <v>1061</v>
       </c>
       <c r="C530" t="s">
         <v>1591</v>
@@ -15938,7 +15938,7 @@
         <v>534</v>
       </c>
       <c r="B531" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="C531" t="s">
         <v>1592</v>
@@ -16754,7 +16754,7 @@
         <v>582</v>
       </c>
       <c r="B579" t="s">
-        <v>1055</v>
+        <v>1061</v>
       </c>
       <c r="C579" t="s">
         <v>1640</v>
@@ -16771,7 +16771,7 @@
         <v>583</v>
       </c>
       <c r="B580" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="C580" t="s">
         <v>1641</v>
@@ -16794,7 +16794,7 @@
         <v>1642</v>
       </c>
       <c r="D581" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="E581" t="s">
         <v>2175</v>
@@ -16947,7 +16947,7 @@
         <v>1651</v>
       </c>
       <c r="D590" t="s">
-        <v>2128</v>
+        <v>2135</v>
       </c>
       <c r="E590" t="s">
         <v>2175</v>
@@ -16958,7 +16958,7 @@
         <v>594</v>
       </c>
       <c r="B591" t="s">
-        <v>1055</v>
+        <v>1061</v>
       </c>
       <c r="C591" t="s">
         <v>1652</v>
@@ -16975,13 +16975,13 @@
         <v>595</v>
       </c>
       <c r="B592" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="C592" t="s">
         <v>1653</v>
       </c>
       <c r="D592" t="s">
-        <v>2135</v>
+        <v>2136</v>
       </c>
       <c r="E592" t="s">
         <v>2175</v>
@@ -16998,7 +16998,7 @@
         <v>1654</v>
       </c>
       <c r="D593" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="E593" t="s">
         <v>2175</v>
@@ -17043,7 +17043,7 @@
         <v>599</v>
       </c>
       <c r="B596" t="s">
-        <v>1055</v>
+        <v>1061</v>
       </c>
       <c r="C596" t="s">
         <v>1657</v>
@@ -17060,7 +17060,7 @@
         <v>600</v>
       </c>
       <c r="B597" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="C597" t="s">
         <v>1658</v>
@@ -17216,7 +17216,7 @@
         <v>1055</v>
       </c>
       <c r="C606" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
       <c r="D606" t="s">
         <v>2137</v>
@@ -17233,7 +17233,7 @@
         <v>1055</v>
       </c>
       <c r="C607" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="D607" t="s">
         <v>2137</v>
@@ -17247,16 +17247,16 @@
         <v>611</v>
       </c>
       <c r="B608" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="C608" t="s">
         <v>1668</v>
       </c>
       <c r="D608" t="s">
-        <v>2137</v>
+        <v>2108</v>
       </c>
       <c r="E608" t="s">
-        <v>2175</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="609" spans="1:5">
@@ -17281,13 +17281,13 @@
         <v>613</v>
       </c>
       <c r="B610" t="s">
-        <v>1050</v>
+        <v>1055</v>
       </c>
       <c r="C610" t="s">
         <v>1670</v>
       </c>
       <c r="D610" t="s">
-        <v>2108</v>
+        <v>2125</v>
       </c>
       <c r="E610" t="s">
         <v>2176</v>
@@ -17559,7 +17559,7 @@
         <v>1686</v>
       </c>
       <c r="D626" t="s">
-        <v>2125</v>
+        <v>2138</v>
       </c>
       <c r="E626" t="s">
         <v>2176</v>
@@ -17604,7 +17604,7 @@
         <v>632</v>
       </c>
       <c r="B629" t="s">
-        <v>1055</v>
+        <v>1061</v>
       </c>
       <c r="C629" t="s">
         <v>1689</v>
@@ -17621,7 +17621,7 @@
         <v>633</v>
       </c>
       <c r="B630" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="C630" t="s">
         <v>1690</v>
@@ -17672,13 +17672,13 @@
         <v>636</v>
       </c>
       <c r="B633" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="C633" t="s">
         <v>1693</v>
       </c>
       <c r="D633" t="s">
-        <v>2138</v>
+        <v>2127</v>
       </c>
       <c r="E633" t="s">
         <v>2176</v>
@@ -17695,7 +17695,7 @@
         <v>1694</v>
       </c>
       <c r="D634" t="s">
-        <v>2127</v>
+        <v>2139</v>
       </c>
       <c r="E634" t="s">
         <v>2176</v>
@@ -17723,13 +17723,13 @@
         <v>639</v>
       </c>
       <c r="B636" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="C636" t="s">
         <v>1696</v>
       </c>
       <c r="D636" t="s">
-        <v>2139</v>
+        <v>2140</v>
       </c>
       <c r="E636" t="s">
         <v>2176</v>
@@ -17757,7 +17757,7 @@
         <v>641</v>
       </c>
       <c r="B638" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="C638" t="s">
         <v>1698</v>
@@ -17791,13 +17791,13 @@
         <v>643</v>
       </c>
       <c r="B640" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="C640" t="s">
         <v>1700</v>
       </c>
       <c r="D640" t="s">
-        <v>2140</v>
+        <v>2129</v>
       </c>
       <c r="E640" t="s">
         <v>2176</v>
@@ -17944,13 +17944,13 @@
         <v>652</v>
       </c>
       <c r="B649" t="s">
-        <v>1058</v>
+        <v>1050</v>
       </c>
       <c r="C649" t="s">
         <v>1709</v>
       </c>
       <c r="D649" t="s">
-        <v>2129</v>
+        <v>2141</v>
       </c>
       <c r="E649" t="s">
         <v>2176</v>
@@ -18148,13 +18148,13 @@
         <v>664</v>
       </c>
       <c r="B661" t="s">
-        <v>1050</v>
+        <v>1055</v>
       </c>
       <c r="C661" t="s">
         <v>1721</v>
       </c>
       <c r="D661" t="s">
-        <v>2141</v>
+        <v>2142</v>
       </c>
       <c r="E661" t="s">
         <v>2176</v>
@@ -18165,7 +18165,7 @@
         <v>665</v>
       </c>
       <c r="B662" t="s">
-        <v>1055</v>
+        <v>1061</v>
       </c>
       <c r="C662" t="s">
         <v>1722</v>
@@ -18182,13 +18182,13 @@
         <v>666</v>
       </c>
       <c r="B663" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="C663" t="s">
         <v>1723</v>
       </c>
       <c r="D663" t="s">
-        <v>2142</v>
+        <v>2136</v>
       </c>
       <c r="E663" t="s">
         <v>2176</v>
@@ -18233,13 +18233,13 @@
         <v>669</v>
       </c>
       <c r="B666" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="C666" t="s">
         <v>1726</v>
       </c>
       <c r="D666" t="s">
-        <v>2136</v>
+        <v>2143</v>
       </c>
       <c r="E666" t="s">
         <v>2176</v>
@@ -18307,7 +18307,7 @@
         <v>1730</v>
       </c>
       <c r="D670" t="s">
-        <v>2143</v>
+        <v>2144</v>
       </c>
       <c r="E670" t="s">
         <v>2176</v>
@@ -18335,16 +18335,16 @@
         <v>675</v>
       </c>
       <c r="B672" t="s">
-        <v>1058</v>
+        <v>1050</v>
       </c>
       <c r="C672" t="s">
         <v>1732</v>
       </c>
       <c r="D672" t="s">
-        <v>2144</v>
+        <v>2108</v>
       </c>
       <c r="E672" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="673" spans="1:5">
@@ -18488,13 +18488,13 @@
         <v>684</v>
       </c>
       <c r="B681" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="C681" t="s">
         <v>1741</v>
       </c>
       <c r="D681" t="s">
-        <v>2108</v>
+        <v>2145</v>
       </c>
       <c r="E681" t="s">
         <v>2177</v>
@@ -18692,13 +18692,13 @@
         <v>696</v>
       </c>
       <c r="B693" t="s">
-        <v>1047</v>
+        <v>1055</v>
       </c>
       <c r="C693" t="s">
         <v>1753</v>
       </c>
       <c r="D693" t="s">
-        <v>2145</v>
+        <v>2125</v>
       </c>
       <c r="E693" t="s">
         <v>2177</v>
@@ -18715,7 +18715,7 @@
         <v>1754</v>
       </c>
       <c r="D694" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="E694" t="s">
         <v>2177</v>
@@ -18726,13 +18726,13 @@
         <v>698</v>
       </c>
       <c r="B695" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="C695" t="s">
         <v>1755</v>
       </c>
       <c r="D695" t="s">
-        <v>2128</v>
+        <v>1052</v>
       </c>
       <c r="E695" t="s">
         <v>2177</v>
@@ -18845,13 +18845,13 @@
         <v>705</v>
       </c>
       <c r="B702" t="s">
-        <v>1052</v>
+        <v>1062</v>
       </c>
       <c r="C702" t="s">
         <v>1762</v>
       </c>
       <c r="D702" t="s">
-        <v>1052</v>
+        <v>2146</v>
       </c>
       <c r="E702" t="s">
         <v>2177</v>
@@ -18930,13 +18930,13 @@
         <v>710</v>
       </c>
       <c r="B707" t="s">
-        <v>1062</v>
+        <v>1055</v>
       </c>
       <c r="C707" t="s">
         <v>1767</v>
       </c>
       <c r="D707" t="s">
-        <v>2146</v>
+        <v>2147</v>
       </c>
       <c r="E707" t="s">
         <v>2177</v>
@@ -18947,13 +18947,13 @@
         <v>711</v>
       </c>
       <c r="B708" t="s">
-        <v>1055</v>
+        <v>1062</v>
       </c>
       <c r="C708" t="s">
         <v>1768</v>
       </c>
       <c r="D708" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="E708" t="s">
         <v>2177</v>
@@ -18998,13 +18998,13 @@
         <v>714</v>
       </c>
       <c r="B711" t="s">
-        <v>1062</v>
+        <v>1047</v>
       </c>
       <c r="C711" t="s">
         <v>1771</v>
       </c>
       <c r="D711" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="E711" t="s">
         <v>2177</v>
@@ -19219,13 +19219,13 @@
         <v>727</v>
       </c>
       <c r="B724" t="s">
-        <v>1047</v>
+        <v>1055</v>
       </c>
       <c r="C724" t="s">
         <v>1784</v>
       </c>
       <c r="D724" t="s">
-        <v>2149</v>
+        <v>2137</v>
       </c>
       <c r="E724" t="s">
         <v>2177</v>
@@ -19236,13 +19236,13 @@
         <v>728</v>
       </c>
       <c r="B725" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="C725" t="s">
         <v>1785</v>
       </c>
       <c r="D725" t="s">
-        <v>2137</v>
+        <v>2115</v>
       </c>
       <c r="E725" t="s">
         <v>2177</v>
@@ -19423,13 +19423,13 @@
         <v>739</v>
       </c>
       <c r="B736" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="C736" t="s">
         <v>1796</v>
       </c>
       <c r="D736" t="s">
-        <v>2115</v>
+        <v>2150</v>
       </c>
       <c r="E736" t="s">
         <v>2177</v>
@@ -19548,10 +19548,10 @@
         <v>1803</v>
       </c>
       <c r="D743" t="s">
-        <v>2150</v>
+        <v>2108</v>
       </c>
       <c r="E743" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="744" spans="1:5">
@@ -19576,13 +19576,13 @@
         <v>748</v>
       </c>
       <c r="B745" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C745" t="s">
         <v>1805</v>
       </c>
       <c r="D745" t="s">
-        <v>2108</v>
+        <v>2151</v>
       </c>
       <c r="E745" t="s">
         <v>2178</v>
@@ -19678,13 +19678,13 @@
         <v>754</v>
       </c>
       <c r="B751" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="C751" t="s">
         <v>1811</v>
       </c>
       <c r="D751" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="E751" t="s">
         <v>2178</v>
@@ -19752,7 +19752,7 @@
         <v>1815</v>
       </c>
       <c r="D755" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="E755" t="s">
         <v>2178</v>
@@ -19837,7 +19837,7 @@
         <v>1820</v>
       </c>
       <c r="D760" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="E760" t="s">
         <v>2178</v>
@@ -19882,13 +19882,13 @@
         <v>766</v>
       </c>
       <c r="B763" t="s">
-        <v>1050</v>
+        <v>1055</v>
       </c>
       <c r="C763" t="s">
         <v>1823</v>
       </c>
       <c r="D763" t="s">
-        <v>2154</v>
+        <v>2125</v>
       </c>
       <c r="E763" t="s">
         <v>2178</v>
@@ -19899,13 +19899,13 @@
         <v>767</v>
       </c>
       <c r="B764" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="C764" t="s">
         <v>1824</v>
       </c>
       <c r="D764" t="s">
-        <v>2125</v>
+        <v>1052</v>
       </c>
       <c r="E764" t="s">
         <v>2178</v>
@@ -20103,13 +20103,13 @@
         <v>779</v>
       </c>
       <c r="B776" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="C776" t="s">
         <v>1836</v>
       </c>
       <c r="D776" t="s">
-        <v>1052</v>
+        <v>2155</v>
       </c>
       <c r="E776" t="s">
         <v>2178</v>
@@ -20171,13 +20171,13 @@
         <v>783</v>
       </c>
       <c r="B780" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C780" t="s">
         <v>1840</v>
       </c>
       <c r="D780" t="s">
-        <v>2155</v>
+        <v>2115</v>
       </c>
       <c r="E780" t="s">
         <v>2178</v>
@@ -20194,7 +20194,7 @@
         <v>1841</v>
       </c>
       <c r="D781" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="E781" t="s">
         <v>2178</v>
@@ -20239,13 +20239,13 @@
         <v>787</v>
       </c>
       <c r="B784" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="C784" t="s">
         <v>1844</v>
       </c>
       <c r="D784" t="s">
-        <v>2116</v>
+        <v>2156</v>
       </c>
       <c r="E784" t="s">
         <v>2178</v>
@@ -20279,10 +20279,10 @@
         <v>1846</v>
       </c>
       <c r="D786" t="s">
-        <v>2156</v>
+        <v>2108</v>
       </c>
       <c r="E786" t="s">
-        <v>2178</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="787" spans="1:5">
@@ -20307,13 +20307,13 @@
         <v>791</v>
       </c>
       <c r="B788" t="s">
-        <v>1050</v>
+        <v>1055</v>
       </c>
       <c r="C788" t="s">
         <v>1848</v>
       </c>
       <c r="D788" t="s">
-        <v>2108</v>
+        <v>2125</v>
       </c>
       <c r="E788" t="s">
         <v>2179</v>
@@ -20324,13 +20324,13 @@
         <v>792</v>
       </c>
       <c r="B789" t="s">
-        <v>1055</v>
+        <v>1063</v>
       </c>
       <c r="C789" t="s">
         <v>1849</v>
       </c>
       <c r="D789" t="s">
-        <v>2125</v>
+        <v>2157</v>
       </c>
       <c r="E789" t="s">
         <v>2179</v>
@@ -20477,13 +20477,13 @@
         <v>801</v>
       </c>
       <c r="B798" t="s">
-        <v>1063</v>
+        <v>1055</v>
       </c>
       <c r="C798" t="s">
         <v>1858</v>
       </c>
       <c r="D798" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="E798" t="s">
         <v>2179</v>
@@ -20494,13 +20494,13 @@
         <v>802</v>
       </c>
       <c r="B799" t="s">
-        <v>1055</v>
+        <v>1063</v>
       </c>
       <c r="C799" t="s">
         <v>1859</v>
       </c>
       <c r="D799" t="s">
-        <v>2158</v>
+        <v>2142</v>
       </c>
       <c r="E799" t="s">
         <v>2179</v>
@@ -20517,7 +20517,7 @@
         <v>1860</v>
       </c>
       <c r="D800" t="s">
-        <v>2142</v>
+        <v>2159</v>
       </c>
       <c r="E800" t="s">
         <v>2179</v>
@@ -20551,7 +20551,7 @@
         <v>1862</v>
       </c>
       <c r="D802" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="E802" t="s">
         <v>2179</v>
@@ -20562,13 +20562,13 @@
         <v>806</v>
       </c>
       <c r="B803" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="C803" t="s">
         <v>1863</v>
       </c>
       <c r="D803" t="s">
-        <v>2160</v>
+        <v>2130</v>
       </c>
       <c r="E803" t="s">
         <v>2179</v>
@@ -20922,7 +20922,7 @@
         <v>1060</v>
       </c>
       <c r="C824" t="s">
-        <v>1884</v>
+        <v>1391</v>
       </c>
       <c r="D824" t="s">
         <v>2130</v>
@@ -20939,7 +20939,7 @@
         <v>1060</v>
       </c>
       <c r="C825" t="s">
-        <v>1392</v>
+        <v>1884</v>
       </c>
       <c r="D825" t="s">
         <v>2130</v>
@@ -21174,16 +21174,16 @@
         <v>842</v>
       </c>
       <c r="B839" t="s">
-        <v>1060</v>
+        <v>1050</v>
       </c>
       <c r="C839" t="s">
         <v>1898</v>
       </c>
       <c r="D839" t="s">
-        <v>2130</v>
+        <v>2108</v>
       </c>
       <c r="E839" t="s">
-        <v>2179</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="840" spans="1:5">
@@ -21208,13 +21208,13 @@
         <v>844</v>
       </c>
       <c r="B841" t="s">
-        <v>1050</v>
+        <v>1057</v>
       </c>
       <c r="C841" t="s">
         <v>1900</v>
       </c>
       <c r="D841" t="s">
-        <v>2108</v>
+        <v>1057</v>
       </c>
       <c r="E841" t="s">
         <v>2180</v>
@@ -21415,7 +21415,7 @@
         <v>1057</v>
       </c>
       <c r="C853" t="s">
-        <v>1912</v>
+        <v>1909</v>
       </c>
       <c r="D853" t="s">
         <v>1057</v>
@@ -21432,7 +21432,7 @@
         <v>1057</v>
       </c>
       <c r="C854" t="s">
-        <v>1910</v>
+        <v>1912</v>
       </c>
       <c r="D854" t="s">
         <v>1057</v>
@@ -21466,7 +21466,7 @@
         <v>1057</v>
       </c>
       <c r="C856" t="s">
-        <v>1914</v>
+        <v>1909</v>
       </c>
       <c r="D856" t="s">
         <v>1057</v>
@@ -21483,7 +21483,7 @@
         <v>1057</v>
       </c>
       <c r="C857" t="s">
-        <v>1910</v>
+        <v>1914</v>
       </c>
       <c r="D857" t="s">
         <v>1057</v>
@@ -21531,13 +21531,13 @@
         <v>863</v>
       </c>
       <c r="B860" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="C860" t="s">
         <v>1917</v>
       </c>
       <c r="D860" t="s">
-        <v>1057</v>
+        <v>2161</v>
       </c>
       <c r="E860" t="s">
         <v>2180</v>
@@ -21565,13 +21565,13 @@
         <v>865</v>
       </c>
       <c r="B862" t="s">
-        <v>1060</v>
+        <v>1064</v>
       </c>
       <c r="C862" t="s">
         <v>1919</v>
       </c>
       <c r="D862" t="s">
-        <v>2161</v>
+        <v>1064</v>
       </c>
       <c r="E862" t="s">
         <v>2180</v>
@@ -21786,13 +21786,13 @@
         <v>878</v>
       </c>
       <c r="B875" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="C875" t="s">
         <v>1932</v>
       </c>
       <c r="D875" t="s">
-        <v>1064</v>
+        <v>2162</v>
       </c>
       <c r="E875" t="s">
         <v>2180</v>
@@ -22041,13 +22041,13 @@
         <v>893</v>
       </c>
       <c r="B890" t="s">
-        <v>1060</v>
+        <v>1052</v>
       </c>
       <c r="C890" t="s">
         <v>1947</v>
       </c>
       <c r="D890" t="s">
-        <v>2162</v>
+        <v>1052</v>
       </c>
       <c r="E890" t="s">
         <v>2180</v>
@@ -22231,7 +22231,7 @@
         <v>1052</v>
       </c>
       <c r="C901" t="s">
-        <v>1958</v>
+        <v>1955</v>
       </c>
       <c r="D901" t="s">
         <v>1052</v>
@@ -22248,7 +22248,7 @@
         <v>1052</v>
       </c>
       <c r="C902" t="s">
-        <v>1956</v>
+        <v>1958</v>
       </c>
       <c r="D902" t="s">
         <v>1052</v>

--- a/pali-class/vocab/vocab-class19.xlsx
+++ b/pali-class/vocab/vocab-class19.xlsx
@@ -2845,132 +2845,132 @@
     <t>aṅga 1</t>
   </si>
   <si>
+    <t>bhāsita 1</t>
+  </si>
+  <si>
+    <t>āsana 1</t>
+  </si>
+  <si>
+    <t>kula 1</t>
+  </si>
+  <si>
+    <t>indriya 1</t>
+  </si>
+  <si>
+    <t>ṭhāna 02</t>
+  </si>
+  <si>
+    <t>pāmojja</t>
+  </si>
+  <si>
+    <t>nidāna 1</t>
+  </si>
+  <si>
+    <t>padhāna 1</t>
+  </si>
+  <si>
+    <t>rūpa 1</t>
+  </si>
+  <si>
+    <t>pamāṇa 3</t>
+  </si>
+  <si>
+    <t>upādāna 2</t>
+  </si>
+  <si>
+    <t>pācittiya 1</t>
+  </si>
+  <si>
+    <t>raṭṭha</t>
+  </si>
+  <si>
+    <t>sarīra 1</t>
+  </si>
+  <si>
+    <t>kusala 4</t>
+  </si>
+  <si>
+    <t>pāpa 3</t>
+  </si>
+  <si>
+    <t>vera</t>
+  </si>
+  <si>
+    <t>amata 1</t>
+  </si>
+  <si>
+    <t>adinna 1</t>
+  </si>
+  <si>
+    <t>bhesajja</t>
+  </si>
+  <si>
+    <t>dhana 1</t>
+  </si>
+  <si>
+    <t>cīvara</t>
+  </si>
+  <si>
+    <t>tīra</t>
+  </si>
+  <si>
+    <t>santhata 1</t>
+  </si>
+  <si>
+    <t>itthatta 1</t>
+  </si>
+  <si>
+    <t>mūla 2</t>
+  </si>
+  <si>
+    <t>nāma 5</t>
+  </si>
+  <si>
+    <t>agāra 1</t>
+  </si>
+  <si>
+    <t>domanassa</t>
+  </si>
+  <si>
+    <t>maraṇa</t>
+  </si>
+  <si>
+    <t>vassa 3</t>
+  </si>
+  <si>
+    <t>ottappa</t>
+  </si>
+  <si>
+    <t>veyyākaraṇa 1</t>
+  </si>
+  <si>
+    <t>mūla 1</t>
+  </si>
+  <si>
+    <t>jīvita 2</t>
+  </si>
+  <si>
+    <t>sukhāya</t>
+  </si>
+  <si>
+    <t>sacca 2</t>
+  </si>
+  <si>
+    <t>aṅga 3</t>
+  </si>
+  <si>
+    <t>cakka 1</t>
+  </si>
+  <si>
+    <t>nāma 4</t>
+  </si>
+  <si>
+    <t>parinibbāna 1</t>
+  </si>
+  <si>
     <t>nibbāna 2</t>
   </si>
   <si>
-    <t>bhāsita 1</t>
-  </si>
-  <si>
-    <t>āsana 1</t>
-  </si>
-  <si>
-    <t>kula 1</t>
-  </si>
-  <si>
-    <t>indriya 1</t>
-  </si>
-  <si>
-    <t>ṭhāna 02</t>
-  </si>
-  <si>
-    <t>pāmojja</t>
-  </si>
-  <si>
-    <t>nidāna 1</t>
-  </si>
-  <si>
-    <t>padhāna 1</t>
-  </si>
-  <si>
-    <t>rūpa 1</t>
-  </si>
-  <si>
-    <t>pamāṇa 3</t>
-  </si>
-  <si>
-    <t>upādāna 2</t>
-  </si>
-  <si>
-    <t>pācittiya 1</t>
-  </si>
-  <si>
-    <t>raṭṭha</t>
-  </si>
-  <si>
-    <t>sarīra 1</t>
-  </si>
-  <si>
-    <t>kusala 4</t>
-  </si>
-  <si>
-    <t>pāpa 3</t>
-  </si>
-  <si>
-    <t>vera</t>
-  </si>
-  <si>
-    <t>amata 1</t>
-  </si>
-  <si>
-    <t>adinna 1</t>
-  </si>
-  <si>
-    <t>bhesajja</t>
-  </si>
-  <si>
-    <t>dhana 1</t>
-  </si>
-  <si>
-    <t>cīvara</t>
-  </si>
-  <si>
-    <t>tīra</t>
-  </si>
-  <si>
-    <t>santhata 1</t>
-  </si>
-  <si>
-    <t>itthatta 1</t>
-  </si>
-  <si>
-    <t>mūla 2</t>
-  </si>
-  <si>
-    <t>nāma 5</t>
-  </si>
-  <si>
-    <t>agāra 1</t>
-  </si>
-  <si>
-    <t>domanassa</t>
-  </si>
-  <si>
-    <t>maraṇa</t>
-  </si>
-  <si>
-    <t>vassa 3</t>
-  </si>
-  <si>
-    <t>ottappa</t>
-  </si>
-  <si>
-    <t>veyyākaraṇa 1</t>
-  </si>
-  <si>
-    <t>mūla 1</t>
-  </si>
-  <si>
-    <t>jīvita 2</t>
-  </si>
-  <si>
-    <t>sukhāya</t>
-  </si>
-  <si>
-    <t>sacca 2</t>
-  </si>
-  <si>
-    <t>aṅga 3</t>
-  </si>
-  <si>
-    <t>cakka 1</t>
-  </si>
-  <si>
-    <t>nāma 4</t>
-  </si>
-  <si>
-    <t>parinibbāna 1</t>
-  </si>
-  <si>
     <t>bhaya 3</t>
   </si>
   <si>
@@ -6013,130 +6013,130 @@
     <t>part of the body; limb</t>
   </si>
   <si>
+    <t>saying; speech; statement; utterance; talk; words; lit. what was said</t>
+  </si>
+  <si>
+    <t>seat; chair; lit. sitting</t>
+  </si>
+  <si>
+    <t>family; house; household; respectable family</t>
+  </si>
+  <si>
+    <t>sense; mental faculty; power; lit. belonging to Inda</t>
+  </si>
+  <si>
+    <t>reason; grounds; basis; cause; lit. standing</t>
+  </si>
+  <si>
+    <t>joy; happiness; gladness</t>
+  </si>
+  <si>
+    <t>source; origin; foundation; cause; reason; lit. tying down</t>
+  </si>
+  <si>
+    <t>making effort; exerting; striving; trying (to)</t>
+  </si>
+  <si>
+    <t>matter; material thing; materiality; experience of material world; physical objects of consciousness; first of the five aggregates; lit. form</t>
+  </si>
+  <si>
+    <t>measure; measurement; length; size; amount; quantity; lit. measuring</t>
+  </si>
+  <si>
+    <t>acquiring; appropriating; taking possession; grasping; clinging; identifying; lit. taking near</t>
+  </si>
+  <si>
+    <t>(vinaya) offence requiring confession</t>
+  </si>
+  <si>
+    <t>country; land; kingdom; realm</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>good; benefit; merit; good deed; doing good</t>
+  </si>
+  <si>
+    <t>evil action (in); crime (in); sin (in); wrongdoing (in); misdeed (in)</t>
+  </si>
+  <si>
+    <t>hatred; ill-will; animosity; hostility</t>
+  </si>
+  <si>
+    <t>deathless state; immortality; ambrosia; drink of immortality; epithet of Nibbāna</t>
+  </si>
+  <si>
+    <t>which is not given; something not offered</t>
+  </si>
+  <si>
+    <t>medicine; remedy; tonic; drug</t>
+  </si>
+  <si>
+    <t>wealth; riches; treasure</t>
+  </si>
+  <si>
+    <t>robe; cloth; robe-cloth; lit. rags</t>
+  </si>
+  <si>
+    <t>shore; riverbank; beach</t>
+  </si>
+  <si>
+    <t>spread; bedspread; coverlet; counterpane</t>
+  </si>
+  <si>
+    <t>present state of existence; earthly existence; such an existence; lit. here state</t>
+  </si>
+  <si>
+    <t>source; origin; root</t>
+  </si>
+  <si>
+    <t>mental objects of consciousness; mentality; mental factors of feeling, perception, intention, contact and attention; lit. name</t>
+  </si>
+  <si>
+    <t>dwelling; building; house; hut</t>
+  </si>
+  <si>
+    <t>(mental) suffering; distress; dissatisfaction; dejection; depression; grief</t>
+  </si>
+  <si>
+    <t>death; dying</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>regret; shame in wrongdoing; respect for others</t>
+  </si>
+  <si>
+    <t>answer; reply</t>
+  </si>
+  <si>
+    <t>(of a tree) root; base; foot</t>
+  </si>
+  <si>
+    <t>livelihood; lifestyle; way of life</t>
+  </si>
+  <si>
+    <t>comfortable (for); lit. for the comfort</t>
+  </si>
+  <si>
+    <t>truth</t>
+  </si>
+  <si>
+    <t>factor; component; element; quality; aspect; lit. part</t>
+  </si>
+  <si>
+    <t>wheel</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>(of mental defilement) complete quenching; total emancipation; complete cooling</t>
+  </si>
+  <si>
     <t>(of mental defilement) complete quenching; total emancipation; complete cooling; lit. blowing away</t>
-  </si>
-  <si>
-    <t>saying; speech; statement; utterance; talk; words; lit. what was said</t>
-  </si>
-  <si>
-    <t>seat; chair; lit. sitting</t>
-  </si>
-  <si>
-    <t>family; house; household; respectable family</t>
-  </si>
-  <si>
-    <t>sense; mental faculty; power; lit. belonging to Inda</t>
-  </si>
-  <si>
-    <t>reason; grounds; basis; cause; lit. standing</t>
-  </si>
-  <si>
-    <t>joy; happiness; gladness</t>
-  </si>
-  <si>
-    <t>source; origin; foundation; cause; reason; lit. tying down</t>
-  </si>
-  <si>
-    <t>making effort; exerting; striving; trying (to)</t>
-  </si>
-  <si>
-    <t>matter; material thing; materiality; experience of material world; physical objects of consciousness; first of the five aggregates; lit. form</t>
-  </si>
-  <si>
-    <t>measure; measurement; length; size; amount; quantity; lit. measuring</t>
-  </si>
-  <si>
-    <t>acquiring; appropriating; taking possession; grasping; clinging; identifying; lit. taking near</t>
-  </si>
-  <si>
-    <t>(vinaya) offence requiring confession</t>
-  </si>
-  <si>
-    <t>country; land; kingdom; realm</t>
-  </si>
-  <si>
-    <t>body</t>
-  </si>
-  <si>
-    <t>good; benefit; merit; good deed; doing good</t>
-  </si>
-  <si>
-    <t>evil action (in); crime (in); sin (in); wrongdoing (in); misdeed (in)</t>
-  </si>
-  <si>
-    <t>hatred; ill-will; animosity; hostility</t>
-  </si>
-  <si>
-    <t>deathless state; immortality; ambrosia; drink of immortality; epithet of Nibbāna</t>
-  </si>
-  <si>
-    <t>which is not given; something not offered</t>
-  </si>
-  <si>
-    <t>medicine; remedy; tonic; drug</t>
-  </si>
-  <si>
-    <t>wealth; riches; treasure</t>
-  </si>
-  <si>
-    <t>robe; cloth; robe-cloth; lit. rags</t>
-  </si>
-  <si>
-    <t>shore; riverbank; beach</t>
-  </si>
-  <si>
-    <t>spread; bedspread; coverlet; counterpane</t>
-  </si>
-  <si>
-    <t>present state of existence; earthly existence; such an existence; lit. here state</t>
-  </si>
-  <si>
-    <t>source; origin; root</t>
-  </si>
-  <si>
-    <t>mental objects of consciousness; mentality; mental factors of feeling, perception, intention, contact and attention; lit. name</t>
-  </si>
-  <si>
-    <t>dwelling; building; house; hut</t>
-  </si>
-  <si>
-    <t>(mental) suffering; distress; dissatisfaction; dejection; depression; grief</t>
-  </si>
-  <si>
-    <t>death; dying</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>regret; shame in wrongdoing; respect for others</t>
-  </si>
-  <si>
-    <t>answer; reply</t>
-  </si>
-  <si>
-    <t>(of a tree) root; base; foot</t>
-  </si>
-  <si>
-    <t>livelihood; lifestyle; way of life</t>
-  </si>
-  <si>
-    <t>comfortable (for); lit. for the comfort</t>
-  </si>
-  <si>
-    <t>truth</t>
-  </si>
-  <si>
-    <t>factor; component; element; quality; aspect; lit. part</t>
-  </si>
-  <si>
-    <t>wheel</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>(of mental defilement) complete quenching; total emancipation; complete cooling</t>
   </si>
   <si>
     <t>danger (of; from); peril (of; from)</t>

--- a/pali-class/vocab/vocab-class19.xlsx
+++ b/pali-class/vocab/vocab-class19.xlsx
@@ -529,12 +529,12 @@
     <t>aneka</t>
   </si>
   <si>
+    <t>aniccato</t>
+  </si>
+  <si>
     <t>attato</t>
   </si>
   <si>
-    <t>aniccato</t>
-  </si>
-  <si>
     <t>anattato</t>
   </si>
   <si>
@@ -835,33 +835,33 @@
     <t>bhāvita 1</t>
   </si>
   <si>
+    <t>vacanīya 2</t>
+  </si>
+  <si>
+    <t>pahātabba</t>
+  </si>
+  <si>
+    <t>veditabba 1</t>
+  </si>
+  <si>
+    <t>daṭṭhabba 1</t>
+  </si>
+  <si>
+    <t>sikkhitabba</t>
+  </si>
+  <si>
+    <t>bhāvetabba</t>
+  </si>
+  <si>
+    <t>sevitabba 2</t>
+  </si>
+  <si>
+    <t>karaṇīya 2</t>
+  </si>
+  <si>
     <t>kātabba 2</t>
   </si>
   <si>
-    <t>vacanīya 2</t>
-  </si>
-  <si>
-    <t>pahātabba</t>
-  </si>
-  <si>
-    <t>veditabba 1</t>
-  </si>
-  <si>
-    <t>daṭṭhabba 1</t>
-  </si>
-  <si>
-    <t>sikkhitabba</t>
-  </si>
-  <si>
-    <t>bhāvetabba</t>
-  </si>
-  <si>
-    <t>sevitabba 2</t>
-  </si>
-  <si>
-    <t>karaṇīya 2</t>
-  </si>
-  <si>
     <t>kāretabba 1</t>
   </si>
   <si>
@@ -1990,33 +1990,33 @@
     <t>gahapati</t>
   </si>
   <si>
+    <t>muni 1</t>
+  </si>
+  <si>
+    <t>aggi</t>
+  </si>
+  <si>
+    <t>sārathi 2</t>
+  </si>
+  <si>
+    <t>kucchi 1</t>
+  </si>
+  <si>
+    <t>isi</t>
+  </si>
+  <si>
+    <t>gāmaṇi</t>
+  </si>
+  <si>
+    <t>ñāti</t>
+  </si>
+  <si>
+    <t>byādhi</t>
+  </si>
+  <si>
     <t>sāli</t>
   </si>
   <si>
-    <t>muni 1</t>
-  </si>
-  <si>
-    <t>aggi</t>
-  </si>
-  <si>
-    <t>sārathi 2</t>
-  </si>
-  <si>
-    <t>kucchi 1</t>
-  </si>
-  <si>
-    <t>isi</t>
-  </si>
-  <si>
-    <t>gāmaṇi</t>
-  </si>
-  <si>
-    <t>ñāti</t>
-  </si>
-  <si>
-    <t>byādhi</t>
-  </si>
-  <si>
     <t>karoti 1</t>
   </si>
   <si>
@@ -3550,7 +3550,7 @@
     <t>dark; black</t>
   </si>
   <si>
-    <t>brownish; colour of Buddhist monks’ robes</t>
+    <t>brownish; colour of Buddhist monks' robes</t>
   </si>
   <si>
     <t>fit (for); capable (of); suitable (for)</t>
@@ -3718,12 +3718,12 @@
     <t>many; various; countless; lit. not one</t>
   </si>
   <si>
+    <t>as impermanent; as unstable; as transient; as unreliable</t>
+  </si>
+  <si>
     <t>as oneself; as self</t>
   </si>
   <si>
-    <t>as impermanent; as unstable; as transient; as unreliable</t>
-  </si>
-  <si>
     <t>as impersonal; as not oneself; as non-subjective</t>
   </si>
   <si>
@@ -3913,7 +3913,7 @@
     <t>internally; inwardly; personally</t>
   </si>
   <si>
-    <t>by one’s own; oneself; one’s own</t>
+    <t>by one's own; oneself; one's own</t>
   </si>
   <si>
     <t>so; thus; in such a way; likewise; similarly</t>
@@ -4021,33 +4021,33 @@
     <t>cultivated; developed; lit. caused to be</t>
   </si>
   <si>
+    <t>should be spoken (to); should be told (to); should be said (to); lit. to be said</t>
+  </si>
+  <si>
+    <t>should be given up (by); should be abandoned (by); lit. to be abandoned</t>
+  </si>
+  <si>
+    <t>can be known (by); should be understood (by); lit. to be known</t>
+  </si>
+  <si>
+    <t>should be seen; should be regarded as; should be understood; lit. to be seen</t>
+  </si>
+  <si>
+    <t>should be learned (by); should be practised (by); should be trained (by); lit. to be trained</t>
+  </si>
+  <si>
+    <t>should be cultivated; should be developed; lit. to be caused to be</t>
+  </si>
+  <si>
+    <t>should be practised; should be followed; should be undertaken; lit. to be served</t>
+  </si>
+  <si>
+    <t>should be done; must be done; ought to be made; to be observed; lit. to be done</t>
+  </si>
+  <si>
     <t>should be made; lit. to be done</t>
   </si>
   <si>
-    <t>should be spoken (to); should be told (to); should be said (to); lit. to be said</t>
-  </si>
-  <si>
-    <t>should be given up (by); should be abandoned (by); lit. to be abandoned</t>
-  </si>
-  <si>
-    <t>can be known (by); should be understood (by); lit. to be known</t>
-  </si>
-  <si>
-    <t>should be seen; should be regarded as; should be understood; lit. to be seen</t>
-  </si>
-  <si>
-    <t>should be learned (by); should be practised (by); should be trained (by); lit. to be trained</t>
-  </si>
-  <si>
-    <t>should be cultivated; should be developed; lit. to be caused to be</t>
-  </si>
-  <si>
-    <t>should be practised; should be followed; should be undertaken; lit. to be served</t>
-  </si>
-  <si>
-    <t>should be done; must be done; ought to be made; to be observed; lit. to be done</t>
-  </si>
-  <si>
     <t>should be made; should be done; should be built; lit. to be caused to do</t>
   </si>
   <si>
@@ -5167,33 +5167,33 @@
     <t>householder; landowner; lit. house master</t>
   </si>
   <si>
+    <t>monk; sage; seer; hermit; silent sage</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>(horse or elephant) trainer</t>
+  </si>
+  <si>
+    <t>stomach; belly</t>
+  </si>
+  <si>
+    <t>seer; sage</t>
+  </si>
+  <si>
+    <t>chief; chieftain; headman; leader</t>
+  </si>
+  <si>
+    <t>family; relative; kinsman; lit. known</t>
+  </si>
+  <si>
+    <t>sickness; disease; illness; lit. upset</t>
+  </si>
+  <si>
     <t>fine rice</t>
   </si>
   <si>
-    <t>monk; sage; seer; hermit; silent sage</t>
-  </si>
-  <si>
-    <t>fire</t>
-  </si>
-  <si>
-    <t>(horse or elephant) trainer</t>
-  </si>
-  <si>
-    <t>stomach; belly</t>
-  </si>
-  <si>
-    <t>seer; sage</t>
-  </si>
-  <si>
-    <t>chief; chieftain; headman; leader</t>
-  </si>
-  <si>
-    <t>family; relative; kinsman; lit. known</t>
-  </si>
-  <si>
-    <t>sickness; disease; illness; lit. upset</t>
-  </si>
-  <si>
     <t>does; acts; performs</t>
   </si>
   <si>
@@ -5305,10 +5305,10 @@
     <t>with; together (with); accompanied (by)</t>
   </si>
   <si>
-    <t>surely?; didn’t?; isn't it?; definitely</t>
-  </si>
-  <si>
-    <t>do not; may one not; don’t let</t>
+    <t>surely?; didn't?; isn't it?; definitely</t>
+  </si>
+  <si>
+    <t>do not; may one not; don't let</t>
   </si>
   <si>
     <t>no; not; neither; nor</t>
@@ -5827,7 +5827,7 @@
     <t>rain; rainfall</t>
   </si>
   <si>
-    <t>hut; monk’s dwelling</t>
+    <t>hut; monk's dwelling</t>
   </si>
   <si>
     <t>outer robe; double robe; patchwork robe; lit. joined together</t>
@@ -6262,10 +6262,10 @@
     <t>too; also; as well</t>
   </si>
   <si>
-    <t>could it be?; what if?; shall?; let’s?; perhaps?</t>
-  </si>
-  <si>
-    <t>(adds a question mark) surely?; didn’t?; wouldn't?; which?</t>
+    <t>could it be?; what if?; shall?; let's?; perhaps?</t>
+  </si>
+  <si>
+    <t>(adds a question mark) surely?; didn't?; wouldn't?; which?</t>
   </si>
   <si>
     <t>just; only</t>
@@ -6295,7 +6295,7 @@
     <t>how?</t>
   </si>
   <si>
-    <t>that’s enough (of)!; stop (with)!</t>
+    <t>that's enough (of)!; stop (with)!</t>
   </si>
   <si>
     <t>enough; it is enough (for)</t>

--- a/pali-class/vocab/vocab-class19.xlsx
+++ b/pali-class/vocab/vocab-class19.xlsx
@@ -436,6 +436,9 @@
     <t>adhigata 1</t>
   </si>
   <si>
+    <t>paricita</t>
+  </si>
+  <si>
     <t>santuṭṭha 1</t>
   </si>
   <si>
@@ -475,9 +478,6 @@
     <t>pahīna</t>
   </si>
   <si>
-    <t>paricita</t>
-  </si>
-  <si>
     <t>puṭṭha 1.1</t>
   </si>
   <si>
@@ -514,12 +514,12 @@
     <t>vusita 1</t>
   </si>
   <si>
+    <t>upekkhaka</t>
+  </si>
+  <si>
     <t>pāpaka 1.1</t>
   </si>
   <si>
-    <t>upekkhaka</t>
-  </si>
-  <si>
     <t>mahanta 1</t>
   </si>
   <si>
@@ -811,15 +811,15 @@
     <t>atha 1</t>
   </si>
   <si>
+    <t>atha 2</t>
+  </si>
+  <si>
     <t>aññathā 1</t>
   </si>
   <si>
     <t>accayena 2</t>
   </si>
   <si>
-    <t>atha 2</t>
-  </si>
-  <si>
     <t>yebhuyyena</t>
   </si>
   <si>
@@ -1093,411 +1093,411 @@
     <t>saṃvara 2</t>
   </si>
   <si>
+    <t>sara 2.1</t>
+  </si>
+  <si>
+    <t>magga 1</t>
+  </si>
+  <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>putta 1</t>
+  </si>
+  <si>
+    <t>dhamma 1.03</t>
+  </si>
+  <si>
+    <t>ñāya</t>
+  </si>
+  <si>
+    <t>tathāgata</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>loma 1</t>
+  </si>
+  <si>
+    <t>khandha 1</t>
+  </si>
+  <si>
+    <t>sūriya 1</t>
+  </si>
+  <si>
+    <t>vaccha 1.1</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
+    <t>sāra 2</t>
+  </si>
+  <si>
+    <t>attha 1.1</t>
+  </si>
+  <si>
+    <t>sāriputta</t>
+  </si>
+  <si>
+    <t>khattiya 2</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>padesa 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>kopa 1</t>
+  </si>
+  <si>
+    <t>bhāva 1</t>
+  </si>
+  <si>
+    <t>satta 2.1</t>
+  </si>
+  <si>
+    <t>samatikkama</t>
+  </si>
+  <si>
+    <t>antarāya</t>
+  </si>
+  <si>
+    <t>upasama</t>
+  </si>
+  <si>
+    <t>bheda 2</t>
+  </si>
+  <si>
+    <t>dhamma 1.06</t>
+  </si>
+  <si>
+    <t>chanda 2</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>paccaya 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>kāya 1.2</t>
+  </si>
+  <si>
+    <t>bhoga 1.1</t>
+  </si>
+  <si>
+    <t>vasa 1.2</t>
+  </si>
+  <si>
+    <t>daṇḍa 1</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>passāva</t>
+  </si>
+  <si>
+    <t>uccāra</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>māna 1.1</t>
+  </si>
+  <si>
+    <t>kodha 1</t>
+  </si>
+  <si>
+    <t>purisa 1</t>
+  </si>
+  <si>
+    <t>moghapurisa</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>moha 1</t>
+  </si>
+  <si>
+    <t>dosa 1</t>
+  </si>
+  <si>
+    <t>manasikāra</t>
+  </si>
+  <si>
+    <t>attha 1.2</t>
+  </si>
+  <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>paccaya 2</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>nara</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>upajjhāya</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>samatha 1.1</t>
+  </si>
+  <si>
+    <t>nāga 2</t>
+  </si>
+  <si>
+    <t>loka 1</t>
+  </si>
+  <si>
+    <t>pallaṅka 2</t>
+  </si>
+  <si>
+    <t>rukkha</t>
+  </si>
+  <si>
+    <t>kāya 1.1</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>sāvaka</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>virāga 2.1</t>
+  </si>
+  <si>
+    <t>sāmika 1</t>
+  </si>
+  <si>
+    <t>gandha 1</t>
+  </si>
+  <si>
+    <t>ārāma 3</t>
+  </si>
+  <si>
+    <t>samaya 1.1</t>
+  </si>
+  <si>
+    <t>dhamma 1.14</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>sīha 1</t>
+  </si>
+  <si>
+    <t>ogha 1</t>
+  </si>
+  <si>
+    <t>dhamma 1.05</t>
+  </si>
+  <si>
+    <t>āhāra 1</t>
+  </si>
+  <si>
+    <t>anta 3</t>
+  </si>
+  <si>
+    <t>bheda 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
+    <t>kāma 3</t>
+  </si>
+  <si>
+    <t>uddesa 1</t>
+  </si>
+  <si>
+    <t>ānisaṃsa 1</t>
+  </si>
+  <si>
+    <t>sambodha</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sota 1.1</t>
+  </si>
+  <si>
+    <t>apāya 1</t>
+  </si>
+  <si>
+    <t>bojjhaṅga</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>sakuṇa</t>
+  </si>
+  <si>
+    <t>vipāka 1</t>
+  </si>
+  <si>
+    <t>patta 1.1</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>loka 2</t>
+  </si>
+  <si>
+    <t>danta 1.1</t>
+  </si>
+  <si>
+    <t>satipaṭṭhāna 1</t>
+  </si>
+  <si>
+    <t>samudda</t>
+  </si>
+  <si>
+    <t>asura</t>
+  </si>
+  <si>
+    <t>kesa</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>magga 2</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>kāla 1.1</t>
+  </si>
+  <si>
+    <t>visesa 1</t>
+  </si>
+  <si>
+    <t>pañha 2</t>
+  </si>
+  <si>
+    <t>sahāya</t>
+  </si>
+  <si>
+    <t>pāsāda</t>
+  </si>
+  <si>
+    <t>paribbājaka</t>
+  </si>
+  <si>
+    <t>sunakkhatta 2</t>
+  </si>
+  <si>
+    <t>āvāsa 1</t>
+  </si>
+  <si>
+    <t>viveka 1</t>
+  </si>
+  <si>
+    <t>anta 2</t>
+  </si>
+  <si>
+    <t>chanda 1</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>uppāda 1.1</t>
+  </si>
+  <si>
+    <t>kaccāna</t>
+  </si>
+  <si>
+    <t>vitakka 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>pamāda</t>
+  </si>
+  <si>
+    <t>nissaya 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>byāpāda</t>
+  </si>
+  <si>
+    <t>attha 2.1</t>
+  </si>
+  <si>
     <t>adhigama 1</t>
   </si>
   <si>
-    <t>sara 2.1</t>
-  </si>
-  <si>
-    <t>magga 1</t>
-  </si>
-  <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>putta 1</t>
-  </si>
-  <si>
-    <t>dhamma 1.03</t>
-  </si>
-  <si>
-    <t>ñāya</t>
-  </si>
-  <si>
-    <t>tathāgata</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>loma 1</t>
-  </si>
-  <si>
-    <t>khandha 1</t>
-  </si>
-  <si>
-    <t>sūriya 1</t>
-  </si>
-  <si>
-    <t>vaccha 1.1</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>sāra 2</t>
-  </si>
-  <si>
-    <t>attha 1.1</t>
-  </si>
-  <si>
-    <t>sāriputta</t>
-  </si>
-  <si>
-    <t>khattiya 2</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>padesa 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
-  </si>
-  <si>
-    <t>kopa 1</t>
-  </si>
-  <si>
-    <t>bhāva 1</t>
-  </si>
-  <si>
-    <t>satta 2.1</t>
-  </si>
-  <si>
-    <t>samatikkama</t>
-  </si>
-  <si>
-    <t>antarāya</t>
-  </si>
-  <si>
-    <t>upasama</t>
-  </si>
-  <si>
-    <t>bheda 2</t>
-  </si>
-  <si>
-    <t>dhamma 1.06</t>
-  </si>
-  <si>
-    <t>chanda 2</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>paccaya 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>kāya 1.2</t>
-  </si>
-  <si>
-    <t>bhoga 1.1</t>
-  </si>
-  <si>
-    <t>vasa 1.2</t>
-  </si>
-  <si>
-    <t>daṇḍa 1</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
-    <t>passāva</t>
-  </si>
-  <si>
-    <t>uccāra</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>māna 1.1</t>
-  </si>
-  <si>
-    <t>kodha 1</t>
-  </si>
-  <si>
-    <t>purisa 1</t>
-  </si>
-  <si>
-    <t>moghapurisa</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>moha 1</t>
-  </si>
-  <si>
-    <t>dosa 1</t>
-  </si>
-  <si>
-    <t>manasikāra</t>
-  </si>
-  <si>
-    <t>attha 1.2</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>paccaya 2</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>nara</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>upajjhāya</t>
-  </si>
-  <si>
-    <t>virāga 1.1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 1.02</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>samatha 1.1</t>
-  </si>
-  <si>
-    <t>nāga 2</t>
-  </si>
-  <si>
-    <t>loka 1</t>
-  </si>
-  <si>
-    <t>pallaṅka 2</t>
-  </si>
-  <si>
-    <t>rukkha</t>
-  </si>
-  <si>
-    <t>kāya 1.1</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>sāvaka</t>
-  </si>
-  <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>virāga 2.1</t>
-  </si>
-  <si>
-    <t>sāmika 1</t>
-  </si>
-  <si>
-    <t>gandha 1</t>
-  </si>
-  <si>
-    <t>ārāma 3</t>
-  </si>
-  <si>
-    <t>samaya 1.1</t>
-  </si>
-  <si>
-    <t>dhamma 1.14</t>
-  </si>
-  <si>
-    <t>sīha 1</t>
-  </si>
-  <si>
-    <t>ogha 1</t>
-  </si>
-  <si>
-    <t>dhamma 1.05</t>
-  </si>
-  <si>
-    <t>āhāra 1</t>
-  </si>
-  <si>
-    <t>anta 3</t>
-  </si>
-  <si>
-    <t>bheda 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>kāma 3</t>
-  </si>
-  <si>
-    <t>uddesa 1</t>
-  </si>
-  <si>
-    <t>ānisaṃsa 1</t>
-  </si>
-  <si>
-    <t>sambodha</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
-    <t>sota 1.1</t>
-  </si>
-  <si>
-    <t>apāya 1</t>
-  </si>
-  <si>
-    <t>bojjhaṅga</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>sakuṇa</t>
-  </si>
-  <si>
-    <t>vipāka 1</t>
-  </si>
-  <si>
-    <t>patta 1.1</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>loka 2</t>
-  </si>
-  <si>
-    <t>danta 1.1</t>
-  </si>
-  <si>
-    <t>satipaṭṭhāna 1</t>
-  </si>
-  <si>
-    <t>samudda</t>
-  </si>
-  <si>
-    <t>asura</t>
-  </si>
-  <si>
-    <t>kesa</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>magga 2</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>kāla 1.1</t>
-  </si>
-  <si>
-    <t>visesa 1</t>
-  </si>
-  <si>
-    <t>pañha 2</t>
-  </si>
-  <si>
-    <t>sahāya</t>
-  </si>
-  <si>
-    <t>pāsāda</t>
-  </si>
-  <si>
-    <t>paribbājaka</t>
-  </si>
-  <si>
-    <t>sunakkhatta 2</t>
-  </si>
-  <si>
-    <t>āvāsa 1</t>
-  </si>
-  <si>
-    <t>viveka 1</t>
-  </si>
-  <si>
-    <t>anta 2</t>
-  </si>
-  <si>
-    <t>chanda 1</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>uppāda 1.1</t>
-  </si>
-  <si>
-    <t>kaccāna</t>
-  </si>
-  <si>
-    <t>vitakka 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>pamāda</t>
-  </si>
-  <si>
-    <t>nissaya 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>byāpāda</t>
-  </si>
-  <si>
-    <t>attha 2.1</t>
-  </si>
-  <si>
     <t>anālaya 1</t>
   </si>
   <si>
@@ -1642,6 +1642,9 @@
     <t>ākaṅkhati</t>
   </si>
   <si>
+    <t>nisīdati</t>
+  </si>
+  <si>
     <t>gaṇhati 1</t>
   </si>
   <si>
@@ -1681,96 +1684,93 @@
     <t>saṃvattati</t>
   </si>
   <si>
+    <t>khādati</t>
+  </si>
+  <si>
+    <t>pucchati</t>
+  </si>
+  <si>
+    <t>gacchati 1</t>
+  </si>
+  <si>
+    <t>tiṭṭhati 1</t>
+  </si>
+  <si>
+    <t>vāyamati</t>
+  </si>
+  <si>
+    <t>adhigacchati</t>
+  </si>
+  <si>
+    <t>padahati 1</t>
+  </si>
+  <si>
+    <t>pavisati</t>
+  </si>
+  <si>
+    <t>viharati 1</t>
+  </si>
+  <si>
+    <t>labhati 1</t>
+  </si>
+  <si>
+    <t>kappati</t>
+  </si>
+  <si>
+    <t>pariharati 3</t>
+  </si>
+  <si>
+    <t>pavaḍḍhati 1</t>
+  </si>
+  <si>
+    <t>vaḍḍhati</t>
+  </si>
+  <si>
+    <t>passati 1</t>
+  </si>
+  <si>
+    <t>arahati 3</t>
+  </si>
+  <si>
+    <t>assasati</t>
+  </si>
+  <si>
+    <t>uddisati 1</t>
+  </si>
+  <si>
+    <t>uddharati 2</t>
+  </si>
+  <si>
+    <t>ovadati</t>
+  </si>
+  <si>
+    <t>kaṅkhati 1</t>
+  </si>
+  <si>
+    <t>carati 1.1</t>
+  </si>
+  <si>
+    <t>tiṭṭhati 3</t>
+  </si>
+  <si>
+    <t>pakkhandati 1</t>
+  </si>
+  <si>
+    <t>paṭisevati 2</t>
+  </si>
+  <si>
+    <t>pabbajati</t>
+  </si>
+  <si>
+    <t>passasati</t>
+  </si>
+  <si>
+    <t>passa 2.1</t>
+  </si>
+  <si>
     <t>vasati</t>
   </si>
   <si>
-    <t>khādati</t>
-  </si>
-  <si>
-    <t>pucchati</t>
-  </si>
-  <si>
-    <t>gacchati 1</t>
-  </si>
-  <si>
-    <t>tiṭṭhati 1</t>
-  </si>
-  <si>
-    <t>padahati 1</t>
-  </si>
-  <si>
-    <t>vāyamati</t>
-  </si>
-  <si>
-    <t>adhigacchati</t>
-  </si>
-  <si>
-    <t>pavisati</t>
-  </si>
-  <si>
-    <t>viharati 1</t>
-  </si>
-  <si>
-    <t>labhati 1</t>
-  </si>
-  <si>
-    <t>kappati</t>
-  </si>
-  <si>
-    <t>pariharati 3</t>
-  </si>
-  <si>
-    <t>pavaḍḍhati 1</t>
-  </si>
-  <si>
-    <t>vaḍḍhati</t>
-  </si>
-  <si>
-    <t>passati 1</t>
-  </si>
-  <si>
-    <t>arahati 3</t>
-  </si>
-  <si>
-    <t>assasati</t>
-  </si>
-  <si>
-    <t>uddisati 1</t>
-  </si>
-  <si>
-    <t>uddharati 2</t>
-  </si>
-  <si>
-    <t>ovadati</t>
-  </si>
-  <si>
-    <t>kaṅkhati 1</t>
-  </si>
-  <si>
-    <t>carati 1.1</t>
-  </si>
-  <si>
-    <t>tiṭṭhati 3</t>
-  </si>
-  <si>
-    <t>nisīdati</t>
-  </si>
-  <si>
-    <t>pakkhandati 1</t>
-  </si>
-  <si>
-    <t>paṭisevati 2</t>
-  </si>
-  <si>
-    <t>pabbajati</t>
-  </si>
-  <si>
-    <t>passasati</t>
-  </si>
-  <si>
-    <t>passa 2.1</t>
-  </si>
-  <si>
     <t>pūjeti 1</t>
   </si>
   <si>
@@ -1885,6 +1885,9 @@
     <t>upapajjati 1</t>
   </si>
   <si>
+    <t>maññati 1</t>
+  </si>
+  <si>
     <t>jhāyati 2</t>
   </si>
   <si>
@@ -1900,9 +1903,6 @@
     <t>ujjhāyati</t>
   </si>
   <si>
-    <t>maññati 1</t>
-  </si>
-  <si>
     <t>muñcati 2</t>
   </si>
   <si>
@@ -2089,24 +2089,24 @@
     <t>me 3</t>
   </si>
   <si>
+    <t>no 2.4</t>
+  </si>
+  <si>
+    <t>maṃ 1</t>
+  </si>
+  <si>
+    <t>mayā 1</t>
+  </si>
+  <si>
+    <t>amhākaṃ 3</t>
+  </si>
+  <si>
+    <t>me 2</t>
+  </si>
+  <si>
     <t>mayaṃ</t>
   </si>
   <si>
-    <t>no 2.4</t>
-  </si>
-  <si>
-    <t>maṃ 1</t>
-  </si>
-  <si>
-    <t>mayā 1</t>
-  </si>
-  <si>
-    <t>amhākaṃ 3</t>
-  </si>
-  <si>
-    <t>me 2</t>
-  </si>
-  <si>
     <t>sobhati 2</t>
   </si>
   <si>
@@ -2281,6 +2281,9 @@
     <t>assutavant</t>
   </si>
   <si>
+    <t>cakkhumant 2</t>
+  </si>
+  <si>
     <t>āyasmant 1</t>
   </si>
   <si>
@@ -2290,9 +2293,6 @@
     <t>iddhimant</t>
   </si>
   <si>
-    <t>cakkhumant 2</t>
-  </si>
-  <si>
     <t>akkhātar</t>
   </si>
   <si>
@@ -2434,6 +2434,9 @@
     <t>assa 3.1</t>
   </si>
   <si>
+    <t>saddhā 2</t>
+  </si>
+  <si>
     <t>taṇhā 1</t>
   </si>
   <si>
@@ -2539,9 +2542,6 @@
     <t>desanā 3</t>
   </si>
   <si>
-    <t>saddhā 2</t>
-  </si>
-  <si>
     <t>vīmaṃsā 1</t>
   </si>
   <si>
@@ -2617,9 +2617,15 @@
     <t>samādāya 2</t>
   </si>
   <si>
+    <t>upasampajja 1</t>
+  </si>
+  <si>
     <t>nissāya 1</t>
   </si>
   <si>
+    <t>paṇidhāya 1</t>
+  </si>
+  <si>
     <t>ādāya 1</t>
   </si>
   <si>
@@ -2641,15 +2647,9 @@
     <t>uṭṭhāya</t>
   </si>
   <si>
-    <t>upasampajja 1</t>
-  </si>
-  <si>
     <t>nisajja</t>
   </si>
   <si>
-    <t>paṇidhāya 1</t>
-  </si>
-  <si>
     <t>vivicca</t>
   </si>
   <si>
@@ -2722,18 +2722,18 @@
     <t>tattha 1</t>
   </si>
   <si>
+    <t>tattha 2</t>
+  </si>
+  <si>
+    <t>tatra 1</t>
+  </si>
+  <si>
+    <t>ettha 1</t>
+  </si>
+  <si>
     <t>yato 2</t>
   </si>
   <si>
-    <t>tattha 2</t>
-  </si>
-  <si>
-    <t>tatra 1</t>
-  </si>
-  <si>
-    <t>ettha 1</t>
-  </si>
-  <si>
     <t>upari 1</t>
   </si>
   <si>
@@ -2899,6 +2899,9 @@
     <t>amata 1</t>
   </si>
   <si>
+    <t>vajja 3</t>
+  </si>
+  <si>
     <t>adinna 1</t>
   </si>
   <si>
@@ -3079,9 +3082,6 @@
     <t>bala 2</t>
   </si>
   <si>
-    <t>vajja 3</t>
-  </si>
-  <si>
     <t>dukkha 3</t>
   </si>
   <si>
@@ -3535,7 +3535,7 @@
     <t>progressing; moving on; (comm) ending; depletion</t>
   </si>
   <si>
-    <t>free from discursive thought; lit. free from discursive thought; free from exploring, without pondering</t>
+    <t>free from discursive thought</t>
   </si>
   <si>
     <t>free from thinking; free from reflection</t>
@@ -3625,6 +3625,9 @@
     <t>got; acquired; attained; achieved; lit. arrived at</t>
   </si>
   <si>
+    <t>practised; rehearsed; consolidated; familiarized; lit. piled up; accumulated</t>
+  </si>
+  <si>
     <t>satisfied; pleased; content; happy with</t>
   </si>
   <si>
@@ -3664,9 +3667,6 @@
     <t>abandoned; dispelled; eliminated; removed; given up</t>
   </si>
   <si>
-    <t>practised; rehearsed; consolidated; familiarized; lit. piled up; accumulated</t>
-  </si>
-  <si>
     <t>asked; questioned</t>
   </si>
   <si>
@@ -3703,12 +3703,12 @@
     <t>fulfilled; completed; finished; lit. lived</t>
   </si>
   <si>
+    <t>mental poised; mentally balanced; equanimous; non-reactive; looking on; disregarding; lit. onlooker</t>
+  </si>
+  <si>
     <t>bad; wicked; evil; wrong; worthless; harmful</t>
   </si>
   <si>
-    <t>mental poised; mentally balanced; equanimous; non-reactive; looking on; disregarding; lit. onlooker</t>
-  </si>
-  <si>
     <t>big; great; large; grand; vast; extensive</t>
   </si>
   <si>
@@ -3997,15 +3997,15 @@
     <t>then; also; and so; after that</t>
   </si>
   <si>
+    <t>but; rather; even</t>
+  </si>
+  <si>
     <t>differently; otherwise</t>
   </si>
   <si>
     <t>after the death (of); after the passing (of); lit. with the passing</t>
   </si>
   <si>
-    <t>but; rather; even</t>
-  </si>
-  <si>
     <t>mostly; almost all; more or less; generally; largely; by and large; for the most part</t>
   </si>
   <si>
@@ -4279,405 +4279,405 @@
     <t>control (over); restraint (of); holding back (of)</t>
   </si>
   <si>
+    <t>sound; voice; tone</t>
+  </si>
+  <si>
+    <t>road; path; track; way</t>
+  </si>
+  <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>son; child</t>
+  </si>
+  <si>
+    <t>teaching; discourse; doctrine</t>
+  </si>
+  <si>
+    <t>method; system; means; way</t>
+  </si>
+  <si>
+    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>body hair</t>
+  </si>
+  <si>
+    <t>mass; heap; pile; volume</t>
+  </si>
+  <si>
+    <t>sun; lit. shining</t>
+  </si>
+  <si>
+    <t>calf; yearling; young animal</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
+    <t>core; essence; substance; value</t>
+  </si>
+  <si>
+    <t>meaning; sense; significance</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+  </si>
+  <si>
+    <t>man of the ruling caste; high caste man; nobleman</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>place; location; region; area</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>anger; wrath; rage; temper</t>
+  </si>
+  <si>
+    <t>state; condition; characteristic; nature</t>
+  </si>
+  <si>
+    <t>being; living being; creature</t>
+  </si>
+  <si>
+    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
+  </si>
+  <si>
+    <t>obstacle (for); danger (for); lit. coming in-between</t>
+  </si>
+  <si>
+    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
+  </si>
+  <si>
+    <t>(vinaya) schism; split; breakup</t>
+  </si>
+  <si>
+    <t>matter; thing; phenomena</t>
+  </si>
+  <si>
+    <t>(vinaya) consent; agreement; approval</t>
+  </si>
+  <si>
+    <t>requisite; requirement; necessity; accessory; everyday item</t>
+  </si>
+  <si>
+    <t>support; requisite; necessity</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
+  </si>
+  <si>
+    <t>group; host; company; collection; multitude; mass</t>
+  </si>
+  <si>
+    <t>wealth; possessions; property; riches</t>
+  </si>
+  <si>
+    <t>control (over); authority (over); power (over); mastery (over)</t>
+  </si>
+  <si>
+    <t>stick; truncheon; nightstick; club</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>urine</t>
+  </si>
+  <si>
+    <t>excrement; faeces</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>hell; hell realm; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
+  </si>
+  <si>
+    <t>pride; conceit; egotism; superiority; comparing oneself</t>
+  </si>
+  <si>
+    <t>man; person</t>
+  </si>
+  <si>
+    <t>fool; worthless man; useless person; stupid person; lit. empty man</t>
+  </si>
+  <si>
+    <t>being; becoming; existence</t>
+  </si>
+  <si>
+    <t>illusion; delusion; hallucination</t>
+  </si>
+  <si>
+    <t>aversion; ill-will; hate; hatred</t>
+  </si>
+  <si>
+    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
+  </si>
+  <si>
+    <t>benefit; profit; good; welfare; goal</t>
+  </si>
+  <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
+  </si>
+  <si>
+    <t>affliction; difficulty; trouble</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow; sadness</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
+  </si>
+  <si>
+    <t>preceptor; teacher</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner: (comm) seven stages of a noble person before arahantship</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
+  </si>
+  <si>
+    <t>tusker; bull elephant</t>
+  </si>
+  <si>
+    <t>world; universe; cosmos</t>
+  </si>
+  <si>
+    <t>cross-legged sitting position; meditation posture</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>body; physical body; physical process</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>disciple; pupil; follower; lit. hearer</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>smell; scent; odour</t>
+  </si>
+  <si>
+    <t>park; parkland; nature reserve</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. come together</t>
+  </si>
+  <si>
+    <t>act; practice</t>
+  </si>
+  <si>
+    <t>community; monastic order; assembly of monks</t>
+  </si>
+  <si>
+    <t>lion</t>
+  </si>
+  <si>
+    <t>(of water) flood; deluge; torrent</t>
+  </si>
+  <si>
+    <t>mental states</t>
+  </si>
+  <si>
+    <t>food (for); fuel (for); sustenance (for); nutriment (for); (comm) condition</t>
+  </si>
+  <si>
+    <t>end; side; extreme</t>
+  </si>
+  <si>
+    <t>death; lit. breakup</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman</t>
+  </si>
+  <si>
+    <t>sense desire (of); sensual pleasure (of)</t>
+  </si>
+  <si>
+    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
+  </si>
+  <si>
+    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
+  </si>
+  <si>
+    <t>enlightenment; full awakening; perfect understanding</t>
+  </si>
+  <si>
+    <t>arahant; enlightened being; saint; paragon</t>
+  </si>
+  <si>
+    <t>stream; river; current</t>
+  </si>
+  <si>
+    <t>state of loss; state of misery; lit. going away</t>
+  </si>
+  <si>
+    <t>element of awakening; factor of enlightenment</t>
+  </si>
+  <si>
+    <t>death; Death; death personified</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl; begging bowl</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>world; plane of existence</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>attending mindfully; being present with mindfulness</t>
+  </si>
+  <si>
+    <t>sea; ocean</t>
+  </si>
+  <si>
+    <t>titan; enemy of the devas; lit. anti-hero</t>
+  </si>
+  <si>
+    <t>(head) hair</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>way; means; method</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>contact; sense impingement; raw experience; touch</t>
+  </si>
+  <si>
+    <t>time; occasion</t>
+  </si>
+  <si>
+    <t>distinction; attainment; superior state; eminence</t>
+  </si>
+  <si>
+    <t>question; enquiry</t>
+  </si>
+  <si>
+    <t>friend; companion; ally; fellow traveller; lit. going with</t>
+  </si>
+  <si>
+    <t>mansion; stately home; palace; building with pillars</t>
+  </si>
+  <si>
+    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
+  </si>
+  <si>
+    <t>name of a former monk; lit. good star sign</t>
+  </si>
+  <si>
+    <t>home (of); dwelling place (of); residence (of)</t>
+  </si>
+  <si>
+    <t>seclusion; solitude; detachment; disengagement; independence</t>
+  </si>
+  <si>
+    <t>end (of); limit (of); finish (of); conclusion (of)</t>
+  </si>
+  <si>
+    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
+  </si>
+  <si>
+    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
+  </si>
+  <si>
+    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
+  </si>
+  <si>
+    <t>family name; lit. descendant of Kati</t>
+  </si>
+  <si>
+    <t>thought; reflection; pondering</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>carelessness; negligence; heedlessness</t>
+  </si>
+  <si>
+    <t>dependency; physical support; reliance; something one depends on</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>dislike; ill-will; hatred; hostility; enmity; malevolence; lit. going wrong</t>
+  </si>
+  <si>
+    <t>need (for); want (for); lit. want</t>
+  </si>
+  <si>
     <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
   </si>
   <si>
-    <t>sound; voice; tone</t>
-  </si>
-  <si>
-    <t>road; path; track; way</t>
-  </si>
-  <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>son; child</t>
-  </si>
-  <si>
-    <t>teaching; discourse; doctrine</t>
-  </si>
-  <si>
-    <t>method; system; means; way</t>
-  </si>
-  <si>
-    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>body hair</t>
-  </si>
-  <si>
-    <t>mass; heap; pile; volume</t>
-  </si>
-  <si>
-    <t>sun; lit. shining</t>
-  </si>
-  <si>
-    <t>calf; yearling; young animal</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>core; essence; substance; value</t>
-  </si>
-  <si>
-    <t>meaning; sense; significance</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
-  </si>
-  <si>
-    <t>man of the ruling caste; high caste man; nobleman</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>place; location; region; area</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
-  </si>
-  <si>
-    <t>anger; wrath; rage; temper</t>
-  </si>
-  <si>
-    <t>state; condition; characteristic; nature</t>
-  </si>
-  <si>
-    <t>being; living being; creature</t>
-  </si>
-  <si>
-    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
-  </si>
-  <si>
-    <t>obstacle (for); danger (for); lit. coming in-between</t>
-  </si>
-  <si>
-    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
-  </si>
-  <si>
-    <t>(vinaya) schism; split; breakup</t>
-  </si>
-  <si>
-    <t>matter; thing; phenomena</t>
-  </si>
-  <si>
-    <t>(vinaya) consent; agreement; approval</t>
-  </si>
-  <si>
-    <t>requisite; requirement; necessity; accessory; everyday item</t>
-  </si>
-  <si>
-    <t>support; requisite; necessity</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
-  </si>
-  <si>
-    <t>group; host; company; collection; multitude; mass</t>
-  </si>
-  <si>
-    <t>wealth; possessions; property; riches</t>
-  </si>
-  <si>
-    <t>control (over); authority (over); power (over); mastery (over)</t>
-  </si>
-  <si>
-    <t>stick; truncheon; nightstick; club</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
-    <t>urine</t>
-  </si>
-  <si>
-    <t>excrement; faeces</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>hell; hell realm; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
-  </si>
-  <si>
-    <t>pride; conceit; egotism; superiority; comparing oneself</t>
-  </si>
-  <si>
-    <t>man; person</t>
-  </si>
-  <si>
-    <t>fool; worthless man; useless person; stupid person; lit. empty man</t>
-  </si>
-  <si>
-    <t>community; monastic order; assembly of monks</t>
-  </si>
-  <si>
-    <t>being; becoming; existence</t>
-  </si>
-  <si>
-    <t>illusion; delusion; hallucination</t>
-  </si>
-  <si>
-    <t>aversion; ill-will; hate; hatred</t>
-  </si>
-  <si>
-    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
-  </si>
-  <si>
-    <t>benefit; profit; good; welfare; goal</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
-  </si>
-  <si>
-    <t>affliction; difficulty; trouble</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow; sadness</t>
-  </si>
-  <si>
-    <t>teacher; religious leader</t>
-  </si>
-  <si>
-    <t>preceptor; teacher</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>trainee; apprentice; learner: (comm) seven stages of a noble person before arahantship</t>
-  </si>
-  <si>
-    <t>quality; characteristic; trait; inherent quality</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent</t>
-  </si>
-  <si>
-    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
-  </si>
-  <si>
-    <t>tusker; bull elephant</t>
-  </si>
-  <si>
-    <t>world; universe; cosmos</t>
-  </si>
-  <si>
-    <t>cross-legged sitting position; meditation posture</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>body; physical body; physical process</t>
-  </si>
-  <si>
-    <t>deity; god</t>
-  </si>
-  <si>
-    <t>disciple; pupil; follower; lit. hearer</t>
-  </si>
-  <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
-  </si>
-  <si>
-    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
-    <t>smell; scent; odour</t>
-  </si>
-  <si>
-    <t>park; parkland; nature reserve</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. come together</t>
-  </si>
-  <si>
-    <t>act; practice</t>
-  </si>
-  <si>
-    <t>lion</t>
-  </si>
-  <si>
-    <t>(of water) flood; deluge; torrent</t>
-  </si>
-  <si>
-    <t>mental states</t>
-  </si>
-  <si>
-    <t>food (for); fuel (for); sustenance (for); nutriment (for); (comm) condition</t>
-  </si>
-  <si>
-    <t>end; side; extreme</t>
-  </si>
-  <si>
-    <t>death; lit. breakup</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman</t>
-  </si>
-  <si>
-    <t>sense desire (of); sensual pleasure (of)</t>
-  </si>
-  <si>
-    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
-  </si>
-  <si>
-    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
-  </si>
-  <si>
-    <t>enlightenment; full awakening; perfect understanding</t>
-  </si>
-  <si>
-    <t>arahant; enlightened being; saint; paragon</t>
-  </si>
-  <si>
-    <t>stream; river; current</t>
-  </si>
-  <si>
-    <t>state of loss; state of misery; lit. going away</t>
-  </si>
-  <si>
-    <t>element of awakening; factor of enlightenment</t>
-  </si>
-  <si>
-    <t>death; Death; death personified</t>
-  </si>
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl; begging bowl</t>
-  </si>
-  <si>
-    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
-  </si>
-  <si>
-    <t>world; plane of existence</t>
-  </si>
-  <si>
-    <t>tooth</t>
-  </si>
-  <si>
-    <t>attending mindfully; being present with mindfulness</t>
-  </si>
-  <si>
-    <t>sea; ocean</t>
-  </si>
-  <si>
-    <t>titan; enemy of the devas; lit. anti-hero</t>
-  </si>
-  <si>
-    <t>(head) hair</t>
-  </si>
-  <si>
-    <t>foot</t>
-  </si>
-  <si>
-    <t>way; means; method</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>contact; sense impingement; raw experience; touch</t>
-  </si>
-  <si>
-    <t>time; occasion</t>
-  </si>
-  <si>
-    <t>distinction; attainment; superior state; eminence</t>
-  </si>
-  <si>
-    <t>question; enquiry</t>
-  </si>
-  <si>
-    <t>friend; companion; ally; fellow traveller; lit. going with</t>
-  </si>
-  <si>
-    <t>mansion; stately home; palace; building with pillars</t>
-  </si>
-  <si>
-    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
-  </si>
-  <si>
-    <t>name of a former monk; lit. good star sign</t>
-  </si>
-  <si>
-    <t>home (of); dwelling place (of); residence (of)</t>
-  </si>
-  <si>
-    <t>seclusion; solitude; detachment; disengagement; independence</t>
-  </si>
-  <si>
-    <t>end (of); limit (of); finish (of); conclusion (of)</t>
-  </si>
-  <si>
-    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
-  </si>
-  <si>
-    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
-  </si>
-  <si>
-    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
-  </si>
-  <si>
-    <t>family name; lit. descendant of Kati</t>
-  </si>
-  <si>
-    <t>thought; reflection; pondering</t>
-  </si>
-  <si>
-    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
-  </si>
-  <si>
-    <t>carelessness; negligence; heedlessness</t>
-  </si>
-  <si>
-    <t>dependency; physical support; reliance; something one depends on</t>
-  </si>
-  <si>
-    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>dislike; ill-will; hatred; hostility; enmity; malevolence; lit. going wrong</t>
-  </si>
-  <si>
-    <t>need (for); want (for); lit. want</t>
-  </si>
-  <si>
     <t>non-clinging; non-attachment; non-reliance; unstuck</t>
   </si>
   <si>
@@ -4822,6 +4822,9 @@
     <t>wishes (for); wants; desires; aspires (for)</t>
   </si>
   <si>
+    <t>sits (on); sits down (in)</t>
+  </si>
+  <si>
     <t>grabs hold (of); seizes; takes</t>
   </si>
   <si>
@@ -4861,96 +4864,93 @@
     <t>leads (to); results (in); causes</t>
   </si>
   <si>
+    <t>chews; devours; eats</t>
+  </si>
+  <si>
+    <t>asks; enquires; questions</t>
+  </si>
+  <si>
+    <t>goes; walks; moves; wanders around</t>
+  </si>
+  <si>
+    <t>stands</t>
+  </si>
+  <si>
+    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
+  </si>
+  <si>
+    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
+  </si>
+  <si>
+    <t>exerts oneself; strives; applies oneself; endeavours; lit. put forward</t>
+  </si>
+  <si>
+    <t>enters; goes (into)</t>
+  </si>
+  <si>
+    <t>lives (in); dwells (in)</t>
+  </si>
+  <si>
+    <t>gets; receives; obtains</t>
+  </si>
+  <si>
+    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
+  </si>
+  <si>
+    <t>takes care (of); looks after; maintains; lit. carries around</t>
+  </si>
+  <si>
+    <t>increases; develops; grows</t>
+  </si>
+  <si>
+    <t>increases (in); grows (in); develops (in); lit. increases</t>
+  </si>
+  <si>
+    <t>sees</t>
+  </si>
+  <si>
+    <t>should; ought (to); is suitable (for); it is befitting (for)</t>
+  </si>
+  <si>
+    <t>inhales; breathes in</t>
+  </si>
+  <si>
+    <t>recites; chants; lit. points up</t>
+  </si>
+  <si>
+    <t>removes; takes away; packs up</t>
+  </si>
+  <si>
+    <t>advises; instructs; admonishes</t>
+  </si>
+  <si>
+    <t>has doubt (about); is uncertain (about)</t>
+  </si>
+  <si>
+    <t>walks; wanders; goes around; travels; fares on</t>
+  </si>
+  <si>
+    <t>remains; persists; lasts; lit. stands</t>
+  </si>
+  <si>
+    <t>takes to it; gets it; gains confidence; is inspired; is eager; lit. jumps forward</t>
+  </si>
+  <si>
+    <t>uses; makes use (of); lit. associates</t>
+  </si>
+  <si>
+    <t>ordains as monk; renounces the household life; lit. goes into exile</t>
+  </si>
+  <si>
+    <t>exhales; breathes out</t>
+  </si>
+  <si>
+    <t>see!; look (at)!</t>
+  </si>
+  <si>
     <t>lives; stays; resides (in)</t>
   </si>
   <si>
-    <t>chews; devours; eats</t>
-  </si>
-  <si>
-    <t>asks; enquires; questions</t>
-  </si>
-  <si>
-    <t>goes; walks; moves; wanders around</t>
-  </si>
-  <si>
-    <t>stands</t>
-  </si>
-  <si>
-    <t>exerts oneself; strives; applies oneself; endeavours; lit. put forward</t>
-  </si>
-  <si>
-    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
-  </si>
-  <si>
-    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
-  </si>
-  <si>
-    <t>enters; goes (into)</t>
-  </si>
-  <si>
-    <t>lives (in); dwells (in)</t>
-  </si>
-  <si>
-    <t>gets; receives; obtains</t>
-  </si>
-  <si>
-    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
-  </si>
-  <si>
-    <t>takes care (of); looks after; maintains; lit. carries around</t>
-  </si>
-  <si>
-    <t>increases; develops; grows</t>
-  </si>
-  <si>
-    <t>increases (in); grows (in); develops (in); lit. increases</t>
-  </si>
-  <si>
-    <t>sees</t>
-  </si>
-  <si>
-    <t>should; ought (to); is suitable (for); it is befitting (for)</t>
-  </si>
-  <si>
-    <t>inhales; breathes in</t>
-  </si>
-  <si>
-    <t>recites; chants; lit. points up</t>
-  </si>
-  <si>
-    <t>removes; takes away; packs up</t>
-  </si>
-  <si>
-    <t>advises; instructs; admonishes</t>
-  </si>
-  <si>
-    <t>has doubt (about); is uncertain (about)</t>
-  </si>
-  <si>
-    <t>walks; wanders; goes around; travels; fares on</t>
-  </si>
-  <si>
-    <t>remains; persists; lasts; lit. stands</t>
-  </si>
-  <si>
-    <t>sits (on); sits down (in)</t>
-  </si>
-  <si>
-    <t>takes to it; gets it; gains confidence; is inspired; is eager; lit. jumps forward</t>
-  </si>
-  <si>
-    <t>uses; makes use (of); lit. associates</t>
-  </si>
-  <si>
-    <t>ordains as monk; renounces the household life; lit. goes into exile</t>
-  </si>
-  <si>
-    <t>exhales; breathes out</t>
-  </si>
-  <si>
-    <t>see!; look (at)!</t>
-  </si>
-  <si>
     <t>worships; honours; respects</t>
   </si>
   <si>
@@ -5062,6 +5062,9 @@
     <t>is reborn (in); re-arises (in); lit. goes towards</t>
   </si>
   <si>
+    <t>thinks; imagines; conceives: presumes; supposes</t>
+  </si>
+  <si>
     <t>meditates; contemplates; lit. thinks</t>
   </si>
   <si>
@@ -5077,9 +5080,6 @@
     <t>finds fault; thinks badly of</t>
   </si>
   <si>
-    <t>thinks; imagines; conceives: presumes; supposes</t>
-  </si>
-  <si>
     <t>gets angry (with); lit. releases</t>
   </si>
   <si>
@@ -5266,24 +5266,24 @@
     <t>to me; for me</t>
   </si>
   <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>me (object)</t>
+  </si>
+  <si>
+    <t>by me; with me</t>
+  </si>
+  <si>
+    <t>our; of us; my (royal plural)</t>
+  </si>
+  <si>
+    <t>by me</t>
+  </si>
+  <si>
     <t>we; I (royal plural)</t>
   </si>
   <si>
-    <t>our</t>
-  </si>
-  <si>
-    <t>me (object)</t>
-  </si>
-  <si>
-    <t>by me; with me</t>
-  </si>
-  <si>
-    <t>our; of us; my (royal plural)</t>
-  </si>
-  <si>
-    <t>by me</t>
-  </si>
-  <si>
     <t>looks beautiful (in); lit. shines</t>
   </si>
   <si>
@@ -5458,6 +5458,9 @@
     <t>unlearned; untaught; uninitiated; untrained; lit. having not heard quality</t>
   </si>
   <si>
+    <t>person with sight; who can see; lit. having eyes quality</t>
+  </si>
+  <si>
     <t>venerable; reverend; lit. having age quality</t>
   </si>
   <si>
@@ -5467,9 +5470,6 @@
     <t>who has psychic powers; possessing supernatural ability; lit. having power quality</t>
   </si>
   <si>
-    <t>person with sight; who can see; lit. having eyes quality</t>
-  </si>
-  <si>
     <t>speaker (of); who tells (about); who speaks (about); who expresses (about)</t>
   </si>
   <si>
@@ -5611,6 +5611,9 @@
     <t>may be; could be; should be</t>
   </si>
   <si>
+    <t>confidence (in); assurance (in); conviction (in); lit. putting heart</t>
+  </si>
+  <si>
     <t>craving (for); wanting; desire (for); lit. thirst</t>
   </si>
   <si>
@@ -5713,9 +5716,6 @@
     <t>(vinaya) appointing; allocating; indicating; designating; showing; lit. pointing out</t>
   </si>
   <si>
-    <t>confidence (in); assurance (in); conviction (in); lit. putting heart</t>
-  </si>
-  <si>
     <t>inquiry; judgement; investigation; discrimination</t>
   </si>
   <si>
@@ -5788,9 +5788,15 @@
     <t>undertaking; taking up; accepting</t>
   </si>
   <si>
+    <t>reaching; attaining; arriving at</t>
+  </si>
+  <si>
     <t>leaning (on); depending (on); being supported (by)</t>
   </si>
   <si>
+    <t>guiding; directing; determining; setting; lit. placing forward</t>
+  </si>
+  <si>
     <t>taking</t>
   </si>
   <si>
@@ -5812,15 +5818,9 @@
     <t>rising (from); emerging (from); getting up (from)</t>
   </si>
   <si>
-    <t>reaching; attaining; arriving at</t>
-  </si>
-  <si>
     <t>sitting down</t>
   </si>
   <si>
-    <t>guiding; directing; determining; setting; lit. placing forward</t>
-  </si>
-  <si>
     <t>separating (from); aloof (from)</t>
   </si>
   <si>
@@ -5893,15 +5893,15 @@
     <t>there; in that place</t>
   </si>
   <si>
+    <t>in that regard; in that case; regarding that matter</t>
+  </si>
+  <si>
+    <t>here; in this place; in this case; in this regard</t>
+  </si>
+  <si>
     <t>since; because; due to the fact that; lit. from which</t>
   </si>
   <si>
-    <t>in that regard; in that case; regarding that matter</t>
-  </si>
-  <si>
-    <t>here; in this place; in this case; in this regard</t>
-  </si>
-  <si>
     <t>above; overhead</t>
   </si>
   <si>
@@ -6067,6 +6067,9 @@
     <t>deathless state; immortality; ambrosia; drink of immortality; epithet of Nibbāna</t>
   </si>
   <si>
+    <t>fault (of); error (of); mistake (of); lit. to be avoided</t>
+  </si>
+  <si>
     <t>which is not given; something not offered</t>
   </si>
   <si>
@@ -6245,9 +6248,6 @@
   </si>
   <si>
     <t>(Dhamma) power; strength</t>
-  </si>
-  <si>
-    <t>fault (of); error (of); mistake (of); lit. to be avoided</t>
   </si>
   <si>
     <t>discomfort; suffering; unease; unpleasantness; something unsatisfactory; trouble; a bummer; stress</t>
@@ -13778,7 +13778,7 @@
         <v>1052</v>
       </c>
       <c r="C402" t="s">
-        <v>1467</v>
+        <v>1441</v>
       </c>
       <c r="D402" t="s">
         <v>2113</v>
@@ -13795,7 +13795,7 @@
         <v>1052</v>
       </c>
       <c r="C403" t="s">
-        <v>1442</v>
+        <v>1467</v>
       </c>
       <c r="D403" t="s">
         <v>2113</v>
@@ -13999,7 +13999,7 @@
         <v>1052</v>
       </c>
       <c r="C415" t="s">
-        <v>1479</v>
+        <v>1467</v>
       </c>
       <c r="D415" t="s">
         <v>2113</v>
@@ -14016,7 +14016,7 @@
         <v>1052</v>
       </c>
       <c r="C416" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="D416" t="s">
         <v>2113</v>
@@ -14033,7 +14033,7 @@
         <v>1052</v>
       </c>
       <c r="C417" t="s">
-        <v>1468</v>
+        <v>1480</v>
       </c>
       <c r="D417" t="s">
         <v>2113</v>
@@ -16801,7 +16801,7 @@
         <v>583</v>
       </c>
       <c r="B580" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="C580" t="s">
         <v>1643</v>
@@ -16818,7 +16818,7 @@
         <v>584</v>
       </c>
       <c r="B581" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="C581" t="s">
         <v>1644</v>
@@ -21037,7 +21037,7 @@
         <v>1062</v>
       </c>
       <c r="C829" t="s">
-        <v>1493</v>
+        <v>1891</v>
       </c>
       <c r="D829" t="s">
         <v>2136</v>
@@ -21054,7 +21054,7 @@
         <v>1062</v>
       </c>
       <c r="C830" t="s">
-        <v>1891</v>
+        <v>1491</v>
       </c>
       <c r="D830" t="s">
         <v>2136</v>
@@ -22244,7 +22244,7 @@
         <v>1054</v>
       </c>
       <c r="C900" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="D900" t="s">
         <v>1054</v>
@@ -22261,7 +22261,7 @@
         <v>1054</v>
       </c>
       <c r="C901" t="s">
-        <v>1958</v>
+        <v>1960</v>
       </c>
       <c r="D901" t="s">
         <v>1054</v>
